--- a/xlsx/scordelis_lo_roof_penalty_alpha.xlsx
+++ b/xlsx/scordelis_lo_roof_penalty_alpha.xlsx
@@ -2682,55 +2682,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1">
-        <v>-0.1269026430922755</v>
+        <v>-3579.648262727524</v>
       </c>
       <c r="B1">
-        <v>-0.12571353805606944</v>
+        <v>-3555.881500617291</v>
       </c>
       <c r="C1">
-        <v>-0.12347420266830883</v>
+        <v>-3358.1326292995827</v>
       </c>
       <c r="D1">
-        <v>-0.12089547522608882</v>
+        <v>-2695.04295110631</v>
       </c>
       <c r="E1">
-        <v>-0.11756025887444393</v>
+        <v>-2322.2102622996244</v>
       </c>
       <c r="F1">
-        <v>-0.11408820775331587</v>
+        <v>-2265.4280216023867</v>
       </c>
       <c r="G1">
-        <v>-0.1104976411306172</v>
+        <v>-2257.2016987296965</v>
       </c>
       <c r="H1">
-        <v>-0.10819317455906464</v>
+        <v>-2255.7311687911483</v>
       </c>
       <c r="I1">
-        <v>-0.10778766979980296</v>
+        <v>-2254.511522736965</v>
       </c>
       <c r="J1">
-        <v>-0.1077093814839951</v>
+        <v>-2252.5007354559307</v>
       </c>
       <c r="K1">
-        <v>-0.106821945511234</v>
+        <v>-2251.848084393366</v>
       </c>
       <c r="L1">
-        <v>-0.1363701368059546</v>
+        <v>-2251.660056033006</v>
       </c>
       <c r="M1">
-        <v>-0.23621517645801385</v>
+        <v>-2251.5205628111394</v>
       </c>
       <c r="N1">
-        <v>-0.03356677668154747</v>
+        <v>-2252.3512186241637</v>
       </c>
       <c r="O1">
-        <v>0.0014268984011604501</v>
+        <v>-2235.128088326125</v>
       </c>
       <c r="P1">
-        <v>-0.001813716927345206</v>
+        <v>-2145.6177621526117</v>
       </c>
       <c r="Q1">
-        <v>2.4906377604071843e-5</v>
+        <v>7072.961118342124</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
@@ -2738,55 +2738,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>-0.12325692767875168</v>
+        <v>-1281.5144195780504</v>
       </c>
       <c r="B2">
-        <v>-0.12172429265698079</v>
+        <v>-1266.8982750075177</v>
       </c>
       <c r="C2">
-        <v>-0.11822033313766518</v>
+        <v>-1140.4609071739</v>
       </c>
       <c r="D2">
-        <v>-0.11552698569549226</v>
+        <v>-641.9529382505784</v>
       </c>
       <c r="E2">
-        <v>-0.11153184051408585</v>
+        <v>-296.99496573659815</v>
       </c>
       <c r="F2">
-        <v>-0.10373174522951298</v>
+        <v>-239.75028541274347</v>
       </c>
       <c r="G2">
-        <v>-0.09601420001690439</v>
+        <v>-231.83267632394535</v>
       </c>
       <c r="H2">
-        <v>-0.0928557216569859</v>
+        <v>-230.47388271734522</v>
       </c>
       <c r="I2">
-        <v>-0.09234931206196854</v>
+        <v>-229.38191523269592</v>
       </c>
       <c r="J2">
-        <v>-0.09224752167561154</v>
+        <v>-227.49125263511831</v>
       </c>
       <c r="K2">
-        <v>-0.0915083223678173</v>
+        <v>-226.84712466107788</v>
       </c>
       <c r="L2">
-        <v>-0.10323740095006724</v>
+        <v>-226.64249969826028</v>
       </c>
       <c r="M2">
-        <v>0.35647445333445593</v>
+        <v>-226.35325473652108</v>
       </c>
       <c r="N2">
-        <v>-0.009964680150846977</v>
+        <v>-226.19652858800032</v>
       </c>
       <c r="O2">
-        <v>0.005083181372583257</v>
+        <v>-225.77402679107504</v>
       </c>
       <c r="P2">
-        <v>0.00019930704519903217</v>
+        <v>-225.02803806910498</v>
       </c>
       <c r="Q2">
-        <v>-3.746994485944985e-6</v>
+        <v>-265.7695885979059</v>
       </c>
       <c r="R2">
         <v>-2.1509758391599968E-2</v>
@@ -2794,55 +2794,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>-0.11132912392560106</v>
+        <v>-584.1940626031123</v>
       </c>
       <c r="B3">
-        <v>-0.11005471834333261</v>
+        <v>-580.4488845111924</v>
       </c>
       <c r="C3">
-        <v>-0.10726925430485376</v>
+        <v>-545.5932628812621</v>
       </c>
       <c r="D3">
-        <v>-0.1019269150253391</v>
+        <v>-345.2560453143006</v>
       </c>
       <c r="E3">
-        <v>-0.0966066841468511</v>
+        <v>-92.7014750954471</v>
       </c>
       <c r="F3">
-        <v>-0.0864355059358215</v>
+        <v>-34.49095725585339</v>
       </c>
       <c r="G3">
-        <v>-0.07044527799403305</v>
+        <v>-27.456167476380557</v>
       </c>
       <c r="H3">
-        <v>-0.06407956445541117</v>
+        <v>-26.538067068339263</v>
       </c>
       <c r="I3">
-        <v>-0.06313973844466451</v>
+        <v>-26.049581442700347</v>
       </c>
       <c r="J3">
-        <v>-0.06302630180883197</v>
+        <v>-24.91011528710688</v>
       </c>
       <c r="K3">
-        <v>-0.0629175957431252</v>
+        <v>-24.34507642524878</v>
       </c>
       <c r="L3">
-        <v>-0.07029825278555729</v>
+        <v>-24.1412525185635</v>
       </c>
       <c r="M3">
-        <v>-0.1645285878750211</v>
+        <v>-23.850107220444237</v>
       </c>
       <c r="N3">
-        <v>-0.01757442075811498</v>
+        <v>-23.673819597282353</v>
       </c>
       <c r="O3">
-        <v>-0.0002678180662548174</v>
+        <v>-23.444870726124535</v>
       </c>
       <c r="P3">
-        <v>-0.009454759922182438</v>
+        <v>-23.24900394106155</v>
       </c>
       <c r="Q3">
-        <v>1.2639530311601341e-5</v>
+        <v>-23.422708839813858</v>
       </c>
       <c r="R3">
         <v>-2.2604289096884046E-2</v>
@@ -2850,55 +2850,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>-0.09818281082197247</v>
+        <v>-187.0467069289239</v>
       </c>
       <c r="B4">
-        <v>-0.09617753777350925</v>
+        <v>-186.66369023839755</v>
       </c>
       <c r="C4">
-        <v>-0.09474053402072752</v>
+        <v>-182.91994843859658</v>
       </c>
       <c r="D4">
-        <v>-0.09111228638635674</v>
+        <v>-152.49303504655728</v>
       </c>
       <c r="E4">
-        <v>-0.08301281406431127</v>
+        <v>-59.12802152145644</v>
       </c>
       <c r="F4">
-        <v>-0.07299029065024157</v>
+        <v>-11.987851424834892</v>
       </c>
       <c r="G4">
-        <v>-0.05969428638876692</v>
+        <v>-5.288370370296716</v>
       </c>
       <c r="H4">
-        <v>-0.053243123524156465</v>
+        <v>-4.566439223092693</v>
       </c>
       <c r="I4">
-        <v>-0.05223618564206342</v>
+        <v>-4.471241276549021</v>
       </c>
       <c r="J4">
-        <v>-0.05211609586041552</v>
+        <v>-4.327462999825918</v>
       </c>
       <c r="K4">
-        <v>-0.052178954284180436</v>
+        <v>-4.076443056876091</v>
       </c>
       <c r="L4">
-        <v>-0.05602375981679085</v>
+        <v>-3.8816465256545256</v>
       </c>
       <c r="M4">
-        <v>-0.15994471224188814</v>
+        <v>-3.5902335922458968</v>
       </c>
       <c r="N4">
-        <v>-0.011032510512710848</v>
+        <v>-3.413662237323632</v>
       </c>
       <c r="O4">
-        <v>-9.912205049185125e-5</v>
+        <v>-3.1869810951268738</v>
       </c>
       <c r="P4">
-        <v>-0.0028047540574637044</v>
+        <v>-2.997097177060394</v>
       </c>
       <c r="Q4">
-        <v>-4.421342774858479e-6</v>
+        <v>-2.9649879864613187</v>
       </c>
       <c r="R4">
         <v>-2.203292825905187E-2</v>
@@ -2906,55 +2906,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>-0.0922929347895081</v>
+        <v>-26.281984718474767</v>
       </c>
       <c r="B5">
-        <v>-0.08931732787792367</v>
+        <v>-26.27434493960154</v>
       </c>
       <c r="C5">
-        <v>-0.08785819914886804</v>
+        <v>-26.198210400752853</v>
       </c>
       <c r="D5">
-        <v>-0.08510232281530584</v>
+        <v>-25.462304987665505</v>
       </c>
       <c r="E5">
-        <v>-0.0754732686737783</v>
+        <v>-19.989758321932168</v>
       </c>
       <c r="F5">
-        <v>-0.060570932446513265</v>
+        <v>-7.401062862649952</v>
       </c>
       <c r="G5">
-        <v>-0.053067805395837955</v>
+        <v>-2.6704985244815904</v>
       </c>
       <c r="H5">
-        <v>-0.04917438383125308</v>
+        <v>-2.047681317131833</v>
       </c>
       <c r="I5">
-        <v>-0.048370803392975135</v>
+        <v>-1.98155477254128</v>
       </c>
       <c r="J5">
-        <v>-0.048286528126172734</v>
+        <v>-1.9691378391978578</v>
       </c>
       <c r="K5">
-        <v>-0.048203106401940886</v>
+        <v>-1.925039240423831</v>
       </c>
       <c r="L5">
-        <v>-0.051662144292230865</v>
+        <v>-1.7693970995255754</v>
       </c>
       <c r="M5">
-        <v>-0.12086014340547016</v>
+        <v>-1.4821318590243442</v>
       </c>
       <c r="N5">
-        <v>-0.015338719003464795</v>
+        <v>-1.3063635162004716</v>
       </c>
       <c r="O5">
-        <v>0.0007021436283845526</v>
+        <v>-1.0846500592261077</v>
       </c>
       <c r="P5">
-        <v>0.00019436048294577176</v>
+        <v>-0.8958314130859684</v>
       </c>
       <c r="Q5">
-        <v>1.6121940965367453e-5</v>
+        <v>-0.8603552088074484</v>
       </c>
       <c r="R5">
         <v>-2.0431425676285104E-2</v>
@@ -2962,55 +2962,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>-0.0876284965646351</v>
+        <v>-3.2565082256021007</v>
       </c>
       <c r="B6">
-        <v>-0.08392536930547914</v>
+        <v>-3.256347831616834</v>
       </c>
       <c r="C6">
-        <v>-0.08229198321435638</v>
+        <v>-3.25474540735308</v>
       </c>
       <c r="D6">
-        <v>-0.0798009593932892</v>
+        <v>-3.238871146881556</v>
       </c>
       <c r="E6">
-        <v>-0.07040308715281582</v>
+        <v>-3.0937152924293945</v>
       </c>
       <c r="F6">
-        <v>-0.053424028112873855</v>
+        <v>-2.3214083210883185</v>
       </c>
       <c r="G6">
-        <v>-0.04687953475369026</v>
+        <v>-1.3848076659934414</v>
       </c>
       <c r="H6">
-        <v>-0.04567328834539267</v>
+        <v>-1.1548992071219317</v>
       </c>
       <c r="I6">
-        <v>-0.04530320238038903</v>
+        <v>-1.1278843355163857</v>
       </c>
       <c r="J6">
-        <v>-0.04522623252290129</v>
+        <v>-1.1251562469761622</v>
       </c>
       <c r="K6">
-        <v>-0.04517427111183997</v>
+        <v>-1.1192634452125123</v>
       </c>
       <c r="L6">
-        <v>-0.04842202420642783</v>
+        <v>-1.0641920581924613</v>
       </c>
       <c r="M6">
-        <v>-0.07852292633829129</v>
+        <v>-0.9077964790784141</v>
       </c>
       <c r="N6">
-        <v>-0.020103097999594133</v>
+        <v>-0.7842915950278782</v>
       </c>
       <c r="O6">
-        <v>0.00017429506168782212</v>
+        <v>-0.6079641060321166</v>
       </c>
       <c r="P6">
-        <v>-0.0011059750292708335</v>
+        <v>-0.4368814118568376</v>
       </c>
       <c r="Q6">
-        <v>2.1360125383610936e-5</v>
+        <v>-0.40218457405973934</v>
       </c>
       <c r="R6">
         <v>-4.0254967833055072E-2</v>
@@ -3018,55 +3018,55 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>-0.08504542128936925</v>
+        <v>-0.8174623407766649</v>
       </c>
       <c r="B7">
-        <v>-0.08140381887549303</v>
+        <v>-0.817420086921016</v>
       </c>
       <c r="C7">
-        <v>-0.0796854053424877</v>
+        <v>-0.8169979726571376</v>
       </c>
       <c r="D7">
-        <v>-0.07727030563183142</v>
+        <v>-0.812818829952514</v>
       </c>
       <c r="E7">
-        <v>-0.06834592068427765</v>
+        <v>-0.774836781895183</v>
       </c>
       <c r="F7">
-        <v>-0.05179236510183353</v>
+        <v>-0.58346327318952</v>
       </c>
       <c r="G7">
-        <v>-0.045214158741313404</v>
+        <v>-0.38599972387650416</v>
       </c>
       <c r="H7">
-        <v>-0.04437931822232369</v>
+        <v>-0.3438349360269578</v>
       </c>
       <c r="I7">
-        <v>-0.04424309303804098</v>
+        <v>-0.33908082255461003</v>
       </c>
       <c r="J7">
-        <v>-0.04421343780647878</v>
+        <v>-0.33867798041292346</v>
       </c>
       <c r="K7">
-        <v>-0.04422011870186422</v>
+        <v>-0.3386158266596084</v>
       </c>
       <c r="L7">
-        <v>-0.047163312846744083</v>
+        <v>-0.33729961192118263</v>
       </c>
       <c r="M7">
-        <v>-0.07141443076199545</v>
+        <v>-0.3370070471906651</v>
       </c>
       <c r="N7">
-        <v>-0.02164771055778136</v>
+        <v>-0.3325499131538467</v>
       </c>
       <c r="O7">
-        <v>0.0012897819143630439</v>
+        <v>-0.2936174075617538</v>
       </c>
       <c r="P7">
-        <v>-9.212415294547844e-5</v>
+        <v>-0.2275585045791181</v>
       </c>
       <c r="Q7">
-        <v>1.660701964597244e-5</v>
+        <v>-0.2087576495552253</v>
       </c>
       <c r="R7">
         <v>-1.9782683507755108E-2</v>
@@ -3074,55 +3074,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>-0.08259441089734681</v>
+        <v>-0.45753623570033203</v>
       </c>
       <c r="B8">
-        <v>-0.07920399807554207</v>
+        <v>-0.457513829391341</v>
       </c>
       <c r="C8">
-        <v>-0.07743963454259604</v>
+        <v>-0.45728994943854784</v>
       </c>
       <c r="D8">
-        <v>-0.07492851253238593</v>
+        <v>-0.4550693123223601</v>
       </c>
       <c r="E8">
-        <v>-0.06629052128476307</v>
+        <v>-0.4345406839599254</v>
       </c>
       <c r="F8">
-        <v>-0.05071498599828639</v>
+        <v>-0.32119370408343406</v>
       </c>
       <c r="G8">
-        <v>-0.04440484561622267</v>
+        <v>-0.18863314689599786</v>
       </c>
       <c r="H8">
-        <v>-0.043642903422887715</v>
+        <v>-0.15966779748402277</v>
       </c>
       <c r="I8">
-        <v>-0.04360123440341996</v>
+        <v>-0.15638808370916493</v>
       </c>
       <c r="J8">
-        <v>-0.04359804233896423</v>
+        <v>-0.15583021350527826</v>
       </c>
       <c r="K8">
-        <v>-0.043497901394698765</v>
+        <v>-0.1547408713507326</v>
       </c>
       <c r="L8">
-        <v>-0.04648616103277411</v>
+        <v>-0.15289490766857017</v>
       </c>
       <c r="M8">
-        <v>-0.07236145817026735</v>
+        <v>-0.15141251869649294</v>
       </c>
       <c r="N8">
-        <v>-0.0041859574881325705</v>
+        <v>-0.1502735228386312</v>
       </c>
       <c r="O8">
-        <v>0.0005035202518848826</v>
+        <v>-0.14607370461996888</v>
       </c>
       <c r="P8">
-        <v>-0.0006876154055053582</v>
+        <v>-0.13643914926883266</v>
       </c>
       <c r="Q8">
-        <v>0.00022629174917981106</v>
+        <v>-0.13257593593898126</v>
       </c>
       <c r="R8">
         <v>-0.11200314042384234</v>
@@ -3130,55 +3130,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>-0.0804603294505099</v>
+        <v>-0.35155502369681235</v>
       </c>
       <c r="B9">
-        <v>-0.07686994622396064</v>
+        <v>-0.35154105295911364</v>
       </c>
       <c r="C9">
-        <v>-0.07490972142959595</v>
+        <v>-0.351401442791887</v>
       </c>
       <c r="D9">
-        <v>-0.07244594511488932</v>
+        <v>-0.35001499405846004</v>
       </c>
       <c r="E9">
-        <v>-0.06428139019881621</v>
+        <v>-0.337052391819063</v>
       </c>
       <c r="F9">
-        <v>-0.04970028843572682</v>
+        <v>-0.26039927856556927</v>
       </c>
       <c r="G9">
-        <v>-0.04366005626724448</v>
+        <v>-0.158003702511037</v>
       </c>
       <c r="H9">
-        <v>-0.042797279212949534</v>
+        <v>-0.13336225284891934</v>
       </c>
       <c r="I9">
-        <v>-0.04268793853991902</v>
+        <v>-0.130480434955178</v>
       </c>
       <c r="J9">
-        <v>-0.04265693274718428</v>
+        <v>-0.12984023648748919</v>
       </c>
       <c r="K9">
-        <v>-0.0426014543905635</v>
+        <v>-0.12849172117171662</v>
       </c>
       <c r="L9">
-        <v>-0.04515102565016784</v>
+        <v>-0.12612458926954234</v>
       </c>
       <c r="M9">
-        <v>-0.09335290974498327</v>
+        <v>-0.12343632296544495</v>
       </c>
       <c r="N9">
-        <v>-0.0069537405501336694</v>
+        <v>-0.1204781084217856</v>
       </c>
       <c r="O9">
-        <v>-0.005013470524977828</v>
+        <v>-0.11760107840091087</v>
       </c>
       <c r="P9">
-        <v>-0.005359825937545693</v>
+        <v>-0.11380680064714291</v>
       </c>
       <c r="Q9">
-        <v>-1.4940601811040274e-5</v>
+        <v>-0.11224894844265763</v>
       </c>
       <c r="R9">
         <v>-3.191652442422583E-2</v>
@@ -3186,55 +3186,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>-0.07814597579649073</v>
+        <v>-0.3336375580242131</v>
       </c>
       <c r="B10">
-        <v>-0.07395023374452514</v>
+        <v>-0.3336249020522275</v>
       </c>
       <c r="C10">
-        <v>-0.07103281733959384</v>
+        <v>-0.3334984275117078</v>
       </c>
       <c r="D10">
-        <v>-0.06893954315036768</v>
+        <v>-0.33224214364342053</v>
       </c>
       <c r="E10">
-        <v>-0.06214898755699924</v>
+        <v>-0.3204715599223551</v>
       </c>
       <c r="F10">
-        <v>-0.04906361465886267</v>
+        <v>-0.24992982357522445</v>
       </c>
       <c r="G10">
-        <v>-0.04336470838997521</v>
+        <v>-0.15305353063293145</v>
       </c>
       <c r="H10">
-        <v>-0.04248213689513425</v>
+        <v>-0.12918157001228558</v>
       </c>
       <c r="I10">
-        <v>-0.04224934495805066</v>
+        <v>-0.1263461520354302</v>
       </c>
       <c r="J10">
-        <v>-0.04217992335853648</v>
+        <v>-0.12558338589244328</v>
       </c>
       <c r="K10">
-        <v>-0.042193107232926415</v>
+        <v>-0.123667420007995</v>
       </c>
       <c r="L10">
-        <v>-0.0453228210584739</v>
+        <v>-0.12116004949711298</v>
       </c>
       <c r="M10">
-        <v>-0.08331931741351047</v>
+        <v>-0.11834099374623604</v>
       </c>
       <c r="N10">
-        <v>-0.10129658047506676</v>
+        <v>-0.11435872791345901</v>
       </c>
       <c r="O10">
-        <v>0.000685177613619975</v>
+        <v>-0.10989370213627517</v>
       </c>
       <c r="P10">
-        <v>-0.0018553410940500132</v>
+        <v>-0.10607448289770373</v>
       </c>
       <c r="Q10">
-        <v>-1.3159715028218201e-5</v>
+        <v>-0.1046680874648899</v>
       </c>
       <c r="R10">
         <v>-1.8593037232677977E-2</v>
@@ -3242,55 +3242,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>-0.0770372801707369</v>
+        <v>-0.31663033061733814</v>
       </c>
       <c r="B11">
-        <v>-0.07239884670603426</v>
+        <v>-0.31661903762437926</v>
       </c>
       <c r="C11">
-        <v>-0.06829208460956508</v>
+        <v>-0.3165061804565631</v>
       </c>
       <c r="D11">
-        <v>-0.0663235262039688</v>
+        <v>-0.31538483856368</v>
       </c>
       <c r="E11">
-        <v>-0.06061931541428593</v>
+        <v>-0.3048501727894773</v>
       </c>
       <c r="F11">
-        <v>-0.04867335934068378</v>
+        <v>-0.24061379946527464</v>
       </c>
       <c r="G11">
-        <v>-0.04322885427779054</v>
+        <v>-0.14896266262300906</v>
       </c>
       <c r="H11">
-        <v>-0.04237410597511151</v>
+        <v>-0.12468484560089686</v>
       </c>
       <c r="I11">
-        <v>-0.0421319728085333</v>
+        <v>-0.12076527543055937</v>
       </c>
       <c r="J11">
-        <v>-0.04205458673956226</v>
+        <v>-0.11982923066141819</v>
       </c>
       <c r="K11">
-        <v>-0.04214108457389723</v>
+        <v>-0.11759379515153688</v>
       </c>
       <c r="L11">
-        <v>-0.04338487444677985</v>
+        <v>-0.11335891178579563</v>
       </c>
       <c r="M11">
-        <v>-0.06815765874496683</v>
+        <v>-0.11008796774875401</v>
       </c>
       <c r="N11">
-        <v>-0.013575031929061251</v>
+        <v>-0.1046343432235528</v>
       </c>
       <c r="O11">
-        <v>0.0011136155310257582</v>
+        <v>-0.09269888000064722</v>
       </c>
       <c r="P11">
-        <v>0.002925707358238934</v>
+        <v>-0.08369302359033313</v>
       </c>
       <c r="Q11">
-        <v>8.341634236318687e-6</v>
+        <v>-0.08135743870887746</v>
       </c>
       <c r="R11">
         <v>-1.6661400782722963E-2</v>
@@ -3298,55 +3298,55 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>-0.07687891680573972</v>
+        <v>-0.24747135096416528</v>
       </c>
       <c r="B12">
-        <v>-0.07216650659036564</v>
+        <v>-0.24746494650964482</v>
       </c>
       <c r="C12">
-        <v>-0.06780663992343289</v>
+        <v>-0.24740093613627537</v>
       </c>
       <c r="D12">
-        <v>-0.06583500422659967</v>
+        <v>-0.24676423147605</v>
       </c>
       <c r="E12">
-        <v>-0.06032652050491116</v>
+        <v>-0.24071967723914744</v>
       </c>
       <c r="F12">
-        <v>-0.04859955716665914</v>
+        <v>-0.20122074124556696</v>
       </c>
       <c r="G12">
-        <v>-0.043204318286949976</v>
+        <v>-0.13553845274131227</v>
       </c>
       <c r="H12">
-        <v>-0.04235634191440245</v>
+        <v>-0.11499213847085801</v>
       </c>
       <c r="I12">
-        <v>-0.042115725309932094</v>
+        <v>-0.10789427806370522</v>
       </c>
       <c r="J12">
-        <v>-0.04203439895963941</v>
+        <v>-0.10512440050714127</v>
       </c>
       <c r="K12">
-        <v>-0.042120463475545086</v>
+        <v>-0.1037400225770085</v>
       </c>
       <c r="L12">
-        <v>-0.04288816038323833</v>
+        <v>-0.10088776732901147</v>
       </c>
       <c r="M12">
-        <v>-0.09101441675781216</v>
+        <v>-0.09487116242292463</v>
       </c>
       <c r="N12">
-        <v>-0.013918445390255977</v>
+        <v>-0.08807797918743654</v>
       </c>
       <c r="O12">
-        <v>0.0021670352761305445</v>
+        <v>-0.07511842389133268</v>
       </c>
       <c r="P12">
-        <v>-0.001316598818235311</v>
+        <v>-0.06133804671722758</v>
       </c>
       <c r="Q12">
-        <v>-3.332079158430241e-5</v>
+        <v>-0.05763122187298471</v>
       </c>
       <c r="R12">
         <v>-6.2693258088855716E-2</v>
@@ -3354,55 +3354,55 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>-0.07685320975646806</v>
+        <v>-0.18394272308041762</v>
       </c>
       <c r="B13">
-        <v>-0.07213036469486929</v>
+        <v>-0.18393958482089223</v>
       </c>
       <c r="C13">
-        <v>-0.06774831848158909</v>
+        <v>-0.18390821582485653</v>
       </c>
       <c r="D13">
-        <v>-0.06577937679715519</v>
+        <v>-0.1835958802877176</v>
       </c>
       <c r="E13">
-        <v>-0.06029471227169675</v>
+        <v>-0.18060226821505163</v>
       </c>
       <c r="F13">
-        <v>-0.04859924192839741</v>
+        <v>-0.1596834649831446</v>
       </c>
       <c r="G13">
-        <v>-0.04320580792904424</v>
+        <v>-0.11872942759880946</v>
       </c>
       <c r="H13">
-        <v>-0.04235466001580838</v>
+        <v>-0.10444197515018833</v>
       </c>
       <c r="I13">
-        <v>-0.04211397062760332</v>
+        <v>-0.09890120172165148</v>
       </c>
       <c r="J13">
-        <v>-0.042041866853759345</v>
+        <v>-0.09429354406081254</v>
       </c>
       <c r="K13">
-        <v>-0.04205924480265668</v>
+        <v>-0.09258126942903261</v>
       </c>
       <c r="L13">
-        <v>-0.04389441713659694</v>
+        <v>-0.0910022558031962</v>
       </c>
       <c r="M13">
-        <v>-0.07762080555229023</v>
+        <v>-0.08610223788392218</v>
       </c>
       <c r="N13">
-        <v>-0.008513004584203596</v>
+        <v>-0.07546123300467099</v>
       </c>
       <c r="O13">
-        <v>0.0015342535276247015</v>
+        <v>-0.06446482132188917</v>
       </c>
       <c r="P13">
-        <v>-0.0009059155317432075</v>
+        <v>-0.05433830796551311</v>
       </c>
       <c r="Q13">
-        <v>7.124503080643454e-6</v>
+        <v>-0.05100694574819941</v>
       </c>
       <c r="R13">
         <v>-0.12948190483105734</v>
@@ -3410,55 +3410,55 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>-0.07672112812161472</v>
+        <v>-0.15705878917525876</v>
       </c>
       <c r="B14">
-        <v>-0.07208916372941307</v>
+        <v>-0.15705667031954987</v>
       </c>
       <c r="C14">
-        <v>-0.06773281050810522</v>
+        <v>-0.15703549017403595</v>
       </c>
       <c r="D14">
-        <v>-0.06567855375548928</v>
+        <v>-0.15682451059996974</v>
       </c>
       <c r="E14">
-        <v>-0.06016800691624833</v>
+        <v>-0.1547937882073453</v>
       </c>
       <c r="F14">
-        <v>-0.04858273554163301</v>
+        <v>-0.14015480424834448</v>
       </c>
       <c r="G14">
-        <v>-0.04320574188553934</v>
+        <v>-0.10894756110124777</v>
       </c>
       <c r="H14">
-        <v>-0.04242458955066085</v>
+        <v>-0.09732379662338506</v>
       </c>
       <c r="I14">
-        <v>-0.04208951964408407</v>
+        <v>-0.093711235697336</v>
       </c>
       <c r="J14">
-        <v>-0.04199271446057401</v>
+        <v>-0.08895759269985501</v>
       </c>
       <c r="K14">
-        <v>-0.0420677510548818</v>
+        <v>-0.08664659338128892</v>
       </c>
       <c r="L14">
-        <v>-0.043898705933475606</v>
+        <v>-0.08511748135381457</v>
       </c>
       <c r="M14">
-        <v>-0.08561386128105072</v>
+        <v>-0.08074698220962184</v>
       </c>
       <c r="N14">
-        <v>-0.01074378813959251</v>
+        <v>-0.06719345049013853</v>
       </c>
       <c r="O14">
-        <v>-0.0006094487470254794</v>
+        <v>-0.053518367798691874</v>
       </c>
       <c r="P14">
-        <v>-0.0013134415947791793</v>
+        <v>-0.049170662954264706</v>
       </c>
       <c r="Q14">
-        <v>1.914534000607325e-5</v>
+        <v>-0.04737151728109768</v>
       </c>
       <c r="R14">
         <v>-8.1906213575370108E-3</v>
@@ -3466,55 +3466,55 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>-0.07710255088201318</v>
+        <v>-0.13967053392440407</v>
       </c>
       <c r="B15">
-        <v>-0.07223712407384004</v>
+        <v>-0.13966893948910153</v>
       </c>
       <c r="C15">
-        <v>-0.0685786881862267</v>
+        <v>-0.13965300078408774</v>
       </c>
       <c r="D15">
-        <v>-0.06620753490295796</v>
+        <v>-0.13949418874253716</v>
       </c>
       <c r="E15">
-        <v>-0.06113459308871839</v>
+        <v>-0.13796160104204894</v>
       </c>
       <c r="F15">
-        <v>-0.048320458254444316</v>
+        <v>-0.12669454119506762</v>
       </c>
       <c r="G15">
-        <v>-0.04313335794117419</v>
+        <v>-0.10128052343896363</v>
       </c>
       <c r="H15">
-        <v>-0.04185008138331841</v>
+        <v>-0.09136559953317795</v>
       </c>
       <c r="I15">
-        <v>-0.04185327655782164</v>
+        <v>-0.08890431586681995</v>
       </c>
       <c r="J15">
-        <v>-0.04165024051980693</v>
+        <v>-0.08480468899025399</v>
       </c>
       <c r="K15">
-        <v>-0.042724940064999606</v>
+        <v>-0.08193189024880944</v>
       </c>
       <c r="L15">
-        <v>-0.043282350712960334</v>
+        <v>-0.08041958970337057</v>
       </c>
       <c r="M15">
-        <v>-0.05796902236070163</v>
+        <v>-0.07642269713027498</v>
       </c>
       <c r="N15">
-        <v>-0.011779495301067354</v>
+        <v>-0.06322627360465255</v>
       </c>
       <c r="O15">
-        <v>0.001276712441888109</v>
+        <v>-0.04869514568020551</v>
       </c>
       <c r="P15">
-        <v>0.00015602117381185174</v>
+        <v>-0.04537443567090607</v>
       </c>
       <c r="Q15">
-        <v>4.903777804513433e-6</v>
+        <v>-0.04483138173550688</v>
       </c>
       <c r="R15">
         <v>-1.1538295417500611E-2</v>
@@ -3522,55 +3522,55 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>-0.0686225116773444</v>
+        <v>-0.12793137252426806</v>
       </c>
       <c r="B16">
-        <v>-0.07186219774294977</v>
+        <v>-0.12793008879742312</v>
       </c>
       <c r="C16">
-        <v>-0.06728211482378482</v>
+        <v>-0.12791725676094742</v>
       </c>
       <c r="D16">
-        <v>-0.0618286630240721</v>
+        <v>-0.12778937715058405</v>
       </c>
       <c r="E16">
-        <v>-0.06729226203555115</v>
+        <v>-0.1265536143333903</v>
       </c>
       <c r="F16">
-        <v>-0.04508645967049992</v>
+        <v>-0.1173764338531161</v>
       </c>
       <c r="G16">
-        <v>-0.0450945370671943</v>
+        <v>-0.09617245619246098</v>
       </c>
       <c r="H16">
-        <v>-0.046470884428438566</v>
+        <v>-0.08789345379177119</v>
       </c>
       <c r="I16">
-        <v>-0.03886498137161173</v>
+        <v>-0.08605549230801024</v>
       </c>
       <c r="J16">
-        <v>-0.0447090435815526</v>
+        <v>-0.08280590967996414</v>
       </c>
       <c r="K16">
-        <v>-0.03419430227648744</v>
+        <v>-0.07996601903380973</v>
       </c>
       <c r="L16">
-        <v>-0.04137600838777501</v>
+        <v>-0.07841582378075489</v>
       </c>
       <c r="M16">
-        <v>-0.05274940643306817</v>
+        <v>-0.07446288178246638</v>
       </c>
       <c r="N16">
-        <v>-0.011583699589774421</v>
+        <v>-0.061891000415718087</v>
       </c>
       <c r="O16">
-        <v>0.013744167361968995</v>
+        <v>-0.047762452411015684</v>
       </c>
       <c r="P16">
-        <v>-0.00047281259771074036</v>
+        <v>-0.044470572616778316</v>
       </c>
       <c r="Q16">
-        <v>2.712876817626103e-6</v>
+        <v>-0.044112536142466595</v>
       </c>
       <c r="R16">
         <v>-8.3194399681306031E-3</v>
@@ -3578,55 +3578,55 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>-0.07400594004138174</v>
+        <v>-0.11941225554377448</v>
       </c>
       <c r="B17">
-        <v>-0.036329103087875445</v>
+        <v>-0.11941119490629602</v>
       </c>
       <c r="C17">
-        <v>-0.1054977422329978</v>
+        <v>-0.11940060331005246</v>
       </c>
       <c r="D17">
-        <v>-0.04639919359869017</v>
+        <v>-0.1192950475804348</v>
       </c>
       <c r="E17">
-        <v>-0.04370727163636726</v>
+        <v>-0.11827333970506508</v>
       </c>
       <c r="F17">
-        <v>-0.09470355299606414</v>
+        <v>-0.11059162701464544</v>
       </c>
       <c r="G17">
-        <v>-0.014279605152069975</v>
+        <v>-0.09222596333211378</v>
       </c>
       <c r="H17">
-        <v>-0.029865838032551703</v>
+        <v>-0.0848921852616192</v>
       </c>
       <c r="I17">
-        <v>-0.027317511187218542</v>
+        <v>-0.08331293338669668</v>
       </c>
       <c r="J17">
-        <v>-0.09112966446017448</v>
+        <v>-0.08038301155664423</v>
       </c>
       <c r="K17">
-        <v>-0.03894709843030081</v>
+        <v>-0.07749276233272419</v>
       </c>
       <c r="L17">
-        <v>-0.0342621302885325</v>
+        <v>-0.0758589914164587</v>
       </c>
       <c r="M17">
-        <v>-0.04199583079190859</v>
+        <v>-0.07186388792152475</v>
       </c>
       <c r="N17">
-        <v>-0.009729035922073035</v>
+        <v>-0.05997614681414568</v>
       </c>
       <c r="O17">
-        <v>0.000584214925805971</v>
+        <v>-0.046718513116101444</v>
       </c>
       <c r="P17">
-        <v>-0.00041411930578531836</v>
+        <v>-0.0435459405873234</v>
       </c>
       <c r="Q17">
-        <v>5.557491720474513e-5</v>
+        <v>-0.04324378290784833</v>
       </c>
       <c r="R17">
         <v>2.4118290736990281E-3</v>
@@ -6783,55 +6783,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1">
-        <v>-0.29683438563197634</v>
+        <v>-37997.9879560984</v>
       </c>
       <c r="B1">
-        <v>-0.2966329921474092</v>
+        <v>-27283.465067738332</v>
       </c>
       <c r="C1">
-        <v>-0.29628452574781694</v>
+        <v>-8670.645453325073</v>
       </c>
       <c r="D1">
-        <v>-0.2960483680533285</v>
+        <v>-3216.6653234895593</v>
       </c>
       <c r="E1">
-        <v>-0.29574311345614945</v>
+        <v>-2445.9959747874314</v>
       </c>
       <c r="F1">
-        <v>-0.2950083371277068</v>
+        <v>-2288.05379729647</v>
       </c>
       <c r="G1">
-        <v>-0.29392217824128314</v>
+        <v>-2265.730372578162</v>
       </c>
       <c r="H1">
-        <v>-0.2929870952227177</v>
+        <v>-2263.2168729263153</v>
       </c>
       <c r="I1">
-        <v>-0.2892052706717868</v>
+        <v>-2262.16047610701</v>
       </c>
       <c r="J1">
-        <v>-0.28319360047037834</v>
+        <v>-2258.0928527159103</v>
       </c>
       <c r="K1">
-        <v>-0.28733039033291996</v>
+        <v>-2254.013988033066</v>
       </c>
       <c r="L1">
-        <v>-0.21891606101361943</v>
+        <v>-2253.2118939431202</v>
       </c>
       <c r="M1">
-        <v>-0.020579422808944876</v>
+        <v>-2252.957017060629</v>
       </c>
       <c r="N1">
-        <v>-0.030437129002730462</v>
+        <v>-2246.195375557138</v>
       </c>
       <c r="O1">
-        <v>0.00043111064340578</v>
+        <v>-2287.504641317204</v>
       </c>
       <c r="P1">
-        <v>-0.00015944608187880825</v>
+        <v>-2026.6666007274785</v>
       </c>
       <c r="Q1">
-        <v>-9.281943952282671e-5</v>
+        <v>-556.5803616850749</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
@@ -6839,55 +6839,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>-0.2948381348068234</v>
+        <v>-15369.255727295018</v>
       </c>
       <c r="B2">
-        <v>-0.2945976151897839</v>
+        <v>-13153.824515157208</v>
       </c>
       <c r="C2">
-        <v>-0.29420634952825514</v>
+        <v>-5485.213658065813</v>
       </c>
       <c r="D2">
-        <v>-0.2939601754068691</v>
+        <v>-1016.7893458259928</v>
       </c>
       <c r="E2">
-        <v>-0.293665545198489</v>
+        <v>-341.0149046950071</v>
       </c>
       <c r="F2">
-        <v>-0.2929666393077681</v>
+        <v>-253.66604709756479</v>
       </c>
       <c r="G2">
-        <v>-0.29189209019637224</v>
+        <v>-238.57252229515336</v>
       </c>
       <c r="H2">
-        <v>-0.29096118379065294</v>
+        <v>-236.63479389148964</v>
       </c>
       <c r="I2">
-        <v>-0.28754252815175646</v>
+        <v>-235.85172201534223</v>
       </c>
       <c r="J2">
-        <v>-0.28471664006054465</v>
+        <v>-232.65644376336363</v>
       </c>
       <c r="K2">
-        <v>-0.2678846068157787</v>
+        <v>-228.98347613339575</v>
       </c>
       <c r="L2">
-        <v>-0.19537886966145923</v>
+        <v>-228.11406693051632</v>
       </c>
       <c r="M2">
-        <v>-0.03688035114254566</v>
+        <v>-227.9593801973812</v>
       </c>
       <c r="N2">
-        <v>0.011470933704144771</v>
+        <v>-227.848923756209</v>
       </c>
       <c r="O2">
-        <v>-0.004558709091347314</v>
+        <v>-227.7824063210389</v>
       </c>
       <c r="P2">
-        <v>0.00082657149700806</v>
+        <v>-223.78904636970748</v>
       </c>
       <c r="Q2">
-        <v>1.3205867637740369e-5</v>
+        <v>-171.81852931010306</v>
       </c>
       <c r="R2">
         <v>-0.18714728706024322</v>
@@ -6895,55 +6895,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>-0.2943358799272044</v>
+        <v>-2440.848658774411</v>
       </c>
       <c r="B3">
-        <v>-0.29406390218606293</v>
+        <v>-2377.007009741659</v>
       </c>
       <c r="C3">
-        <v>-0.2934218681903816</v>
+        <v>-1885.4690062335212</v>
       </c>
       <c r="D3">
-        <v>-0.2930123894117953</v>
+        <v>-628.6037900628013</v>
       </c>
       <c r="E3">
-        <v>-0.29273891616632636</v>
+        <v>-106.63003116451871</v>
       </c>
       <c r="F3">
-        <v>-0.29210881249888226</v>
+        <v>-37.392970693972615</v>
       </c>
       <c r="G3">
-        <v>-0.2909723077643124</v>
+        <v>-29.771718708744785</v>
       </c>
       <c r="H3">
-        <v>-0.28995117929139747</v>
+        <v>-28.912062751983722</v>
       </c>
       <c r="I3">
-        <v>-0.28674014821331545</v>
+        <v>-28.727442092730282</v>
       </c>
       <c r="J3">
-        <v>-0.2788120545933015</v>
+        <v>-28.002509494115618</v>
       </c>
       <c r="K3">
-        <v>-0.24797960095723004</v>
+        <v>-26.319056871136073</v>
       </c>
       <c r="L3">
-        <v>-0.18576133378670856</v>
+        <v>-25.605666744261164</v>
       </c>
       <c r="M3">
-        <v>-0.027151718115158464</v>
+        <v>-25.45635077824934</v>
       </c>
       <c r="N3">
-        <v>-0.24683710551356822</v>
+        <v>-25.377656943548583</v>
       </c>
       <c r="O3">
-        <v>0.0008485545876074338</v>
+        <v>-25.097221029659355</v>
       </c>
       <c r="P3">
-        <v>0.0005105820522847357</v>
+        <v>-24.470534139118058</v>
       </c>
       <c r="Q3">
-        <v>-6.428961761865463e-5</v>
+        <v>-24.131015734724734</v>
       </c>
       <c r="R3">
         <v>-0.14606036820064444</v>
@@ -6951,55 +6951,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>-0.29241467833358653</v>
+        <v>-260.48816708681153</v>
       </c>
       <c r="B4">
-        <v>-0.2921782720482289</v>
+        <v>-259.74337094574344</v>
       </c>
       <c r="C4">
-        <v>-0.2915330659853426</v>
+        <v>-252.52777933279526</v>
       </c>
       <c r="D4">
-        <v>-0.2904585713343119</v>
+        <v>-197.9110003000333</v>
       </c>
       <c r="E4">
-        <v>-0.2899310160333425</v>
+        <v>-65.42913252505062</v>
       </c>
       <c r="F4">
-        <v>-0.2893947235632685</v>
+        <v>-13.251100041473407</v>
       </c>
       <c r="G4">
-        <v>-0.288348000236894</v>
+        <v>-6.463430231274097</v>
       </c>
       <c r="H4">
-        <v>-0.28732696410520625</v>
+        <v>-5.7579120761540805</v>
       </c>
       <c r="I4">
-        <v>-0.284700368750003</v>
+        <v>-5.684736233441389</v>
       </c>
       <c r="J4">
-        <v>-0.28280895661659916</v>
+        <v>-5.656840096561904</v>
       </c>
       <c r="K4">
-        <v>-0.2587417150199355</v>
+        <v>-5.526331545385413</v>
       </c>
       <c r="L4">
-        <v>-0.22343256750969936</v>
+        <v>-5.294736313696437</v>
       </c>
       <c r="M4">
-        <v>-0.08963576463180821</v>
+        <v>-5.179440796806167</v>
       </c>
       <c r="N4">
-        <v>-0.13797540103141587</v>
+        <v>-5.103897891326363</v>
       </c>
       <c r="O4">
-        <v>0.002118722199505638</v>
+        <v>-4.826264664635116</v>
       </c>
       <c r="P4">
-        <v>-0.0002004455618625659</v>
+        <v>-4.280207187427855</v>
       </c>
       <c r="Q4">
-        <v>-3.377850414530684e-5</v>
+        <v>-4.051010625152506</v>
       </c>
       <c r="R4">
         <v>-8.9041046750327507E-2</v>
@@ -7007,55 +7007,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>-0.2845933546323351</v>
+        <v>-26.933478148716553</v>
       </c>
       <c r="B5">
-        <v>-0.2840578669293264</v>
+        <v>-26.925431949831573</v>
       </c>
       <c r="C5">
-        <v>-0.2836296035865156</v>
+        <v>-26.845267154620615</v>
       </c>
       <c r="D5">
-        <v>-0.2824017315892035</v>
+        <v>-26.072269282568293</v>
       </c>
       <c r="E5">
-        <v>-0.2801392204017414</v>
+        <v>-20.426876908662607</v>
       </c>
       <c r="F5">
-        <v>-0.27901764493191566</v>
+        <v>-8.064361521934917</v>
       </c>
       <c r="G5">
-        <v>-0.2780901803796803</v>
+        <v>-3.612633400545403</v>
       </c>
       <c r="H5">
-        <v>-0.27722593392296097</v>
+        <v>-3.0421714174972134</v>
       </c>
       <c r="I5">
-        <v>-0.27527775207223404</v>
+        <v>-2.9833823073985335</v>
       </c>
       <c r="J5">
-        <v>-0.2735359896386598</v>
+        <v>-2.977342445401789</v>
       </c>
       <c r="K5">
-        <v>-0.2385607670736364</v>
+        <v>-2.9733970435694483</v>
       </c>
       <c r="L5">
-        <v>-0.13232214629055217</v>
+        <v>-2.949475657367265</v>
       </c>
       <c r="M5">
-        <v>-0.03691519846081762</v>
+        <v>-2.9030944076043643</v>
       </c>
       <c r="N5">
-        <v>-0.06344974002303856</v>
+        <v>-2.8439544066024673</v>
       </c>
       <c r="O5">
-        <v>-0.002152934420999025</v>
+        <v>-2.607780587074453</v>
       </c>
       <c r="P5">
-        <v>-1.4446488642671143e-5</v>
+        <v>-2.114658533553457</v>
       </c>
       <c r="Q5">
-        <v>-1.0185357465460827e-5</v>
+        <v>-1.911528671728027</v>
       </c>
       <c r="R5">
         <v>-0.2125206220929361</v>
@@ -7063,55 +7063,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>-0.264497355009574</v>
+        <v>-3.397487759790715</v>
       </c>
       <c r="B6">
-        <v>-0.26180252827263617</v>
+        <v>-3.3972952741946507</v>
       </c>
       <c r="C6">
-        <v>-0.2608576961433985</v>
+        <v>-3.3953733454432338</v>
       </c>
       <c r="D6">
-        <v>-0.2587570660819663</v>
+        <v>-3.376441367850204</v>
       </c>
       <c r="E6">
-        <v>-0.2546372068377313</v>
+        <v>-3.211407810452147</v>
       </c>
       <c r="F6">
-        <v>-0.249939679813684</v>
+        <v>-2.477096607849005</v>
       </c>
       <c r="G6">
-        <v>-0.24628487056356976</v>
+        <v>-1.7385283414630186</v>
       </c>
       <c r="H6">
-        <v>-0.24417949512624734</v>
+        <v>-1.5777639181517242</v>
       </c>
       <c r="I6">
-        <v>-0.2434666893844455</v>
+        <v>-1.5597295917483562</v>
       </c>
       <c r="J6">
-        <v>-0.24440729029357602</v>
+        <v>-1.5582111442655824</v>
       </c>
       <c r="K6">
-        <v>-0.23429993335021967</v>
+        <v>-1.5590847048365126</v>
       </c>
       <c r="L6">
-        <v>-0.19133869891734026</v>
+        <v>-1.558329895739907</v>
       </c>
       <c r="M6">
-        <v>-0.08428815475969638</v>
+        <v>-1.5526062734218176</v>
       </c>
       <c r="N6">
-        <v>0.0021542416063773566</v>
+        <v>-1.5406194236692536</v>
       </c>
       <c r="O6">
-        <v>-0.02083696348395029</v>
+        <v>-1.4826713933183306</v>
       </c>
       <c r="P6">
-        <v>0.00033186806710028917</v>
+        <v>-1.310656218453285</v>
       </c>
       <c r="Q6">
-        <v>-0.00011328997299893741</v>
+        <v>-1.2184137625101537</v>
       </c>
       <c r="R6">
         <v>-0.12327400457225317</v>
@@ -7119,55 +7119,55 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>-0.2316847150728655</v>
+        <v>-0.9809237965554155</v>
       </c>
       <c r="B7">
-        <v>-0.22318349860461834</v>
+        <v>-0.980860139427075</v>
       </c>
       <c r="C7">
-        <v>-0.22155279838859215</v>
+        <v>-0.9802247458410407</v>
       </c>
       <c r="D7">
-        <v>-0.21971724098819345</v>
+        <v>-0.9739863590740869</v>
       </c>
       <c r="E7">
-        <v>-0.21486710806873674</v>
+        <v>-0.9212942446287823</v>
       </c>
       <c r="F7">
-        <v>-0.2096212361314736</v>
+        <v>-0.7287956084262242</v>
       </c>
       <c r="G7">
-        <v>-0.20419650656301927</v>
+        <v>-0.5909892424166932</v>
       </c>
       <c r="H7">
-        <v>-0.1990221203334208</v>
+        <v>-0.5646444919997746</v>
       </c>
       <c r="I7">
-        <v>-0.19696857348879016</v>
+        <v>-0.5617309831465956</v>
       </c>
       <c r="J7">
-        <v>-0.1953852791156297</v>
+        <v>-0.5614803590411519</v>
       </c>
       <c r="K7">
-        <v>-0.19155477381944191</v>
+        <v>-0.5616063026830015</v>
       </c>
       <c r="L7">
-        <v>-0.14372897711416124</v>
+        <v>-0.5617119109203832</v>
       </c>
       <c r="M7">
-        <v>-0.026643965565028085</v>
+        <v>-0.5616592117595949</v>
       </c>
       <c r="N7">
-        <v>0.006267682978458947</v>
+        <v>-0.5610590412123564</v>
       </c>
       <c r="O7">
-        <v>0.004814619128736996</v>
+        <v>-0.5597801482963751</v>
       </c>
       <c r="P7">
-        <v>0.0035121794876097796</v>
+        <v>-0.5597441589724584</v>
       </c>
       <c r="Q7">
-        <v>-0.00021062740179309108</v>
+        <v>-0.5604262821830351</v>
       </c>
       <c r="R7">
         <v>-0.14660838129455178</v>
@@ -7175,55 +7175,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>-0.2072318430519377</v>
+        <v>-0.5599678298981988</v>
       </c>
       <c r="B8">
-        <v>-0.19695502216175884</v>
+        <v>-0.5599395318723221</v>
       </c>
       <c r="C8">
-        <v>-0.19485508724431097</v>
+        <v>-0.5596569943448484</v>
       </c>
       <c r="D8">
-        <v>-0.19359455585168728</v>
+        <v>-0.5568751963058163</v>
       </c>
       <c r="E8">
-        <v>-0.19087551824140714</v>
+        <v>-0.5328140919061025</v>
       </c>
       <c r="F8">
-        <v>-0.1874751877522589</v>
+        <v>-0.43723513044044543</v>
       </c>
       <c r="G8">
-        <v>-0.1836032235528136</v>
+        <v>-0.36703086799086587</v>
       </c>
       <c r="H8">
-        <v>-0.17918329387458706</v>
+        <v>-0.35450182251238493</v>
       </c>
       <c r="I8">
-        <v>-0.17670055906006332</v>
+        <v>-0.3531363673848936</v>
       </c>
       <c r="J8">
-        <v>-0.17412040867206252</v>
+        <v>-0.35296114719797794</v>
       </c>
       <c r="K8">
-        <v>-0.16856770563348586</v>
+        <v>-0.35276354135265237</v>
       </c>
       <c r="L8">
-        <v>-0.11268208573093697</v>
+        <v>-0.35252624300403673</v>
       </c>
       <c r="M8">
-        <v>-0.03421908575810844</v>
+        <v>-0.3522873903188382</v>
       </c>
       <c r="N8">
-        <v>-0.021853739724042094</v>
+        <v>-0.35161016154240093</v>
       </c>
       <c r="O8">
-        <v>0.5412110022227288</v>
+        <v>-0.349555888139473</v>
       </c>
       <c r="P8">
-        <v>-0.00016369107342313927</v>
+        <v>-0.34834619048494686</v>
       </c>
       <c r="Q8">
-        <v>-1.2087333150576267e-5</v>
+        <v>-0.34785238125984275</v>
       </c>
       <c r="R8">
         <v>4.5561798453175602E-2</v>
@@ -7231,55 +7231,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>-0.1943120077266114</v>
+        <v>-0.42688992849864543</v>
       </c>
       <c r="B9">
-        <v>-0.18516291207419333</v>
+        <v>-0.4268745369226163</v>
       </c>
       <c r="C9">
-        <v>-0.18219598900907236</v>
+        <v>-0.4267208373014705</v>
       </c>
       <c r="D9">
-        <v>-0.18063254103965787</v>
+        <v>-0.4252051533093651</v>
       </c>
       <c r="E9">
-        <v>-0.1779516543159241</v>
+        <v>-0.4119131414036374</v>
       </c>
       <c r="F9">
-        <v>-0.1755344082086418</v>
+        <v>-0.35593854636261674</v>
       </c>
       <c r="G9">
-        <v>-0.17296839994604524</v>
+        <v>-0.3123265488813249</v>
       </c>
       <c r="H9">
-        <v>-0.1693637472801952</v>
+        <v>-0.3044706875207948</v>
       </c>
       <c r="I9">
-        <v>-0.1670432575920361</v>
+        <v>-0.3036072062827174</v>
       </c>
       <c r="J9">
-        <v>-0.16556146353229503</v>
+        <v>-0.3034630738523423</v>
       </c>
       <c r="K9">
-        <v>-0.15716145183541794</v>
+        <v>-0.3031953143543152</v>
       </c>
       <c r="L9">
-        <v>-0.13488767654042821</v>
+        <v>-0.3028928865804702</v>
       </c>
       <c r="M9">
-        <v>-0.030002542953373016</v>
+        <v>-0.30266874379312086</v>
       </c>
       <c r="N9">
-        <v>-0.05544521168563574</v>
+        <v>-0.302229818361112</v>
       </c>
       <c r="O9">
-        <v>-0.0038914235873824146</v>
+        <v>-0.3011449041055349</v>
       </c>
       <c r="P9">
-        <v>0.0009631230939395718</v>
+        <v>-0.3000501700014168</v>
       </c>
       <c r="Q9">
-        <v>-4.255111562393944e-6</v>
+        <v>-0.2987931100711741</v>
       </c>
       <c r="R9">
         <v>-0.13835279782793247</v>
@@ -7287,55 +7287,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>-0.18733985679974294</v>
+        <v>-0.4072196858983023</v>
       </c>
       <c r="B10">
-        <v>-0.1794234417468149</v>
+        <v>-0.4072059248305146</v>
       </c>
       <c r="C10">
-        <v>-0.17574917416252328</v>
+        <v>-0.40706850435330877</v>
       </c>
       <c r="D10">
-        <v>-0.17382208894674542</v>
+        <v>-0.4057130545939248</v>
       </c>
       <c r="E10">
-        <v>-0.170757511178838</v>
+        <v>-0.3938032082827706</v>
       </c>
       <c r="F10">
-        <v>-0.16839802955472877</v>
+        <v>-0.3432435623998444</v>
       </c>
       <c r="G10">
-        <v>-0.16632579463399774</v>
+        <v>-0.3036121595505314</v>
       </c>
       <c r="H10">
-        <v>-0.16315321262143506</v>
+        <v>-0.2964842531638764</v>
       </c>
       <c r="I10">
-        <v>-0.1605407168064717</v>
+        <v>-0.29569733867280296</v>
       </c>
       <c r="J10">
-        <v>-0.159914972203626</v>
+        <v>-0.29554875765546007</v>
       </c>
       <c r="K10">
-        <v>-0.1554671250175635</v>
+        <v>-0.29525944032226087</v>
       </c>
       <c r="L10">
-        <v>-0.15118003230815033</v>
+        <v>-0.2949380908468681</v>
       </c>
       <c r="M10">
-        <v>-8.053089337049718</v>
+        <v>-0.2947104878111577</v>
       </c>
       <c r="N10">
-        <v>-0.011128387302508253</v>
+        <v>-0.2943034767545485</v>
       </c>
       <c r="O10">
-        <v>0.0017675401831584877</v>
+        <v>-0.29337604498932895</v>
       </c>
       <c r="P10">
-        <v>-0.00024159841414925836</v>
+        <v>-0.292409812012655</v>
       </c>
       <c r="Q10">
-        <v>-0.00020664052132439285</v>
+        <v>-0.291151435275868</v>
       </c>
       <c r="R10">
         <v>-7.0060006597616187E-2</v>
@@ -7343,55 +7343,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>-0.18307139626757193</v>
+        <v>-0.40507271066797795</v>
       </c>
       <c r="B11">
-        <v>-0.17682289412911661</v>
+        <v>-0.4050591205264265</v>
       </c>
       <c r="C11">
-        <v>-0.1730081758918971</v>
+        <v>-0.40492340653676967</v>
       </c>
       <c r="D11">
-        <v>-0.1711821019800965</v>
+        <v>-0.40358475134654087</v>
       </c>
       <c r="E11">
-        <v>-0.16834092111558174</v>
+        <v>-0.39181958816060347</v>
       </c>
       <c r="F11">
-        <v>-0.16611056845609515</v>
+        <v>-0.34182263848671574</v>
       </c>
       <c r="G11">
-        <v>-0.16415985353666074</v>
+        <v>-0.30259952610417334</v>
       </c>
       <c r="H11">
-        <v>-0.16092348584572486</v>
+        <v>-0.2955423119155272</v>
       </c>
       <c r="I11">
-        <v>-0.15717594803250975</v>
+        <v>-0.2947616464348554</v>
       </c>
       <c r="J11">
-        <v>-0.15484023916146022</v>
+        <v>-0.29460162686249486</v>
       </c>
       <c r="K11">
-        <v>-0.15788085792873946</v>
+        <v>-0.29423012262562454</v>
       </c>
       <c r="L11">
-        <v>-0.16888279055232455</v>
+        <v>-0.2938299981840688</v>
       </c>
       <c r="M11">
-        <v>-0.05117312149876699</v>
+        <v>-0.29359849940844407</v>
       </c>
       <c r="N11">
-        <v>0.02198651138809909</v>
+        <v>-0.2932161395438269</v>
       </c>
       <c r="O11">
-        <v>-0.0011125471484629895</v>
+        <v>-0.2923181806218515</v>
       </c>
       <c r="P11">
-        <v>-0.0018345017386465878</v>
+        <v>-0.2912807015763142</v>
       </c>
       <c r="Q11">
-        <v>-8.02873100118903e-5</v>
+        <v>-0.2900302459312217</v>
       </c>
       <c r="R11">
         <v>-9.4356966923843558E-2</v>
@@ -7399,55 +7399,55 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>-0.18118238962805738</v>
+        <v>-0.40437784044743225</v>
       </c>
       <c r="B12">
-        <v>-0.17586565416929872</v>
+        <v>-0.40436430156257364</v>
       </c>
       <c r="C12">
-        <v>-0.171805403743154</v>
+        <v>-0.40422909910459814</v>
       </c>
       <c r="D12">
-        <v>-0.17007911061406547</v>
+        <v>-0.4028954580193454</v>
       </c>
       <c r="E12">
-        <v>-0.16748753878343628</v>
+        <v>-0.39117190263118456</v>
       </c>
       <c r="F12">
-        <v>-0.16532740420247624</v>
+        <v>-0.3413023896811421</v>
       </c>
       <c r="G12">
-        <v>-0.16343375526747264</v>
+        <v>-0.3020931228290113</v>
       </c>
       <c r="H12">
-        <v>-0.1602063740850407</v>
+        <v>-0.29491730292802587</v>
       </c>
       <c r="I12">
-        <v>-0.15622178179792248</v>
+        <v>-0.2940655472068655</v>
       </c>
       <c r="J12">
-        <v>-0.154136297447259</v>
+        <v>-0.2939019287130997</v>
       </c>
       <c r="K12">
-        <v>-0.1590727286243916</v>
+        <v>-0.29349146208002935</v>
       </c>
       <c r="L12">
-        <v>-0.15271870661611114</v>
+        <v>-0.29269884489467174</v>
       </c>
       <c r="M12">
-        <v>-0.016894572272356943</v>
+        <v>-0.2922684227203755</v>
       </c>
       <c r="N12">
-        <v>-0.014725585549768244</v>
+        <v>-0.291929556590379</v>
       </c>
       <c r="O12">
-        <v>0.012567514843311612</v>
+        <v>-0.29112172135588227</v>
       </c>
       <c r="P12">
-        <v>0.00011499094328266565</v>
+        <v>-0.28996517950558626</v>
       </c>
       <c r="Q12">
-        <v>2.4918250312646056e-5</v>
+        <v>-0.28874042838728375</v>
       </c>
       <c r="R12">
         <v>-0.13704395565333918</v>
@@ -7455,55 +7455,55 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>-0.1808628654933642</v>
+        <v>-0.401176555890034</v>
       </c>
       <c r="B13">
-        <v>-0.17570365845427735</v>
+        <v>-0.4011632598869612</v>
       </c>
       <c r="C13">
-        <v>-0.1715792661074105</v>
+        <v>-0.40103048212995973</v>
       </c>
       <c r="D13">
-        <v>-0.16987498300050607</v>
+        <v>-0.3997206832610866</v>
       </c>
       <c r="E13">
-        <v>-0.16734750900166587</v>
+        <v>-0.3882009011285731</v>
       </c>
       <c r="F13">
-        <v>-0.16520528450139493</v>
+        <v>-0.3390891937681496</v>
       </c>
       <c r="G13">
-        <v>-0.16332605325248856</v>
+        <v>-0.3003144561104336</v>
       </c>
       <c r="H13">
-        <v>-0.16011375673341524</v>
+        <v>-0.2926499039587695</v>
       </c>
       <c r="I13">
-        <v>-0.15592048343738377</v>
+        <v>-0.2909010717411801</v>
       </c>
       <c r="J13">
-        <v>-0.1541614482212578</v>
+        <v>-0.29050679361901144</v>
       </c>
       <c r="K13">
-        <v>-0.14951244275271702</v>
+        <v>-0.2902001656070158</v>
       </c>
       <c r="L13">
-        <v>-0.16481771155105163</v>
+        <v>-0.28943639659295783</v>
       </c>
       <c r="M13">
-        <v>-0.050684051731418774</v>
+        <v>-0.2881083705368465</v>
       </c>
       <c r="N13">
-        <v>-0.005795448666108894</v>
+        <v>-0.2874493453067377</v>
       </c>
       <c r="O13">
-        <v>0.0005491987997137597</v>
+        <v>-0.28677135698399336</v>
       </c>
       <c r="P13">
-        <v>-0.00504519014985091</v>
+        <v>-0.28571525122162655</v>
       </c>
       <c r="Q13">
-        <v>6.586403619642513e-5</v>
+        <v>-0.2847364031832207</v>
       </c>
       <c r="R13">
         <v>-0.17837598090416473</v>
@@ -7511,55 +7511,55 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>-0.18080604522160318</v>
+        <v>-0.3913110566587331</v>
       </c>
       <c r="B14">
-        <v>-0.17565819228948665</v>
+        <v>-0.39129844951628767</v>
       </c>
       <c r="C14">
-        <v>-0.17152638682002222</v>
+        <v>-0.39117254897235376</v>
       </c>
       <c r="D14">
-        <v>-0.16980437032593657</v>
+        <v>-0.38993040609026947</v>
       </c>
       <c r="E14">
-        <v>-0.16727102598244087</v>
+        <v>-0.37899126060564564</v>
       </c>
       <c r="F14">
-        <v>-0.16516559307051215</v>
+        <v>-0.3320748866609607</v>
       </c>
       <c r="G14">
-        <v>-0.16327415718540453</v>
+        <v>-0.29469025218668354</v>
       </c>
       <c r="H14">
-        <v>-0.15996915228765793</v>
+        <v>-0.2864568741552121</v>
       </c>
       <c r="I14">
-        <v>-0.1559035039937744</v>
+        <v>-0.2811215462538737</v>
       </c>
       <c r="J14">
-        <v>-0.15387321423626596</v>
+        <v>-0.2784338158256674</v>
       </c>
       <c r="K14">
-        <v>-0.15149176575387746</v>
+        <v>-0.2777988888710865</v>
       </c>
       <c r="L14">
-        <v>-0.1783634477651306</v>
+        <v>-0.27712629853534254</v>
       </c>
       <c r="M14">
-        <v>-0.02968186842575225</v>
+        <v>-0.2752525563932789</v>
       </c>
       <c r="N14">
-        <v>0.03886494302680149</v>
+        <v>-0.2721446242544181</v>
       </c>
       <c r="O14">
-        <v>0.011419614291450964</v>
+        <v>-0.2705229341502156</v>
       </c>
       <c r="P14">
-        <v>0.0011867970623092032</v>
+        <v>-0.2693360164013678</v>
       </c>
       <c r="Q14">
-        <v>-1.5813892825152585e-5</v>
+        <v>-0.2685880191335839</v>
       </c>
       <c r="R14">
         <v>0.35501144306742854</v>
@@ -7567,55 +7567,55 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>-0.1807313198064452</v>
+        <v>-0.3683103873688609</v>
       </c>
       <c r="B15">
-        <v>-0.17565687657782694</v>
+        <v>-0.36829925566286426</v>
       </c>
       <c r="C15">
-        <v>-0.1715986020501373</v>
+        <v>-0.36818808557251603</v>
       </c>
       <c r="D15">
-        <v>-0.169767660652588</v>
+        <v>-0.3670908725801287</v>
       </c>
       <c r="E15">
-        <v>-0.16705630246277203</v>
+        <v>-0.35739639385718314</v>
       </c>
       <c r="F15">
-        <v>-0.16525093603154306</v>
+        <v>-0.3151450369700386</v>
       </c>
       <c r="G15">
-        <v>-0.16328673260997456</v>
+        <v>-0.28047492860707435</v>
       </c>
       <c r="H15">
-        <v>-0.15957833367585583</v>
+        <v>-0.27192998072471913</v>
       </c>
       <c r="I15">
-        <v>-0.15587074446621296</v>
+        <v>-0.26114466556394084</v>
       </c>
       <c r="J15">
-        <v>-0.15299794151148888</v>
+        <v>-0.25056496239188164</v>
       </c>
       <c r="K15">
-        <v>-0.15602381176559596</v>
+        <v>-0.2481383262701222</v>
       </c>
       <c r="L15">
-        <v>-0.17202476723996912</v>
+        <v>-0.24687735528161367</v>
       </c>
       <c r="M15">
-        <v>-0.022424646121407148</v>
+        <v>-0.24346824247952414</v>
       </c>
       <c r="N15">
-        <v>-0.020802579130091932</v>
+        <v>-0.23816664698223178</v>
       </c>
       <c r="O15">
-        <v>-0.004070473079957456</v>
+        <v>-0.2328323797932884</v>
       </c>
       <c r="P15">
-        <v>-0.0008700926519317517</v>
+        <v>-0.22767706602273857</v>
       </c>
       <c r="Q15">
-        <v>-7.959059717847056e-5</v>
+        <v>-0.22536631620925168</v>
       </c>
       <c r="R15">
         <v>0.20777686758962549</v>
@@ -7623,55 +7623,55 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>-0.18245752524314351</v>
+        <v>-0.3238065079730874</v>
       </c>
       <c r="B16">
-        <v>-0.17729854935461745</v>
+        <v>-0.32379791615341313</v>
       </c>
       <c r="C16">
-        <v>-0.1720615128769738</v>
+        <v>-0.3237121094194416</v>
       </c>
       <c r="D16">
-        <v>-0.17057912265926325</v>
+        <v>-0.32286471943776607</v>
       </c>
       <c r="E16">
-        <v>-0.16817302086042257</v>
+        <v>-0.31533731439458185</v>
       </c>
       <c r="F16">
-        <v>-0.16642249433015652</v>
+        <v>-0.28162351336353475</v>
       </c>
       <c r="G16">
-        <v>-0.16537728300151486</v>
+        <v>-0.2525292019519468</v>
       </c>
       <c r="H16">
-        <v>-0.15948549287908706</v>
+        <v>-0.2450635070679097</v>
       </c>
       <c r="I16">
-        <v>-0.15815124648855786</v>
+        <v>-0.2338166110832949</v>
       </c>
       <c r="J16">
-        <v>-0.15275672240178662</v>
+        <v>-0.21563877348797114</v>
       </c>
       <c r="K16">
-        <v>-0.15421637788577752</v>
+        <v>-0.21015497858380017</v>
       </c>
       <c r="L16">
-        <v>-0.12200138378905448</v>
+        <v>-0.20889425888662633</v>
       </c>
       <c r="M16">
-        <v>-0.023385815908530075</v>
+        <v>-0.2067071755434761</v>
       </c>
       <c r="N16">
-        <v>-0.006301080479102702</v>
+        <v>-0.20202433946927684</v>
       </c>
       <c r="O16">
-        <v>0.0035439439105166854</v>
+        <v>-0.19742153377760796</v>
       </c>
       <c r="P16">
-        <v>-5.947021586062688e-5</v>
+        <v>-0.19227925322569261</v>
       </c>
       <c r="Q16">
-        <v>-7.186304921105347e-5</v>
+        <v>-0.1882946125841388</v>
       </c>
       <c r="R16">
         <v>-2.2787177252421953E-3</v>
@@ -7679,55 +7679,55 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>-0.1695391373697769</v>
+        <v>-0.2670754329758167</v>
       </c>
       <c r="B17">
-        <v>-0.1651836231325394</v>
+        <v>-0.26706999460031067</v>
       </c>
       <c r="C17">
-        <v>-0.161080230377238</v>
+        <v>-0.26701565288406226</v>
       </c>
       <c r="D17">
-        <v>-0.16287516410144257</v>
+        <v>-0.26647854104580193</v>
       </c>
       <c r="E17">
-        <v>-0.16263507647496034</v>
+        <v>-0.261670318713092</v>
       </c>
       <c r="F17">
-        <v>-0.15144784483549384</v>
+        <v>-0.23927153818196212</v>
       </c>
       <c r="G17">
-        <v>-0.1696533446433746</v>
+        <v>-0.2187537897762926</v>
       </c>
       <c r="H17">
-        <v>-0.3283147065585455</v>
+        <v>-0.2140320264965799</v>
       </c>
       <c r="I17">
-        <v>-0.1986289304601768</v>
+        <v>-0.2094257080661758</v>
       </c>
       <c r="J17">
-        <v>-0.1435471553445584</v>
+        <v>-0.19695680787150296</v>
       </c>
       <c r="K17">
-        <v>-0.14312530183978148</v>
+        <v>-0.19054858192173335</v>
       </c>
       <c r="L17">
-        <v>-0.1453699419031113</v>
+        <v>-0.18910610016497317</v>
       </c>
       <c r="M17">
-        <v>-0.02317671553135683</v>
+        <v>-0.1874784390911069</v>
       </c>
       <c r="N17">
-        <v>0.007736206792045468</v>
+        <v>-0.1846447996994644</v>
       </c>
       <c r="O17">
-        <v>-0.0004048232540178333</v>
+        <v>-0.18185241494248727</v>
       </c>
       <c r="P17">
-        <v>9.919435090206203e-5</v>
+        <v>-0.17801709323150952</v>
       </c>
       <c r="Q17">
-        <v>8.104942805106947e-6</v>
+        <v>-0.1742716944399631</v>
       </c>
       <c r="R17">
         <v>2.1271902524867844E-4</v>
@@ -7808,55 +7808,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1">
-        <v>-0.30211017006364926</v>
+        <v>-130615.12579802283</v>
       </c>
       <c r="B1">
-        <v>-0.30206120335136505</v>
+        <v>-54707.681490954434</v>
       </c>
       <c r="C1">
-        <v>-0.30198426990582805</v>
+        <v>-10144.260886488915</v>
       </c>
       <c r="D1">
-        <v>-0.30193159721979124</v>
+        <v>-3379.4526492645705</v>
       </c>
       <c r="E1">
-        <v>-0.3018798717066675</v>
+        <v>-2469.5462420346116</v>
       </c>
       <c r="F1">
-        <v>-0.3017747480162198</v>
+        <v>-2289.572820962325</v>
       </c>
       <c r="G1">
-        <v>-0.301494670014378</v>
+        <v>-2266.5006556549915</v>
       </c>
       <c r="H1">
-        <v>-0.3004127261698814</v>
+        <v>-2264.021817734689</v>
       </c>
       <c r="I1">
-        <v>-0.2974225881494287</v>
+        <v>-2263.5160036111947</v>
       </c>
       <c r="J1">
-        <v>-0.3001633432780704</v>
+        <v>-2261.551866211242</v>
       </c>
       <c r="K1">
-        <v>-0.7424640953559539</v>
+        <v>-2256.267188406324</v>
       </c>
       <c r="L1">
-        <v>2.9345658857463786</v>
+        <v>-2253.5793134233923</v>
       </c>
       <c r="M1">
-        <v>-0.008026308948804446</v>
+        <v>-2253.6106038057646</v>
       </c>
       <c r="N1">
-        <v>-0.004697388438938252</v>
+        <v>-2255.3588355967813</v>
       </c>
       <c r="O1">
-        <v>0.0027516616110238768</v>
+        <v>-2196.533609806708</v>
       </c>
       <c r="P1">
-        <v>0.0004313829264275055</v>
+        <v>-1733.915402499165</v>
       </c>
       <c r="Q1">
-        <v>7.113675654675458e-6</v>
+        <v>-307.64122849846154</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
@@ -7864,55 +7864,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>-0.3000848335667758</v>
+        <v>-23731.201734054455</v>
       </c>
       <c r="B2">
-        <v>-0.3000338590547064</v>
+        <v>-18828.755497748913</v>
       </c>
       <c r="C2">
-        <v>-0.2999537068470116</v>
+        <v>-6268.0976867612335</v>
       </c>
       <c r="D2">
-        <v>-0.2998991143223995</v>
+        <v>-1040.4705234410394</v>
       </c>
       <c r="E2">
-        <v>-0.2998468647556335</v>
+        <v>-343.69964093026323</v>
       </c>
       <c r="F2">
-        <v>-0.2997417250705798</v>
+        <v>-254.42598902566712</v>
       </c>
       <c r="G2">
-        <v>-0.2994684560914177</v>
+        <v>-239.1461909810418</v>
       </c>
       <c r="H2">
-        <v>-0.2983892383569688</v>
+        <v>-237.2565705726427</v>
       </c>
       <c r="I2">
-        <v>-0.2959598338643397</v>
+        <v>-236.88140220213734</v>
       </c>
       <c r="J2">
-        <v>-0.2986043973631575</v>
+        <v>-235.44222140483652</v>
       </c>
       <c r="K2">
-        <v>-0.5115960408104893</v>
+        <v>-231.1008982847595</v>
       </c>
       <c r="L2">
-        <v>-0.32849060586399653</v>
+        <v>-228.7556430726143</v>
       </c>
       <c r="M2">
-        <v>0.08607536917122084</v>
+        <v>-228.29518900370002</v>
       </c>
       <c r="N2">
-        <v>-0.0007511556345834633</v>
+        <v>-228.17938456603036</v>
       </c>
       <c r="O2">
-        <v>0.0028550238002093076</v>
+        <v>-227.31952758993046</v>
       </c>
       <c r="P2">
-        <v>0.0003020334076332593</v>
+        <v>-222.69392215355205</v>
       </c>
       <c r="Q2">
-        <v>-5.2460968923712804e-5</v>
+        <v>-135.02462545503025</v>
       </c>
       <c r="R2">
         <v>-0.21756081649610176</v>
@@ -7920,55 +7920,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>-0.29986474657938245</v>
+        <v>-2589.284898829702</v>
       </c>
       <c r="B3">
-        <v>-0.29980843886340014</v>
+        <v>-2517.5460792672925</v>
       </c>
       <c r="C3">
-        <v>-0.29971054199134944</v>
+        <v>-1972.77094465888</v>
       </c>
       <c r="D3">
-        <v>-0.2996475807949514</v>
+        <v>-638.0505206192154</v>
       </c>
       <c r="E3">
-        <v>-0.2995972723885844</v>
+        <v>-107.0588510529715</v>
       </c>
       <c r="F3">
-        <v>-0.29949621216223976</v>
+        <v>-37.61289368852527</v>
       </c>
       <c r="G3">
-        <v>-0.29922902124344414</v>
+        <v>-30.005673755610456</v>
       </c>
       <c r="H3">
-        <v>-0.29815816643703297</v>
+        <v>-29.163238787177782</v>
       </c>
       <c r="I3">
-        <v>-0.2956363422177727</v>
+        <v>-29.049832501063005</v>
       </c>
       <c r="J3">
-        <v>-0.2924408348473286</v>
+        <v>-28.80066732175178</v>
       </c>
       <c r="K3">
-        <v>-0.5535649882547187</v>
+        <v>-27.57001619030182</v>
       </c>
       <c r="L3">
-        <v>-3.1300391684821705</v>
+        <v>-26.192421956367756</v>
       </c>
       <c r="M3">
-        <v>-0.19139423347533482</v>
+        <v>-25.785924325368374</v>
       </c>
       <c r="N3">
-        <v>0.006008631672214475</v>
+        <v>-25.702555392924147</v>
       </c>
       <c r="O3">
-        <v>-0.004131480465875533</v>
+        <v>-25.629028775129147</v>
       </c>
       <c r="P3">
-        <v>0.00041589465356012696</v>
+        <v>-25.43392322111561</v>
       </c>
       <c r="Q3">
-        <v>0.002597703388240282</v>
+        <v>-23.097896377810912</v>
       </c>
       <c r="R3">
         <v>-0.21946617251298184</v>
@@ -7976,55 +7976,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>-0.2997472708268796</v>
+        <v>-262.0277733683598</v>
       </c>
       <c r="B4">
-        <v>-0.29969225780903774</v>
+        <v>-261.2741249547562</v>
       </c>
       <c r="C4">
-        <v>-0.2995677800059797</v>
+        <v>-253.97426398731815</v>
       </c>
       <c r="D4">
-        <v>-0.29944210391932286</v>
+        <v>-198.80722074909758</v>
       </c>
       <c r="E4">
-        <v>-0.29938264143927557</v>
+        <v>-65.63017592869035</v>
       </c>
       <c r="F4">
-        <v>-0.2992927251477486</v>
+        <v>-13.425107619495341</v>
       </c>
       <c r="G4">
-        <v>-0.29904532744921136</v>
+        <v>-6.648280536389492</v>
       </c>
       <c r="H4">
-        <v>-0.29800991237292634</v>
+        <v>-5.94629675500829</v>
       </c>
       <c r="I4">
-        <v>-0.29558693122745944</v>
+        <v>-5.875190816245831</v>
       </c>
       <c r="J4">
-        <v>-0.2939588751539022</v>
+        <v>-5.862404107217354</v>
       </c>
       <c r="K4">
-        <v>-0.5591944438724461</v>
+        <v>-5.814995265974422</v>
       </c>
       <c r="L4">
-        <v>-0.4362019083561293</v>
+        <v>-5.643665590964783</v>
       </c>
       <c r="M4">
-        <v>0.07242706583789096</v>
+        <v>-5.473984515995419</v>
       </c>
       <c r="N4">
-        <v>-0.0011927967747490946</v>
+        <v>-5.4137351700136085</v>
       </c>
       <c r="O4">
-        <v>0.006763471718110176</v>
+        <v>-5.357578406600652</v>
       </c>
       <c r="P4">
-        <v>0.0007083335097485326</v>
+        <v>-5.20934746096451</v>
       </c>
       <c r="Q4">
-        <v>-0.00042147465665828815</v>
+        <v>-4.75021302308891</v>
       </c>
       <c r="R4">
         <v>-0.22188926886685426</v>
@@ -8032,55 +8032,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>-0.29926708717506945</v>
+        <v>-26.94786492921297</v>
       </c>
       <c r="B5">
-        <v>-0.29920999207997817</v>
+        <v>-26.9398103117196</v>
       </c>
       <c r="C5">
-        <v>-0.29911131564110877</v>
+        <v>-26.859563684219236</v>
       </c>
       <c r="D5">
-        <v>-0.29891556281062565</v>
+        <v>-26.08596563411893</v>
       </c>
       <c r="E5">
-        <v>-0.29874272281828096</v>
+        <v>-20.446487316847016</v>
       </c>
       <c r="F5">
-        <v>-0.2986443149818492</v>
+        <v>-8.158960425393571</v>
       </c>
       <c r="G5">
-        <v>-0.29841348923239686</v>
+        <v>-3.7578430300822387</v>
       </c>
       <c r="H5">
-        <v>-0.29740085709526515</v>
+        <v>-3.1963907640707077</v>
       </c>
       <c r="I5">
-        <v>-0.2940668907717714</v>
+        <v>-3.1386202489515704</v>
       </c>
       <c r="J5">
-        <v>-0.2937280176476948</v>
+        <v>-3.1327813260549373</v>
       </c>
       <c r="K5">
-        <v>-0.7068992759965455</v>
+        <v>-3.131279092039636</v>
       </c>
       <c r="L5">
-        <v>-0.9935461096538207</v>
+        <v>-3.1229708675599923</v>
       </c>
       <c r="M5">
-        <v>0.12400617157106907</v>
+        <v>-3.100721654891809</v>
       </c>
       <c r="N5">
-        <v>-0.006582197472084899</v>
+        <v>-3.081594276232405</v>
       </c>
       <c r="O5">
-        <v>0.00010781724890770203</v>
+        <v>-3.0492262563112975</v>
       </c>
       <c r="P5">
-        <v>-0.0001037583140153415</v>
+        <v>-2.9345392551690286</v>
       </c>
       <c r="Q5">
-        <v>0.0007159470578569134</v>
+        <v>-2.5850763613754606</v>
       </c>
       <c r="R5">
         <v>-0.21929400795188631</v>
@@ -8088,55 +8088,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>-0.29780358691031633</v>
+        <v>-3.4016599933969025</v>
       </c>
       <c r="B6">
-        <v>-0.2976611918594589</v>
+        <v>-3.4014665642757254</v>
       </c>
       <c r="C6">
-        <v>-0.29758256441201486</v>
+        <v>-3.3995352945828152</v>
       </c>
       <c r="D6">
-        <v>-0.29746104947574137</v>
+        <v>-3.3805191165406048</v>
       </c>
       <c r="E6">
-        <v>-0.29710026351904656</v>
+        <v>-3.215318755539952</v>
       </c>
       <c r="F6">
-        <v>-0.29674891214008753</v>
+        <v>-2.490429413682043</v>
       </c>
       <c r="G6">
-        <v>-0.29649122565397096</v>
+        <v>-1.7781516433555782</v>
       </c>
       <c r="H6">
-        <v>-0.29561682043361054</v>
+        <v>-1.6260080544771882</v>
       </c>
       <c r="I6">
-        <v>-0.2936535245594061</v>
+        <v>-1.6089866697730413</v>
       </c>
       <c r="J6">
-        <v>-0.29571952634949744</v>
+        <v>-1.6073426467338896</v>
       </c>
       <c r="K6">
-        <v>-0.56643670720117</v>
+        <v>-1.6075268466409471</v>
       </c>
       <c r="L6">
-        <v>-1.316471318320815</v>
+        <v>-1.6075357225500502</v>
       </c>
       <c r="M6">
-        <v>0.10607468807488653</v>
+        <v>-1.6062334072795486</v>
       </c>
       <c r="N6">
-        <v>-0.002439805712327138</v>
+        <v>-1.6044742272591654</v>
       </c>
       <c r="O6">
-        <v>-0.00656110559481599</v>
+        <v>-1.5995817816495306</v>
       </c>
       <c r="P6">
-        <v>-0.00019031828171988283</v>
+        <v>-1.5771455798807308</v>
       </c>
       <c r="Q6">
-        <v>0.00021783934240955107</v>
+        <v>-1.4867610741800217</v>
       </c>
       <c r="R6">
         <v>-0.20997075264379356</v>
@@ -8144,55 +8144,55 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>-0.2934325049855814</v>
+        <v>-0.9846531229309257</v>
       </c>
       <c r="B7">
-        <v>-0.2927495884206179</v>
+        <v>-0.9845889191559783</v>
       </c>
       <c r="C7">
-        <v>-0.29257639499114985</v>
+        <v>-0.9839481037663619</v>
       </c>
       <c r="D7">
-        <v>-0.29233657513820804</v>
+        <v>-0.9776598081030149</v>
       </c>
       <c r="E7">
-        <v>-0.2918203289768537</v>
+        <v>-0.9247826840796455</v>
       </c>
       <c r="F7">
-        <v>-0.2909711964321991</v>
+        <v>-0.7348884693629054</v>
       </c>
       <c r="G7">
-        <v>-0.29003875348136066</v>
+        <v>-0.6018559683814605</v>
       </c>
       <c r="H7">
-        <v>-0.289023652321376</v>
+        <v>-0.5767971728576429</v>
       </c>
       <c r="I7">
-        <v>-0.28735655870605864</v>
+        <v>-0.5740277990829992</v>
       </c>
       <c r="J7">
-        <v>-0.2926184827176213</v>
+        <v>-0.573762675046307</v>
       </c>
       <c r="K7">
-        <v>-0.48725564838360796</v>
+        <v>-0.5738069464703602</v>
       </c>
       <c r="L7">
-        <v>0.44289248485304217</v>
+        <v>-0.5738914763155122</v>
       </c>
       <c r="M7">
-        <v>0.027648187232388512</v>
+        <v>-0.573953604955511</v>
       </c>
       <c r="N7">
-        <v>7.77407435833042e-5</v>
+        <v>-0.5739731835340262</v>
       </c>
       <c r="O7">
-        <v>0.0050397371948855425</v>
+        <v>-0.5738170860820616</v>
       </c>
       <c r="P7">
-        <v>2.6381371915618088e-5</v>
+        <v>-0.5732317207445219</v>
       </c>
       <c r="Q7">
-        <v>-0.0058922925507973916</v>
+        <v>-0.5714525255157638</v>
       </c>
       <c r="R7">
         <v>-0.23030340416853815</v>
@@ -8200,55 +8200,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>-0.27813436803846</v>
+        <v>-0.5621852510586738</v>
       </c>
       <c r="B8">
-        <v>-0.27386943955837023</v>
+        <v>-0.5621567875310156</v>
       </c>
       <c r="C8">
-        <v>-0.273120392113766</v>
+        <v>-0.5618726125132627</v>
       </c>
       <c r="D8">
-        <v>-0.2726382488574767</v>
+        <v>-0.5590761383542784</v>
       </c>
       <c r="E8">
-        <v>-0.27135721759718484</v>
+        <v>-0.5349965384430726</v>
       </c>
       <c r="F8">
-        <v>-0.26935653279582117</v>
+        <v>-0.44115422481882316</v>
       </c>
       <c r="G8">
-        <v>-0.2677063131471487</v>
+        <v>-0.3738541980896918</v>
       </c>
       <c r="H8">
-        <v>-0.26596349207953696</v>
+        <v>-0.361969564685197</v>
       </c>
       <c r="I8">
-        <v>-0.26523321023867635</v>
+        <v>-0.36067773227914085</v>
       </c>
       <c r="J8">
-        <v>-0.2670577459882296</v>
+        <v>-0.3605433058931524</v>
       </c>
       <c r="K8">
-        <v>-0.6121126549571454</v>
+        <v>-0.36050570484156663</v>
       </c>
       <c r="L8">
-        <v>-0.2003056740282592</v>
+        <v>-0.36046554221959676</v>
       </c>
       <c r="M8">
-        <v>-0.032492412550534096</v>
+        <v>-0.36043030693424116</v>
       </c>
       <c r="N8">
-        <v>0.0044598219056601815</v>
+        <v>-0.36035944892990535</v>
       </c>
       <c r="O8">
-        <v>0.013327566702555943</v>
+        <v>-0.3601499442676995</v>
       </c>
       <c r="P8">
-        <v>8.064892128535114e-5</v>
+        <v>-0.35934513423320197</v>
       </c>
       <c r="Q8">
-        <v>0.00013716776822343446</v>
+        <v>-0.3577433730612817</v>
       </c>
       <c r="R8">
         <v>-0.21195218955833414</v>
@@ -8256,55 +8256,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>-0.2517265132891888</v>
+        <v>-0.4287543649879132</v>
       </c>
       <c r="B9">
-        <v>-0.237329933127361</v>
+        <v>-0.4287388904118586</v>
       </c>
       <c r="C9">
-        <v>-0.2342327180176743</v>
+        <v>-0.4285843700079587</v>
       </c>
       <c r="D9">
-        <v>-0.2331506775055449</v>
+        <v>-0.4270613723637014</v>
       </c>
       <c r="E9">
-        <v>-0.2315818664472975</v>
+        <v>-0.4137654258594199</v>
       </c>
       <c r="F9">
-        <v>-0.22965772296016168</v>
+        <v>-0.35890538365566277</v>
       </c>
       <c r="G9">
-        <v>-0.22724362739180137</v>
+        <v>-0.3173048508478364</v>
       </c>
       <c r="H9">
-        <v>-0.22516879692529007</v>
+        <v>-0.3099084299026614</v>
       </c>
       <c r="I9">
-        <v>-0.22433896236232578</v>
+        <v>-0.30910247056660495</v>
       </c>
       <c r="J9">
-        <v>-0.2232458410464781</v>
+        <v>-0.30901238686140114</v>
       </c>
       <c r="K9">
-        <v>-0.3393507463037994</v>
+        <v>-0.30895626184038916</v>
       </c>
       <c r="L9">
-        <v>-2.589862557207183</v>
+        <v>-0.30888880193790147</v>
       </c>
       <c r="M9">
-        <v>-0.15782450955147326</v>
+        <v>-0.30884482221229875</v>
       </c>
       <c r="N9">
-        <v>-0.007386684944529376</v>
+        <v>-0.3087802181593394</v>
       </c>
       <c r="O9">
-        <v>0.00013747432940721925</v>
+        <v>-0.3086359860755979</v>
       </c>
       <c r="P9">
-        <v>-0.0005568248614788713</v>
+        <v>-0.3081476535163702</v>
       </c>
       <c r="Q9">
-        <v>-3.739067463599582e-5</v>
+        <v>-0.3064324629962078</v>
       </c>
       <c r="R9">
         <v>-0.2780861852028168</v>
@@ -8312,55 +8312,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>-0.2291733920906057</v>
+        <v>-0.4091310907909977</v>
       </c>
       <c r="B10">
-        <v>-0.2160520808376855</v>
+        <v>-0.409117251030964</v>
       </c>
       <c r="C10">
-        <v>-0.21133022225389336</v>
+        <v>-0.4089790518840159</v>
       </c>
       <c r="D10">
-        <v>-0.209533276185633</v>
+        <v>-0.4076166193879815</v>
       </c>
       <c r="E10">
-        <v>-0.2072875306693992</v>
+        <v>-0.39569945262539175</v>
       </c>
       <c r="F10">
-        <v>-0.20546702027430666</v>
+        <v>-0.34614045622004264</v>
       </c>
       <c r="G10">
-        <v>-0.204499334504247</v>
+        <v>-0.30834572571846414</v>
       </c>
       <c r="H10">
-        <v>-0.20295702513364228</v>
+        <v>-0.30163947352438303</v>
       </c>
       <c r="I10">
-        <v>-0.20112517807801783</v>
+        <v>-0.3009081784892292</v>
       </c>
       <c r="J10">
-        <v>-0.20070270076596444</v>
+        <v>-0.3008243937549155</v>
       </c>
       <c r="K10">
-        <v>-0.31519412028332433</v>
+        <v>-0.30076435364716175</v>
       </c>
       <c r="L10">
-        <v>-0.5749233297903643</v>
+        <v>-0.30069095221704367</v>
       </c>
       <c r="M10">
-        <v>0.010106074639331776</v>
+        <v>-0.30064365902656104</v>
       </c>
       <c r="N10">
-        <v>0.005631844241002834</v>
+        <v>-0.3005782844605469</v>
       </c>
       <c r="O10">
-        <v>0.001834743310773139</v>
+        <v>-0.3004361849622543</v>
       </c>
       <c r="P10">
-        <v>8.05448381844412e-5</v>
+        <v>-0.2999823612867816</v>
       </c>
       <c r="Q10">
-        <v>-6.136778167037884e-5</v>
+        <v>-0.2982998713981676</v>
       </c>
       <c r="R10">
         <v>-0.22372212018710855</v>
@@ -8368,55 +8368,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>-0.21532575604039753</v>
+        <v>-0.4070407074074555</v>
       </c>
       <c r="B11">
-        <v>-0.20734500868183103</v>
+        <v>-0.40702703632137804</v>
       </c>
       <c r="C11">
-        <v>-0.20225870505358445</v>
+        <v>-0.4068905212020116</v>
       </c>
       <c r="D11">
-        <v>-0.19982713830348797</v>
+        <v>-0.4055446596165264</v>
       </c>
       <c r="E11">
-        <v>-0.19653302452808527</v>
+        <v>-0.39377008097974586</v>
       </c>
       <c r="F11">
-        <v>-0.19391785888116106</v>
+        <v>-0.3447648169108425</v>
       </c>
       <c r="G11">
-        <v>-0.19312592062146508</v>
+        <v>-0.3073747456987241</v>
       </c>
       <c r="H11">
-        <v>-0.19248322297069298</v>
+        <v>-0.3007426110751703</v>
       </c>
       <c r="I11">
-        <v>-0.19124379219936793</v>
+        <v>-0.3000192610471489</v>
       </c>
       <c r="J11">
-        <v>-0.1899934054296024</v>
+        <v>-0.2999347964355725</v>
       </c>
       <c r="K11">
-        <v>-0.28227525223587546</v>
+        <v>-0.299870168389803</v>
       </c>
       <c r="L11">
-        <v>-0.14207069888541496</v>
+        <v>-0.2997925796919623</v>
       </c>
       <c r="M11">
-        <v>0.01972427264152805</v>
+        <v>-0.2997444465674413</v>
       </c>
       <c r="N11">
-        <v>0.00019542071180540473</v>
+        <v>-0.29967969945014467</v>
       </c>
       <c r="O11">
-        <v>-0.02158313936624551</v>
+        <v>-0.29953949777974653</v>
       </c>
       <c r="P11">
-        <v>2.060096197022191e-5</v>
+        <v>-0.29910174612483864</v>
       </c>
       <c r="Q11">
-        <v>7.197628971389224e-6</v>
+        <v>-0.2973080668401667</v>
       </c>
       <c r="R11">
         <v>-0.18882268762757914</v>
@@ -8424,55 +8424,55 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>-0.20879526091699618</v>
+        <v>-0.4067969510280261</v>
       </c>
       <c r="B12">
-        <v>-0.20332655223003124</v>
+        <v>-0.4067832994793315</v>
       </c>
       <c r="C12">
-        <v>-0.1987391268200767</v>
+        <v>-0.40664697942091926</v>
       </c>
       <c r="D12">
-        <v>-0.19640311260839777</v>
+        <v>-0.4053030353638238</v>
       </c>
       <c r="E12">
-        <v>-0.19311405339421753</v>
+        <v>-0.39354481276576914</v>
       </c>
       <c r="F12">
-        <v>-0.1903321224452654</v>
+        <v>-0.3446004350357361</v>
       </c>
       <c r="G12">
-        <v>-0.1895466682134503</v>
+        <v>-0.30725181853446787</v>
       </c>
       <c r="H12">
-        <v>-0.18904487707639234</v>
+        <v>-0.30062481152497367</v>
       </c>
       <c r="I12">
-        <v>-0.18788177876116413</v>
+        <v>-0.29990115529448225</v>
       </c>
       <c r="J12">
-        <v>-0.1844230115730962</v>
+        <v>-0.29981644702637433</v>
       </c>
       <c r="K12">
-        <v>-0.30381675170093503</v>
+        <v>-0.29974132887905236</v>
       </c>
       <c r="L12">
-        <v>-0.3892231495319833</v>
+        <v>-0.29963087388363996</v>
       </c>
       <c r="M12">
-        <v>-0.1446966210832403</v>
+        <v>-0.29957276518016523</v>
       </c>
       <c r="N12">
-        <v>0.00015904347985929633</v>
+        <v>-0.2995130454452564</v>
       </c>
       <c r="O12">
-        <v>0.002171091803269965</v>
+        <v>-0.29938161145068815</v>
       </c>
       <c r="P12">
-        <v>2.260636291672782e-6</v>
+        <v>-0.29894673564782087</v>
       </c>
       <c r="Q12">
-        <v>-0.00023312912441020777</v>
+        <v>-0.29733200748542515</v>
       </c>
       <c r="R12">
         <v>-0.21187033698876542</v>
@@ -8480,55 +8480,55 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>-0.20714919103255702</v>
+        <v>-0.4065246759047341</v>
       </c>
       <c r="B13">
-        <v>-0.20234606550285353</v>
+        <v>-0.40651104680932887</v>
       </c>
       <c r="C13">
-        <v>-0.19790886146801204</v>
+        <v>-0.40637495084307496</v>
       </c>
       <c r="D13">
-        <v>-0.19566268418598667</v>
+        <v>-0.40503320867777276</v>
       </c>
       <c r="E13">
-        <v>-0.19249868684322075</v>
+        <v>-0.39329369011279874</v>
       </c>
       <c r="F13">
-        <v>-0.18972231452111551</v>
+        <v>-0.3444185055579791</v>
       </c>
       <c r="G13">
-        <v>-0.18893076861928998</v>
+        <v>-0.3071143212991782</v>
       </c>
       <c r="H13">
-        <v>-0.18847298563430362</v>
+        <v>-0.3004647523138796</v>
       </c>
       <c r="I13">
-        <v>-0.18722581900579452</v>
+        <v>-0.299714522288084</v>
       </c>
       <c r="J13">
-        <v>-0.18345598267583796</v>
+        <v>-0.29962570979741043</v>
       </c>
       <c r="K13">
-        <v>-0.31573137240325927</v>
+        <v>-0.2995559376916856</v>
       </c>
       <c r="L13">
-        <v>-0.28523109360427773</v>
+        <v>-0.299406201953818</v>
       </c>
       <c r="M13">
-        <v>0.022369427097766268</v>
+        <v>-0.29927001264043956</v>
       </c>
       <c r="N13">
-        <v>0.0005753386460300514</v>
+        <v>-0.29920199242704265</v>
       </c>
       <c r="O13">
-        <v>0.0009917192299239864</v>
+        <v>-0.299083714598912</v>
       </c>
       <c r="P13">
-        <v>0.003537446285650279</v>
+        <v>-0.29867926157784536</v>
       </c>
       <c r="Q13">
-        <v>-1.2776493728516812e-5</v>
+        <v>-0.29700861395968864</v>
       </c>
       <c r="R13">
         <v>-0.32033268836081763</v>
@@ -8536,55 +8536,55 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>-0.20693119612149072</v>
+        <v>-0.40562992770496475</v>
       </c>
       <c r="B14">
-        <v>-0.20221741409113345</v>
+        <v>-0.405616373856543</v>
       </c>
       <c r="C14">
-        <v>-0.1977984956234215</v>
+        <v>-0.4054810291248238</v>
       </c>
       <c r="D14">
-        <v>-0.19556601566416154</v>
+        <v>-0.4041466746758051</v>
       </c>
       <c r="E14">
-        <v>-0.1924244124141858</v>
+        <v>-0.39247040842500786</v>
       </c>
       <c r="F14">
-        <v>-0.18965444247337454</v>
+        <v>-0.34383835396362017</v>
       </c>
       <c r="G14">
-        <v>-0.1888491257777851</v>
+        <v>-0.30670919637182936</v>
       </c>
       <c r="H14">
-        <v>-0.18837459247093308</v>
+        <v>-0.2999912579499251</v>
       </c>
       <c r="I14">
-        <v>-0.18731362397692053</v>
+        <v>-0.2990190168198569</v>
       </c>
       <c r="J14">
-        <v>-0.1838590796674683</v>
+        <v>-0.2988499905666525</v>
       </c>
       <c r="K14">
-        <v>-0.3071537858788071</v>
+        <v>-0.29878502186353617</v>
       </c>
       <c r="L14">
-        <v>-0.22383631407471802</v>
+        <v>-0.2986828282077519</v>
       </c>
       <c r="M14">
-        <v>0.060026136213558554</v>
+        <v>-0.29844882273872314</v>
       </c>
       <c r="N14">
-        <v>0.0633727491024039</v>
+        <v>-0.298232563953236</v>
       </c>
       <c r="O14">
-        <v>-0.009052787639772727</v>
+        <v>-0.29810380499079314</v>
       </c>
       <c r="P14">
-        <v>0.00014783608930268687</v>
+        <v>-0.29773710082601573</v>
       </c>
       <c r="Q14">
-        <v>-0.0003637420682810237</v>
+        <v>-0.29629940253371273</v>
       </c>
       <c r="R14">
         <v>6.8070053629188262E-2</v>
@@ -8592,55 +8592,55 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>-0.20701524778687574</v>
+        <v>-0.40361385620701257</v>
       </c>
       <c r="B15">
-        <v>-0.202300185566083</v>
+        <v>-0.4036004721769252</v>
       </c>
       <c r="C15">
-        <v>-0.19785382398404439</v>
+        <v>-0.4034668224970283</v>
       </c>
       <c r="D15">
-        <v>-0.19559776188370412</v>
+        <v>-0.40214912043397416</v>
       </c>
       <c r="E15">
-        <v>-0.19244972683844783</v>
+        <v>-0.3906140477758236</v>
       </c>
       <c r="F15">
-        <v>-0.18970423892676927</v>
+        <v>-0.34249016943508026</v>
       </c>
       <c r="G15">
-        <v>-0.18887818620381183</v>
+        <v>-0.30567981571256814</v>
       </c>
       <c r="H15">
-        <v>-0.18844019460173272</v>
+        <v>-0.2988977051314493</v>
       </c>
       <c r="I15">
-        <v>-0.18733428043398273</v>
+        <v>-0.29732060883275707</v>
       </c>
       <c r="J15">
-        <v>-0.1822648665151587</v>
+        <v>-0.29667026156307347</v>
       </c>
       <c r="K15">
-        <v>-0.2775426886027277</v>
+        <v>-0.296526691126326</v>
       </c>
       <c r="L15">
-        <v>-0.43350155413783037</v>
+        <v>-0.29643089056598015</v>
       </c>
       <c r="M15">
-        <v>0.0872476063883903</v>
+        <v>-0.2962496913091698</v>
       </c>
       <c r="N15">
-        <v>0.005263457119914962</v>
+        <v>-0.2957501868778857</v>
       </c>
       <c r="O15">
-        <v>0.0015098770705507594</v>
+        <v>-0.29526470954002615</v>
       </c>
       <c r="P15">
-        <v>-0.0004015497358687151</v>
+        <v>-0.2948379286728299</v>
       </c>
       <c r="Q15">
-        <v>-5.324032174828465e-5</v>
+        <v>-0.29350601104844204</v>
       </c>
       <c r="R15">
         <v>1.4906064937463726</v>
@@ -8648,55 +8648,55 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>-0.20811941555797583</v>
+        <v>-0.3972993158876886</v>
       </c>
       <c r="B16">
-        <v>-0.20351591885816825</v>
+        <v>-0.39728641083312805</v>
       </c>
       <c r="C16">
-        <v>-0.1988601292259567</v>
+        <v>-0.3971575412409488</v>
       </c>
       <c r="D16">
-        <v>-0.1969139792542748</v>
+        <v>-0.39588677951103274</v>
       </c>
       <c r="E16">
-        <v>-0.19360790211181</v>
+        <v>-0.3847479124780369</v>
       </c>
       <c r="F16">
-        <v>-0.19087603071049075</v>
+        <v>-0.33799014595349264</v>
       </c>
       <c r="G16">
-        <v>-0.19009180105714454</v>
+        <v>-0.3018735969161601</v>
       </c>
       <c r="H16">
-        <v>-0.18885841789944566</v>
+        <v>-0.294957686992472</v>
       </c>
       <c r="I16">
-        <v>-0.18792908267429667</v>
+        <v>-0.29192293295319705</v>
       </c>
       <c r="J16">
-        <v>-0.18255824989418704</v>
+        <v>-0.2890243130775838</v>
       </c>
       <c r="K16">
-        <v>-0.274776927098866</v>
+        <v>-0.2883293210432692</v>
       </c>
       <c r="L16">
-        <v>-0.14678780314012946</v>
+        <v>-0.28810651491591055</v>
       </c>
       <c r="M16">
-        <v>-0.004971911665332149</v>
+        <v>-0.2876399821275557</v>
       </c>
       <c r="N16">
-        <v>0.0019396838332041758</v>
+        <v>-0.28669829856868684</v>
       </c>
       <c r="O16">
-        <v>-0.012011359648620195</v>
+        <v>-0.28563034005547844</v>
       </c>
       <c r="P16">
-        <v>0.00012990749796682583</v>
+        <v>-0.2843126951367138</v>
       </c>
       <c r="Q16">
-        <v>-3.495953477471095e-5</v>
+        <v>-0.282911580001134</v>
       </c>
       <c r="R16">
         <v>2.6106957339943473E-2</v>
@@ -8704,55 +8704,55 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>-0.2077213953776595</v>
+        <v>-0.37883832226465974</v>
       </c>
       <c r="B17">
-        <v>-0.20261542582376918</v>
+        <v>-0.37882663167039526</v>
       </c>
       <c r="C17">
-        <v>-0.19743745430677803</v>
+        <v>-0.3787098888349177</v>
       </c>
       <c r="D17">
-        <v>-0.1950121601339338</v>
+        <v>-0.37755832149920454</v>
       </c>
       <c r="E17">
-        <v>-0.19306051405350458</v>
+        <v>-0.3674341555093823</v>
       </c>
       <c r="F17">
-        <v>-0.18845964341749744</v>
+        <v>-0.3243175448106005</v>
       </c>
       <c r="G17">
-        <v>-0.19476294155872861</v>
+        <v>-0.2901320174046786</v>
       </c>
       <c r="H17">
-        <v>-0.18667239238087352</v>
+        <v>-0.2830218894630215</v>
       </c>
       <c r="I17">
-        <v>-0.17893769519647834</v>
+        <v>-0.27685100802706514</v>
       </c>
       <c r="J17">
-        <v>-0.2015251377312443</v>
+        <v>-0.2645654052312767</v>
       </c>
       <c r="K17">
-        <v>-0.2672611581663069</v>
+        <v>-0.25999995762036654</v>
       </c>
       <c r="L17">
-        <v>-0.12791796566900107</v>
+        <v>-0.25918559127716806</v>
       </c>
       <c r="M17">
-        <v>0.05989047827406893</v>
+        <v>-0.2583848579033259</v>
       </c>
       <c r="N17">
-        <v>0.04242189691510765</v>
+        <v>-0.2565617020850587</v>
       </c>
       <c r="O17">
-        <v>-0.0014851892841396736</v>
+        <v>-0.254102945015742</v>
       </c>
       <c r="P17">
-        <v>9.94745340266704e-5</v>
+        <v>-0.25207277027844605</v>
       </c>
       <c r="Q17">
-        <v>-2.5217701660676985e-5</v>
+        <v>-0.25061086185545145</v>
       </c>
       <c r="R17">
         <v>-3.8458809600156593E-3</v>
@@ -8833,55 +8833,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1">
-        <v>-0.3026728485169187</v>
+        <v>-178265.90262565977</v>
       </c>
       <c r="B1">
-        <v>-0.3026465179201778</v>
+        <v>-61528.91394566237</v>
       </c>
       <c r="C1">
-        <v>-0.3026186368560268</v>
+        <v>-10347.468999732526</v>
       </c>
       <c r="D1">
-        <v>-0.3025987799959826</v>
+        <v>-3400.269990616217</v>
       </c>
       <c r="E1">
-        <v>-0.30258237659123516</v>
+        <v>-2472.009986857617</v>
       </c>
       <c r="F1">
-        <v>-0.3025520025427338</v>
+        <v>-2289.816074018409</v>
       </c>
       <c r="G1">
-        <v>-0.30248129867936435</v>
+        <v>-2266.6834525218887</v>
       </c>
       <c r="H1">
-        <v>-0.30219188317977624</v>
+        <v>-2264.2223932441943</v>
       </c>
       <c r="I1">
-        <v>-0.30119869319227977</v>
+        <v>-2263.864271310166</v>
       </c>
       <c r="J1">
-        <v>-0.2903727728391998</v>
+        <v>-2262.9263405911383</v>
       </c>
       <c r="K1">
-        <v>-0.19204957646136137</v>
+        <v>-2258.634314020684</v>
       </c>
       <c r="L1">
-        <v>0.10706215133332025</v>
+        <v>-2254.501510650029</v>
       </c>
       <c r="M1">
-        <v>-0.040654489022729175</v>
+        <v>-2257.0475961411307</v>
       </c>
       <c r="N1">
-        <v>0.0010730980017213709</v>
+        <v>-2287.4972969615515</v>
       </c>
       <c r="O1">
-        <v>-0.010325861414297734</v>
+        <v>-2141.0447539589995</v>
       </c>
       <c r="P1">
-        <v>0.0010018674993891193</v>
+        <v>-239997.61774590556</v>
       </c>
       <c r="Q1">
-        <v>0.0003172271177098017</v>
+        <v>-113.27971943846114</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
@@ -8889,55 +8889,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>-0.300638289384995</v>
+        <v>-24979.094775622903</v>
       </c>
       <c r="B2">
-        <v>-0.3006119314077008</v>
+        <v>-19605.31654893686</v>
       </c>
       <c r="C2">
-        <v>-0.3005830725882895</v>
+        <v>-6351.148307862499</v>
       </c>
       <c r="D2">
-        <v>-0.30056242306360315</v>
+        <v>-1042.6968381648646</v>
       </c>
       <c r="E2">
-        <v>-0.30054549046593537</v>
+        <v>-343.97640862933173</v>
       </c>
       <c r="F2">
-        <v>-0.30051515486916225</v>
+        <v>-254.55667836826197</v>
       </c>
       <c r="G2">
-        <v>-0.30046972612015427</v>
+        <v>-239.28290546505906</v>
       </c>
       <c r="H2">
-        <v>-0.30033440347598395</v>
+        <v>-237.41070807752467</v>
       </c>
       <c r="I2">
-        <v>-0.29991646222083196</v>
+        <v>-237.14112983398175</v>
       </c>
       <c r="J2">
-        <v>-0.2989042297537645</v>
+        <v>-236.47041490747606</v>
       </c>
       <c r="K2">
-        <v>-0.22233683362303636</v>
+        <v>-233.1509096874502</v>
       </c>
       <c r="L2">
-        <v>-0.1761796618844795</v>
+        <v>-229.55591186713417</v>
       </c>
       <c r="M2">
-        <v>0.1465991177825487</v>
+        <v>-228.58669929097033</v>
       </c>
       <c r="N2">
-        <v>-0.016386022430343348</v>
+        <v>-228.8042485978157</v>
       </c>
       <c r="O2">
-        <v>0.007528620588880635</v>
+        <v>-227.55486709333746</v>
       </c>
       <c r="P2">
-        <v>-0.001093932433252868</v>
+        <v>-242.05614550258412</v>
       </c>
       <c r="Q2">
-        <v>0.00040040970389130766</v>
+        <v>-77.49676276327995</v>
       </c>
       <c r="R2">
         <v>-0.25969537043731633</v>
@@ -8945,55 +8945,55 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>-0.30042916822569277</v>
+        <v>-2603.4675147295525</v>
       </c>
       <c r="B3">
-        <v>-0.30040184613259524</v>
+        <v>-2530.9509385893507</v>
       </c>
       <c r="C3">
-        <v>-0.3003707743200736</v>
+        <v>-1980.9901689544186</v>
       </c>
       <c r="D3">
-        <v>-0.30034902752097953</v>
+        <v>-638.9298000394078</v>
       </c>
       <c r="E3">
-        <v>-0.30033219081256285</v>
+        <v>-107.12864178697347</v>
       </c>
       <c r="F3">
-        <v>-0.30030327353958247</v>
+        <v>-37.66696730722478</v>
       </c>
       <c r="G3">
-        <v>-0.3002447793677693</v>
+        <v>-30.065617202688244</v>
       </c>
       <c r="H3">
-        <v>-0.3000602563313746</v>
+        <v>-29.2276587215617</v>
       </c>
       <c r="I3">
-        <v>-0.2997705742057349</v>
+        <v>-29.130649708265437</v>
       </c>
       <c r="J3">
-        <v>-0.2958319116686944</v>
+        <v>-29.020996288995786</v>
       </c>
       <c r="K3">
-        <v>-0.23360511874685572</v>
+        <v>-28.31188408540389</v>
       </c>
       <c r="L3">
-        <v>0.17263507442379822</v>
+        <v>-26.783153395474976</v>
       </c>
       <c r="M3">
-        <v>-0.012508209564389071</v>
+        <v>-26.032891699495075</v>
       </c>
       <c r="N3">
-        <v>-0.00015811844550111685</v>
+        <v>-25.87317385759374</v>
       </c>
       <c r="O3">
-        <v>0.0020008113768094677</v>
+        <v>-25.781674355086984</v>
       </c>
       <c r="P3">
-        <v>6.538310204764664e-5</v>
+        <v>-25.924478633878522</v>
       </c>
       <c r="Q3">
-        <v>-0.0005792317781155814</v>
+        <v>-21.181026536711073</v>
       </c>
       <c r="R3">
         <v>-0.27938070835965656</v>
@@ -9001,55 +9001,55 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>-0.3003957483206707</v>
+        <v>-262.1680529313091</v>
       </c>
       <c r="B4">
-        <v>-0.300368163686377</v>
+        <v>-261.4136019582209</v>
       </c>
       <c r="C4">
-        <v>-0.30032994124711376</v>
+        <v>-254.10613693390755</v>
       </c>
       <c r="D4">
-        <v>-0.30029763365222234</v>
+        <v>-198.89116491075038</v>
       </c>
       <c r="E4">
-        <v>-0.30028015463090185</v>
+        <v>-65.6678426240427</v>
       </c>
       <c r="F4">
-        <v>-0.300252009756088</v>
+        <v>-13.471563717039247</v>
       </c>
       <c r="G4">
-        <v>-0.3001977695057152</v>
+        <v>-6.698059398239814</v>
       </c>
       <c r="H4">
-        <v>-0.29983865387931946</v>
+        <v>-5.996942677086584</v>
       </c>
       <c r="I4">
-        <v>-0.2999856343666749</v>
+        <v>-5.926283037182943</v>
       </c>
       <c r="J4">
-        <v>-0.30075236263538097</v>
+        <v>-5.916940224488739</v>
       </c>
       <c r="K4">
-        <v>-0.3435858531932616</v>
+        <v>-5.895902779659855</v>
       </c>
       <c r="L4">
-        <v>0.44001483711250466</v>
+        <v>-5.793385704985548</v>
       </c>
       <c r="M4">
-        <v>-1.1418780721934585</v>
+        <v>-5.622892774929401</v>
       </c>
       <c r="N4">
-        <v>-0.0005464662427508042</v>
+        <v>-5.543318441921105</v>
       </c>
       <c r="O4">
-        <v>0.06990751401783632</v>
+        <v>-5.495613562451489</v>
       </c>
       <c r="P4">
-        <v>0.0015094975875296788</v>
+        <v>-5.43144766090226</v>
       </c>
       <c r="Q4">
-        <v>0.0023296782757951068</v>
+        <v>-5.216059974282883</v>
       </c>
       <c r="R4">
         <v>-0.26226974913252304</v>
@@ -9057,55 +9057,55 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>-0.30032606620594604</v>
+        <v>-26.949691365181142</v>
       </c>
       <c r="B5">
-        <v>-0.30029876672616096</v>
+        <v>-26.94163594149894</v>
       </c>
       <c r="C5">
-        <v>-0.30026220141665433</v>
+        <v>-26.861381703483865</v>
       </c>
       <c r="D5">
-        <v>-0.30020785984653775</v>
+        <v>-26.087757528148245</v>
       </c>
       <c r="E5">
-        <v>-0.30017331063698255</v>
+        <v>-20.450665782131836</v>
       </c>
       <c r="F5">
-        <v>-0.30014692214166483</v>
+        <v>-8.184126143477805</v>
       </c>
       <c r="G5">
-        <v>-0.3000877603127968</v>
+        <v>-3.7966880335033597</v>
       </c>
       <c r="H5">
-        <v>-0.29978816789735885</v>
+        <v>-3.2375941479728163</v>
       </c>
       <c r="I5">
-        <v>-0.2980929957396263</v>
+        <v>-3.180074518149403</v>
       </c>
       <c r="J5">
-        <v>-0.3002499130190885</v>
+        <v>-3.1742861717400306</v>
       </c>
       <c r="K5">
-        <v>-0.21740716344063893</v>
+        <v>-3.173332361958923</v>
       </c>
       <c r="L5">
-        <v>0.19389758290622264</v>
+        <v>-3.1695475436828757</v>
       </c>
       <c r="M5">
-        <v>-0.13666043436404793</v>
+        <v>-3.157073766844735</v>
       </c>
       <c r="N5">
-        <v>-0.004725298308874514</v>
+        <v>-3.145350020961383</v>
       </c>
       <c r="O5">
-        <v>0.00018295562514355972</v>
+        <v>-3.132713807807568</v>
       </c>
       <c r="P5">
-        <v>0.00011605510840895899</v>
+        <v>-3.1031031276256456</v>
       </c>
       <c r="Q5">
-        <v>3.1268243216769966e-5</v>
+        <v>-2.9964010998537307</v>
       </c>
       <c r="R5">
         <v>-0.25906923178580488</v>
@@ -9113,55 +9113,55 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>-0.3000802252336074</v>
+        <v>-3.4023416954496777</v>
       </c>
       <c r="B6">
-        <v>-0.3000438774710058</v>
+        <v>-3.4021481132775775</v>
       </c>
       <c r="C6">
-        <v>-0.30001552326189834</v>
+        <v>-3.4002153313154904</v>
       </c>
       <c r="D6">
-        <v>-0.29997157707057626</v>
+        <v>-3.381185683807644</v>
       </c>
       <c r="E6">
-        <v>-0.2998862660808365</v>
+        <v>-3.215975713604958</v>
       </c>
       <c r="F6">
-        <v>-0.29982849272814166</v>
+        <v>-2.4933958523920814</v>
       </c>
       <c r="G6">
-        <v>-0.2997743146118658</v>
+        <v>-1.7879606710155824</v>
       </c>
       <c r="H6">
-        <v>-0.2994657746236481</v>
+        <v>-1.6380258475770293</v>
       </c>
       <c r="I6">
-        <v>-0.2977581954102239</v>
+        <v>-1.6212557768401015</v>
       </c>
       <c r="J6">
-        <v>-0.3006377335281989</v>
+        <v>-1.6195884076673868</v>
       </c>
       <c r="K6">
-        <v>-0.22080554256386917</v>
+        <v>-1.6195693866989045</v>
       </c>
       <c r="L6">
-        <v>1.068853957291493</v>
+        <v>-1.6196138420147954</v>
       </c>
       <c r="M6">
-        <v>-0.01928058889640437</v>
+        <v>-1.6190349809192761</v>
       </c>
       <c r="N6">
-        <v>0.001140267167286426</v>
+        <v>-1.6183306567551465</v>
       </c>
       <c r="O6">
-        <v>-0.0005257072009372899</v>
+        <v>-1.6173184844874255</v>
       </c>
       <c r="P6">
-        <v>-0.0003008922856766097</v>
+        <v>-1.613291795098487</v>
       </c>
       <c r="Q6">
-        <v>-2.429772455683188e-5</v>
+        <v>-1.5976844455183328</v>
       </c>
       <c r="R6">
         <v>-0.26251763489129681</v>
@@ -9169,55 +9169,55 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>-0.2994274582920529</v>
+        <v>-0.9851683133837059</v>
       </c>
       <c r="B7">
-        <v>-0.2993212306835762</v>
+        <v>-0.9851040104171662</v>
       </c>
       <c r="C7">
-        <v>-0.2992840967943825</v>
+        <v>-0.9844622097367032</v>
       </c>
       <c r="D7">
-        <v>-0.29924489137849036</v>
+        <v>-0.9781646899166963</v>
       </c>
       <c r="E7">
-        <v>-0.29916033898804006</v>
+        <v>-0.9252419558782347</v>
       </c>
       <c r="F7">
-        <v>-0.2989814746415799</v>
+        <v>-0.7356760787742169</v>
       </c>
       <c r="G7">
-        <v>-0.298838095167534</v>
+        <v>-0.6035497826661338</v>
       </c>
       <c r="H7">
-        <v>-0.29854879339623025</v>
+        <v>-0.5787797688019007</v>
       </c>
       <c r="I7">
-        <v>-0.2969159800384557</v>
+        <v>-0.5760415530637301</v>
       </c>
       <c r="J7">
-        <v>-0.30041259136812326</v>
+        <v>-0.5757709812191739</v>
       </c>
       <c r="K7">
-        <v>-0.21213089528427384</v>
+        <v>-0.5757772822755232</v>
       </c>
       <c r="L7">
-        <v>0.43177185968438897</v>
+        <v>-0.5758271535318601</v>
       </c>
       <c r="M7">
-        <v>0.019123030753414934</v>
+        <v>-0.5758661163922139</v>
       </c>
       <c r="N7">
-        <v>-0.0020045224215472753</v>
+        <v>-0.5758954837410294</v>
       </c>
       <c r="O7">
-        <v>-0.009387706118119404</v>
+        <v>-0.5759113751141163</v>
       </c>
       <c r="P7">
-        <v>0.0011401995322734787</v>
+        <v>-0.5759277822720124</v>
       </c>
       <c r="Q7">
-        <v>2.4170528574990205e-5</v>
+        <v>-0.576250622285669</v>
       </c>
       <c r="R7">
         <v>-0.26032173689759852</v>
@@ -9225,55 +9225,55 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>-0.29746105415056434</v>
+        <v>-0.5624840909094807</v>
       </c>
       <c r="B8">
-        <v>-0.29704133340696187</v>
+        <v>-0.5624555854438237</v>
       </c>
       <c r="C8">
-        <v>-0.2969558645505065</v>
+        <v>-0.5621709936195274</v>
       </c>
       <c r="D8">
-        <v>-0.29687578995016534</v>
+        <v>-0.5593706018479451</v>
       </c>
       <c r="E8">
-        <v>-0.29668590609380585</v>
+        <v>-0.5352710667052338</v>
       </c>
       <c r="F8">
-        <v>-0.2964197713227193</v>
+        <v>-0.44158820790634884</v>
       </c>
       <c r="G8">
-        <v>-0.29609504941765025</v>
+        <v>-0.37467245254066944</v>
       </c>
       <c r="H8">
-        <v>-0.29568463985222543</v>
+        <v>-0.36288919480954307</v>
       </c>
       <c r="I8">
-        <v>-0.2944815902266221</v>
+        <v>-0.3616086707795424</v>
       </c>
       <c r="J8">
-        <v>-0.2888322948593896</v>
+        <v>-0.3614788700719679</v>
       </c>
       <c r="K8">
-        <v>-0.2160716674068694</v>
+        <v>-0.36146125984070354</v>
       </c>
       <c r="L8">
-        <v>-0.3780392717808062</v>
+        <v>-0.3614506923680465</v>
       </c>
       <c r="M8">
-        <v>0.0031836902393659193</v>
+        <v>-0.36144066861501445</v>
       </c>
       <c r="N8">
-        <v>0.0008367471133126682</v>
+        <v>-0.3614231620298931</v>
       </c>
       <c r="O8">
-        <v>0.004077365436863451</v>
+        <v>-0.3613730298730813</v>
       </c>
       <c r="P8">
-        <v>-0.0001710891646575063</v>
+        <v>-0.3612609656454385</v>
       </c>
       <c r="Q8">
-        <v>-0.00029297959330624145</v>
+        <v>-0.3608542980878753</v>
       </c>
       <c r="R8">
         <v>-0.25602704031235368</v>
@@ -9281,55 +9281,55 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>-0.2887815767493091</v>
+        <v>-0.42901817773108153</v>
       </c>
       <c r="B9">
-        <v>-0.2854260263998546</v>
+        <v>-0.4290026762568718</v>
       </c>
       <c r="C9">
-        <v>-0.28480076860684245</v>
+        <v>-0.42884788826950393</v>
       </c>
       <c r="D9">
-        <v>-0.2845807292387506</v>
+        <v>-0.42732234824885407</v>
       </c>
       <c r="E9">
-        <v>-0.2841758825024139</v>
+        <v>-0.41401151060259783</v>
       </c>
       <c r="F9">
-        <v>-0.2834323088588286</v>
+        <v>-0.35922679890044323</v>
       </c>
       <c r="G9">
-        <v>-0.2826251689777951</v>
+        <v>-0.3178387816562245</v>
       </c>
       <c r="H9">
-        <v>-0.2818913420436727</v>
+        <v>-0.31050015506261436</v>
       </c>
       <c r="I9">
-        <v>-0.2802568665697105</v>
+        <v>-0.30970172532739454</v>
       </c>
       <c r="J9">
-        <v>-0.2733736979928843</v>
+        <v>-0.3096188300656692</v>
       </c>
       <c r="K9">
-        <v>-0.24044243234509344</v>
+        <v>-0.3095964041106153</v>
       </c>
       <c r="L9">
-        <v>-3.7782892311159553</v>
+        <v>-0.30957187029082195</v>
       </c>
       <c r="M9">
-        <v>0.0018841525843014003</v>
+        <v>-0.3095563329409629</v>
       </c>
       <c r="N9">
-        <v>-2.0784504535306664e-5</v>
+        <v>-0.3095373486237579</v>
       </c>
       <c r="O9">
-        <v>0.0009016798560034971</v>
+        <v>-0.3094958467009174</v>
       </c>
       <c r="P9">
-        <v>-5.877219908156243e-6</v>
+        <v>-0.30943254145589044</v>
       </c>
       <c r="Q9">
-        <v>-5.903354917327614e-5</v>
+        <v>-0.30932531155736226</v>
       </c>
       <c r="R9">
         <v>-0.28633019204128307</v>
@@ -9337,55 +9337,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>-0.26932779604865215</v>
+        <v>-0.40940913050268324</v>
       </c>
       <c r="B10">
-        <v>-0.25443092761591585</v>
+        <v>-0.40939526496204787</v>
       </c>
       <c r="C10">
-        <v>-0.25012976565591283</v>
+        <v>-0.40925680919400004</v>
       </c>
       <c r="D10">
-        <v>-0.24885628232864868</v>
+        <v>-0.4078919297944056</v>
       </c>
       <c r="E10">
-        <v>-0.247489123496569</v>
+        <v>-0.3959597587660702</v>
       </c>
       <c r="F10">
-        <v>-0.24620225166846116</v>
+        <v>-0.34645885487831335</v>
       </c>
       <c r="G10">
-        <v>-0.2452466550193104</v>
+        <v>-0.30884189480959146</v>
       </c>
       <c r="H10">
-        <v>-0.2437843466197622</v>
+        <v>-0.3021850338939225</v>
       </c>
       <c r="I10">
-        <v>-0.24207433568791845</v>
+        <v>-0.30146074645594456</v>
       </c>
       <c r="J10">
-        <v>-0.23656422729430446</v>
+        <v>-0.301384970752276</v>
       </c>
       <c r="K10">
-        <v>-0.21000928373473887</v>
+        <v>-0.30136141049436355</v>
       </c>
       <c r="L10">
-        <v>-0.16204513883974195</v>
+        <v>-0.3013338812260544</v>
       </c>
       <c r="M10">
-        <v>-0.006090560825728099</v>
+        <v>-0.3013165825166157</v>
       </c>
       <c r="N10">
-        <v>-0.001795016078367053</v>
+        <v>-0.3012966606011813</v>
       </c>
       <c r="O10">
-        <v>-0.007261663788457345</v>
+        <v>-0.30125662406124437</v>
       </c>
       <c r="P10">
-        <v>9.583191926642725e-5</v>
+        <v>-0.3011800130840328</v>
       </c>
       <c r="Q10">
-        <v>0.0011690384125317929</v>
+        <v>-0.3008838334230942</v>
       </c>
       <c r="R10">
         <v>-0.30677421359147128</v>
@@ -9393,55 +9393,55 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>-0.24351846143014497</v>
+        <v>-0.40732503582550944</v>
       </c>
       <c r="B11">
-        <v>-0.2311162618452332</v>
+        <v>-0.40731133875177905</v>
       </c>
       <c r="C11">
-        <v>-0.22438839914517422</v>
+        <v>-0.4071745650035884</v>
       </c>
       <c r="D11">
-        <v>-0.22187836038564804</v>
+        <v>-0.4058262356862659</v>
       </c>
       <c r="E11">
-        <v>-0.2190927564776628</v>
+        <v>-0.39403639292864007</v>
       </c>
       <c r="F11">
-        <v>-0.21673758865023932</v>
+        <v>-0.34508668718223595</v>
       </c>
       <c r="G11">
-        <v>-0.21598801485146354</v>
+        <v>-0.3078701380990663</v>
       </c>
       <c r="H11">
-        <v>-0.2154763359113215</v>
+        <v>-0.301286400798683</v>
       </c>
       <c r="I11">
-        <v>-0.21432273456676665</v>
+        <v>-0.3005700473106206</v>
       </c>
       <c r="J11">
-        <v>-0.21449638567449344</v>
+        <v>-0.3004948041178602</v>
       </c>
       <c r="K11">
-        <v>-0.16631137055738618</v>
+        <v>-0.300470683063968</v>
       </c>
       <c r="L11">
-        <v>-1.1112058157594629</v>
+        <v>-0.3004423632559745</v>
       </c>
       <c r="M11">
-        <v>0.02147298340736874</v>
+        <v>-0.3004247563206715</v>
       </c>
       <c r="N11">
-        <v>0.0006009557525944595</v>
+        <v>-0.3004043607211041</v>
       </c>
       <c r="O11">
-        <v>0.0003904646854949772</v>
+        <v>-0.30036055046821847</v>
       </c>
       <c r="P11">
-        <v>-0.0003825373315766373</v>
+        <v>-0.3002634053206913</v>
       </c>
       <c r="Q11">
-        <v>3.0800466942077957e-5</v>
+        <v>-0.30020549165535565</v>
       </c>
       <c r="R11">
         <v>-0.27806983285252107</v>
@@ -9449,55 +9449,55 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>-0.22480011430737928</v>
+        <v>-0.4071086138933305</v>
       </c>
       <c r="B12">
-        <v>-0.2192527891986289</v>
+        <v>-0.4070949342920836</v>
       </c>
       <c r="C12">
-        <v>-0.21413489800562902</v>
+        <v>-0.4069583349582784</v>
       </c>
       <c r="D12">
-        <v>-0.21154965113081084</v>
+        <v>-0.405611721606385</v>
       </c>
       <c r="E12">
-        <v>-0.20814624292383102</v>
+        <v>-0.3938366237318785</v>
       </c>
       <c r="F12">
-        <v>-0.2048187259358847</v>
+        <v>-0.34494385039998493</v>
       </c>
       <c r="G12">
-        <v>-0.20381421492347243</v>
+        <v>-0.30776864382388025</v>
       </c>
       <c r="H12">
-        <v>-0.20348034211689375</v>
+        <v>-0.3011923366795355</v>
       </c>
       <c r="I12">
-        <v>-0.20255355347926354</v>
+        <v>-0.3004767413982858</v>
       </c>
       <c r="J12">
-        <v>-0.20217100618861777</v>
+        <v>-0.3004014190050916</v>
       </c>
       <c r="K12">
-        <v>-0.17860863789956571</v>
+        <v>-0.30037511700993613</v>
       </c>
       <c r="L12">
-        <v>-0.34492913075362874</v>
+        <v>-0.3003421629567925</v>
       </c>
       <c r="M12">
-        <v>0.011192773163130817</v>
+        <v>-0.3003232720713132</v>
       </c>
       <c r="N12">
-        <v>0.0008069783396490531</v>
+        <v>-0.30030401509471266</v>
       </c>
       <c r="O12">
-        <v>-0.0001320970294686538</v>
+        <v>-0.30026294222168226</v>
       </c>
       <c r="P12">
-        <v>-2.062118026539272e-5</v>
+        <v>-0.3001481729614953</v>
       </c>
       <c r="Q12">
-        <v>-5.969487517176698e-5</v>
+        <v>-0.300030867657713</v>
       </c>
       <c r="R12">
         <v>-0.31740134081746257</v>
@@ -9505,55 +9505,55 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>-0.22029763362138338</v>
+        <v>-0.4070357979608448</v>
       </c>
       <c r="B13">
-        <v>-0.21620940618532503</v>
+        <v>-0.40702212458228043</v>
       </c>
       <c r="C13">
-        <v>-0.2118075250162758</v>
+        <v>-0.4068855873351404</v>
       </c>
       <c r="D13">
-        <v>-0.20939157684010776</v>
+        <v>-0.40553958468405993</v>
       </c>
       <c r="E13">
-        <v>-0.20600196772995952</v>
+        <v>-0.3937697195483373</v>
       </c>
       <c r="F13">
-        <v>-0.20242014490989402</v>
+        <v>-0.34489732611718754</v>
       </c>
       <c r="G13">
-        <v>-0.20134508337121393</v>
+        <v>-0.3077375951672155</v>
       </c>
       <c r="H13">
-        <v>-0.20102794911121535</v>
+        <v>-0.30116108849109813</v>
       </c>
       <c r="I13">
-        <v>-0.20064048631289208</v>
+        <v>-0.30044353904202903</v>
       </c>
       <c r="J13">
-        <v>-0.19926657746091953</v>
+        <v>-0.30036800734860575</v>
       </c>
       <c r="K13">
-        <v>-0.15171782384122534</v>
+        <v>-0.3003416402801399</v>
       </c>
       <c r="L13">
-        <v>0.9458970067735333</v>
+        <v>-0.30029688273525385</v>
       </c>
       <c r="M13">
-        <v>0.011067219095247358</v>
+        <v>-0.30026477559823456</v>
       </c>
       <c r="N13">
-        <v>0.0022128531148336563</v>
+        <v>-0.3002453345358581</v>
       </c>
       <c r="O13">
-        <v>-0.0009737619651857827</v>
+        <v>-0.3002094639474754</v>
       </c>
       <c r="P13">
-        <v>-0.0003969027304006162</v>
+        <v>-0.3001236917640735</v>
       </c>
       <c r="Q13">
-        <v>-2.911598799194792e-5</v>
+        <v>-0.3001780508148057</v>
       </c>
       <c r="R13">
         <v>6.845458407934997E-2</v>
@@ -9561,55 +9561,55 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>-0.21969793823040498</v>
+        <v>-0.40683111120200904</v>
       </c>
       <c r="B14">
-        <v>-0.21579807141487178</v>
+        <v>-0.406817455787471</v>
       </c>
       <c r="C14">
-        <v>-0.21149451588251733</v>
+        <v>-0.40668109785310935</v>
       </c>
       <c r="D14">
-        <v>-0.20910715410997185</v>
+        <v>-0.4053368601238406</v>
       </c>
       <c r="E14">
-        <v>-0.20572417006799298</v>
+        <v>-0.39358223353450733</v>
       </c>
       <c r="F14">
-        <v>-0.20210292640469144</v>
+        <v>-0.34477173555076723</v>
       </c>
       <c r="G14">
-        <v>-0.2010145279869421</v>
+        <v>-0.3076623338529535</v>
       </c>
       <c r="H14">
-        <v>-0.20069689366159324</v>
+        <v>-0.3010790269098398</v>
       </c>
       <c r="I14">
-        <v>-0.2003699696062881</v>
+        <v>-0.3003363360054528</v>
       </c>
       <c r="J14">
-        <v>-0.1965580841154341</v>
+        <v>-0.30025346378823753</v>
       </c>
       <c r="K14">
-        <v>-0.18968595305858302</v>
+        <v>-0.3002286747061785</v>
       </c>
       <c r="L14">
-        <v>-0.16219523442888614</v>
+        <v>-0.30018785276960014</v>
       </c>
       <c r="M14">
-        <v>0.014395661009577666</v>
+        <v>-0.3001259121350783</v>
       </c>
       <c r="N14">
-        <v>0.0009159980334645142</v>
+        <v>-0.3000860221747703</v>
       </c>
       <c r="O14">
-        <v>0.010214800012509205</v>
+        <v>-0.300050289356074</v>
       </c>
       <c r="P14">
-        <v>-7.542245563383098e-5</v>
+        <v>-0.30001106098850977</v>
       </c>
       <c r="Q14">
-        <v>4.702196447754383e-6</v>
+        <v>-0.2997562377761207</v>
       </c>
       <c r="R14">
         <v>-6.1996306797285974E-3</v>
@@ -9617,55 +9617,55 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>-0.21968368670544727</v>
+        <v>-0.40640770698401946</v>
       </c>
       <c r="B15">
-        <v>-0.21581840276992104</v>
+        <v>-0.4063940895963579</v>
       </c>
       <c r="C15">
-        <v>-0.21151890843681087</v>
+        <v>-0.40625811126713873</v>
       </c>
       <c r="D15">
-        <v>-0.2091224002049307</v>
+        <v>-0.4049176061109097</v>
       </c>
       <c r="E15">
-        <v>-0.20573208950704663</v>
+        <v>-0.3931948997946994</v>
       </c>
       <c r="F15">
-        <v>-0.2020257665227104</v>
+        <v>-0.3445067527518318</v>
       </c>
       <c r="G15">
-        <v>-0.200879864832501</v>
+        <v>-0.3074880216511626</v>
       </c>
       <c r="H15">
-        <v>-0.20068982306689467</v>
+        <v>-0.30088972267636505</v>
       </c>
       <c r="I15">
-        <v>-0.20026016875575817</v>
+        <v>-0.3000307152741891</v>
       </c>
       <c r="J15">
-        <v>-0.1976559769468113</v>
+        <v>-0.29987628405217237</v>
       </c>
       <c r="K15">
-        <v>-0.17483362853976286</v>
+        <v>-0.2998433670327073</v>
       </c>
       <c r="L15">
-        <v>-0.6634210084928048</v>
+        <v>-0.2998161253594982</v>
       </c>
       <c r="M15">
-        <v>-0.004730219327669843</v>
+        <v>-0.2997673104516183</v>
       </c>
       <c r="N15">
-        <v>0.004928770484506873</v>
+        <v>-0.299656851370404</v>
       </c>
       <c r="O15">
-        <v>-0.0007898075772681496</v>
+        <v>-0.29957589534547513</v>
       </c>
       <c r="P15">
-        <v>2.1030699504696585e-6</v>
+        <v>-0.2995090648988387</v>
       </c>
       <c r="Q15">
-        <v>-9.192780998154745e-5</v>
+        <v>-0.2991983732652208</v>
       </c>
       <c r="R15">
         <v>-1.737990913640421E-2</v>
@@ -9673,55 +9673,55 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>-0.2188766490636455</v>
+        <v>-0.40537647920992426</v>
       </c>
       <c r="B16">
-        <v>-0.21506934728434157</v>
+        <v>-0.40536296313902925</v>
       </c>
       <c r="C16">
-        <v>-0.21083502903144707</v>
+        <v>-0.40522799603017073</v>
       </c>
       <c r="D16">
-        <v>-0.2085015777131305</v>
+        <v>-0.4038974165327264</v>
       </c>
       <c r="E16">
-        <v>-0.20544015413989625</v>
+        <v>-0.3922581824154465</v>
       </c>
       <c r="F16">
-        <v>-0.2021238109977818</v>
+        <v>-0.34385646758148825</v>
       </c>
       <c r="G16">
-        <v>-0.20091654558142857</v>
+        <v>-0.3070000806001125</v>
       </c>
       <c r="H16">
-        <v>-0.20016361617961673</v>
+        <v>-0.30039307262973347</v>
       </c>
       <c r="I16">
-        <v>-0.20029092264776888</v>
+        <v>-0.2993209086115371</v>
       </c>
       <c r="J16">
-        <v>-0.19827684033461004</v>
+        <v>-0.2988978366328012</v>
       </c>
       <c r="K16">
-        <v>-0.17518931263992993</v>
+        <v>-0.2988068966927155</v>
       </c>
       <c r="L16">
-        <v>0.4142963230986893</v>
+        <v>-0.2987629235529487</v>
       </c>
       <c r="M16">
-        <v>-0.055159874152274434</v>
+        <v>-0.2986938666784596</v>
       </c>
       <c r="N16">
-        <v>0.0006585595052827359</v>
+        <v>-0.29856206037226585</v>
       </c>
       <c r="O16">
-        <v>0.0008472191869997167</v>
+        <v>-0.29833453272052013</v>
       </c>
       <c r="P16">
-        <v>-3.098766122542109e-5</v>
+        <v>-0.2981331856828442</v>
       </c>
       <c r="Q16">
-        <v>-5.480981622777259e-5</v>
+        <v>-0.2978064817876664</v>
       </c>
       <c r="R16">
         <v>1.8327483881446033E-2</v>
@@ -9729,55 +9729,55 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>-0.22320578154931203</v>
+        <v>-0.4023148136488313</v>
       </c>
       <c r="B17">
-        <v>-0.21935887754769182</v>
+        <v>-0.4023015549541866</v>
       </c>
       <c r="C17">
-        <v>-0.2139484918450143</v>
+        <v>-0.402169156097951</v>
       </c>
       <c r="D17">
-        <v>-0.21017797706136224</v>
+        <v>-0.40086375410221287</v>
       </c>
       <c r="E17">
-        <v>-0.20426874532483116</v>
+        <v>-0.3894337969535597</v>
       </c>
       <c r="F17">
-        <v>-0.19675592994830418</v>
+        <v>-0.3416910167949222</v>
       </c>
       <c r="G17">
-        <v>-0.19862062777101516</v>
+        <v>-0.3050924656503257</v>
       </c>
       <c r="H17">
-        <v>-0.19854967986989444</v>
+        <v>-0.2984147523678758</v>
       </c>
       <c r="I17">
-        <v>-0.19845073766147833</v>
+        <v>-0.29675531054519344</v>
       </c>
       <c r="J17">
-        <v>-0.19752223143117056</v>
+        <v>-0.2951299876131866</v>
       </c>
       <c r="K17">
-        <v>-0.16514152220695993</v>
+        <v>-0.2946687021250601</v>
       </c>
       <c r="L17">
-        <v>-0.3086344706453732</v>
+        <v>-0.29456991593406867</v>
       </c>
       <c r="M17">
-        <v>-0.032058499010032236</v>
+        <v>-0.29443375017889845</v>
       </c>
       <c r="N17">
-        <v>0.007473088276370928</v>
+        <v>-0.294099167541975</v>
       </c>
       <c r="O17">
-        <v>-0.0012668104376686103</v>
+        <v>-0.2937101943667102</v>
       </c>
       <c r="P17">
-        <v>-1.273457625564661e-5</v>
+        <v>-0.2932890441117361</v>
       </c>
       <c r="Q17">
-        <v>0.00014359368509353872</v>
+        <v>-0.2929304687384308</v>
       </c>
       <c r="R17">
         <v>0.17841471997455144</v>
@@ -9857,952 +9857,952 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="2">
-        <v>16</v>
+      <c r="A1">
+        <v>-65370.21668819267</v>
+      </c>
+      <c r="B1">
+        <v>-38725.27178823286</v>
+      </c>
+      <c r="C1">
+        <v>-9467.935504488438</v>
+      </c>
+      <c r="D1">
+        <v>-3306.8929010084585</v>
+      </c>
+      <c r="E1">
+        <v>-2460.2285504677616</v>
+      </c>
+      <c r="F1">
+        <v>-2289.0163133468136</v>
+      </c>
+      <c r="G1">
+        <v>-2266.215033174424</v>
+      </c>
+      <c r="H1">
+        <v>-2263.7173867638403</v>
+      </c>
+      <c r="I1">
+        <v>-2262.9894924377713</v>
+      </c>
+      <c r="J1">
+        <v>-2259.9163704391253</v>
+      </c>
+      <c r="K1">
+        <v>-2254.876839732207</v>
+      </c>
+      <c r="L1">
+        <v>-2253.434730604533</v>
+      </c>
+      <c r="M1">
+        <v>-2252.7336558921397</v>
+      </c>
+      <c r="N1">
+        <v>-2257.7464512855186</v>
+      </c>
+      <c r="O1">
+        <v>-2253.0624135817607</v>
+      </c>
+      <c r="P1">
+        <v>-1943.466485237438</v>
+      </c>
+      <c r="Q1">
+        <v>-4335.1053809612695</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" t="s" s="2">
-        <v>1</v>
+      <c r="A2">
+        <v>-19727.604955520306</v>
       </c>
       <c r="B2">
-        <v>-0.40181038137070868</v>
+        <v>-16218.87395387311</v>
       </c>
       <c r="C2">
-        <v>-0.3970541260148584</v>
+        <v>-5951.837716142354</v>
       </c>
       <c r="D2">
-        <v>-0.39256743916104414</v>
+        <v>-1031.6078394334477</v>
       </c>
       <c r="E2">
-        <v>-0.37808758050903496</v>
+        <v>-342.7146338743834</v>
       </c>
       <c r="F2">
-        <v>-0.35490398614164825</v>
+        <v>-254.15159959409118</v>
       </c>
       <c r="G2">
-        <v>-0.34036460370438532</v>
+        <v>-238.93523700019304</v>
       </c>
       <c r="H2">
-        <v>-0.32668345107739133</v>
+        <v>-237.0234175540563</v>
       </c>
       <c r="I2">
-        <v>-0.31136858683972801</v>
+        <v>-236.4866231096481</v>
       </c>
       <c r="J2">
-        <v>-0.29115731122069854</v>
+        <v>-234.16415775972817</v>
       </c>
       <c r="K2">
-        <v>-0.26189450023557115</v>
+        <v>-229.82881455829425</v>
       </c>
       <c r="L2">
-        <v>-0.22880699030561433</v>
+        <v>-228.3804324191386</v>
       </c>
       <c r="M2">
-        <v>-0.21645736413731384</v>
+        <v>-228.12558018602618</v>
       </c>
       <c r="N2">
-        <v>-0.21727857956756388</v>
+        <v>-228.0559340750564</v>
       </c>
       <c r="O2">
-        <v>-0.21238162146600795</v>
+        <v>-227.71653993543634</v>
       </c>
       <c r="P2">
-        <v>-6.5736328074872535E-2</v>
+        <v>-223.81429117699028</v>
       </c>
       <c r="Q2">
-        <v>-0.22664930275403183</v>
+        <v>-277.45633059056655</v>
       </c>
       <c r="R2">
         <v>-2.3378512348265143E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" t="s" s="2">
-        <v>2</v>
+      <c r="A3">
+        <v>-2532.7107650671223</v>
       </c>
       <c r="B3">
-        <v>-0.40213904396382327</v>
+        <v>-2464.034106682769</v>
       </c>
       <c r="C3">
-        <v>-0.3977888207164631</v>
+        <v>-1939.7774545204882</v>
       </c>
       <c r="D3">
-        <v>-0.39328157713369299</v>
+        <v>-634.5522297655053</v>
       </c>
       <c r="E3">
-        <v>-0.37887953616311959</v>
+        <v>-106.90584819067195</v>
       </c>
       <c r="F3">
-        <v>-0.35626330752357754</v>
+        <v>-37.53647785390883</v>
       </c>
       <c r="G3">
-        <v>-0.34210026331515148</v>
+        <v>-29.923065745643743</v>
       </c>
       <c r="H3">
-        <v>-0.32712271114166469</v>
+        <v>-29.073472047755363</v>
       </c>
       <c r="I3">
-        <v>-0.31014969352784183</v>
+        <v>-28.933364117809454</v>
       </c>
       <c r="J3">
-        <v>-0.28620774832194118</v>
+        <v>-28.483939030624096</v>
       </c>
       <c r="K3">
-        <v>-0.24931360362672161</v>
+        <v>-26.905197101669287</v>
       </c>
       <c r="L3">
-        <v>-0.21461140938034534</v>
+        <v>-25.860430548347665</v>
       </c>
       <c r="M3">
-        <v>-0.19785493977771382</v>
+        <v>-25.620742306793723</v>
       </c>
       <c r="N3">
-        <v>-0.19532211459596402</v>
+        <v>-25.49991775519894</v>
       </c>
       <c r="O3">
-        <v>-0.17802744888816641</v>
+        <v>-25.125711080004866</v>
       </c>
       <c r="P3">
-        <v>-8.9527435212616677E-2</v>
+        <v>-24.78889244432245</v>
       </c>
       <c r="Q3">
-        <v>-2.0497320464178272E-2</v>
+        <v>-25.042128289797457</v>
       </c>
       <c r="R3">
         <v>-6.3494936769828342E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" t="s" s="2">
-        <v>3</v>
+      <c r="A4">
+        <v>-261.45831954283824</v>
       </c>
       <c r="B4">
-        <v>-0.40203490841413236</v>
+        <v>-260.7079379028907</v>
       </c>
       <c r="C4">
-        <v>-0.39804977475114772</v>
+        <v>-253.43918060462897</v>
       </c>
       <c r="D4">
-        <v>-0.39392018244851712</v>
+        <v>-198.47546004009772</v>
       </c>
       <c r="E4">
-        <v>-0.37972571882160783</v>
+        <v>-65.55789188684754</v>
       </c>
       <c r="F4">
-        <v>-0.35795448132412166</v>
+        <v>-13.365142452675943</v>
       </c>
       <c r="G4">
-        <v>-0.34469573655857916</v>
+        <v>-6.584672342818032</v>
       </c>
       <c r="H4">
-        <v>-0.32889741434265257</v>
+        <v>-5.881471288322581</v>
       </c>
       <c r="I4">
-        <v>-0.30917986611172776</v>
+        <v>-5.809608700761765</v>
       </c>
       <c r="J4">
-        <v>-0.2792904822789809</v>
+        <v>-5.791172988027222</v>
       </c>
       <c r="K4">
-        <v>-0.22636002800686525</v>
+        <v>-5.706538206416423</v>
       </c>
       <c r="L4">
-        <v>-0.18898760207802737</v>
+        <v>-5.48548031235819</v>
       </c>
       <c r="M4">
-        <v>-0.15064914320329234</v>
+        <v>-5.335664185615418</v>
       </c>
       <c r="N4">
-        <v>-0.13641120310043908</v>
+        <v>-5.222361907164492</v>
       </c>
       <c r="O4">
-        <v>-0.14062294471284359</v>
+        <v>-4.860223517183024</v>
       </c>
       <c r="P4">
-        <v>-6.3221355479496463E-2</v>
+        <v>-4.495835984192192</v>
       </c>
       <c r="Q4">
-        <v>-4.9477163531729165E-2</v>
+        <v>-4.444216528270333</v>
       </c>
       <c r="R4">
         <v>4.7392857074153347E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" t="s" s="2">
-        <v>4</v>
+      <c r="A5">
+        <v>-26.941669189010945</v>
       </c>
       <c r="B5">
-        <v>-0.4016858975653641</v>
+        <v>-26.933617740054718</v>
       </c>
       <c r="C5">
-        <v>-0.39715759902577974</v>
+        <v>-26.853401967073125</v>
       </c>
       <c r="D5">
-        <v>-0.3934500154413017</v>
+        <v>-26.08003554691516</v>
       </c>
       <c r="E5">
-        <v>-0.38011791406493489</v>
+        <v>-20.438674900145468</v>
       </c>
       <c r="F5">
-        <v>-0.35880387270127073</v>
+        <v>-8.125888227047087</v>
       </c>
       <c r="G5">
-        <v>-0.34555831825787814</v>
+        <v>-3.7078897213936837</v>
       </c>
       <c r="H5">
-        <v>-0.3298132640864766</v>
+        <v>-3.1435042335772594</v>
       </c>
       <c r="I5">
-        <v>-0.3059803790295062</v>
+        <v>-3.085399966290484</v>
       </c>
       <c r="J5">
-        <v>-0.26515035282258942</v>
+        <v>-3.0794895482138136</v>
       </c>
       <c r="K5">
-        <v>-0.18145218098254756</v>
+        <v>-3.076925230597672</v>
       </c>
       <c r="L5">
-        <v>-0.15162503145502523</v>
+        <v>-3.060643286229768</v>
       </c>
       <c r="M5">
-        <v>-0.12118503234526147</v>
+        <v>-3.0206640842681587</v>
       </c>
       <c r="N5">
-        <v>-9.4329559914166722E-2</v>
+        <v>-2.9416463345097825</v>
       </c>
       <c r="O5">
-        <v>-8.5299533585045134E-2</v>
+        <v>-2.6455820630353744</v>
       </c>
       <c r="P5">
-        <v>-7.1448033461273083E-2</v>
+        <v>-2.3221064918485257</v>
       </c>
       <c r="Q5">
-        <v>-1.0728344308999275E-2</v>
+        <v>-2.251028795302971</v>
       </c>
       <c r="R5">
         <v>1.2619233689269099E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" t="s" s="2">
-        <v>5</v>
+      <c r="A6">
+        <v>-3.399699880451039</v>
       </c>
       <c r="B6">
-        <v>-0.40113976985615174</v>
+        <v>-3.399506723452075</v>
       </c>
       <c r="C6">
-        <v>-0.39517871866980164</v>
+        <v>-3.3975781382812213</v>
       </c>
       <c r="D6">
-        <v>-0.38724121526896854</v>
+        <v>-3.378585253399309</v>
       </c>
       <c r="E6">
-        <v>-0.38205053522868065</v>
+        <v>-3.2133634894454</v>
       </c>
       <c r="F6">
-        <v>-0.36384755725826262</v>
+        <v>-2.4847585058023083</v>
       </c>
       <c r="G6">
-        <v>-0.34690693941119499</v>
+        <v>-1.763544828099176</v>
       </c>
       <c r="H6">
-        <v>-0.33137805647921953</v>
+        <v>-1.608610417641716</v>
       </c>
       <c r="I6">
-        <v>-0.30091137694115144</v>
+        <v>-1.5912642018688425</v>
       </c>
       <c r="J6">
-        <v>-0.24090997529786895</v>
+        <v>-1.5896796548393837</v>
       </c>
       <c r="K6">
-        <v>-0.13154075198534007</v>
+        <v>-1.5901308218468424</v>
       </c>
       <c r="L6">
-        <v>-0.12054989916325384</v>
+        <v>-1.5896050973472502</v>
       </c>
       <c r="M6">
-        <v>-0.12069322152229781</v>
+        <v>-1.585295655252058</v>
       </c>
       <c r="N6">
-        <v>-9.447167138956962E-2</v>
+        <v>-1.5695321667300817</v>
       </c>
       <c r="O6">
-        <v>-8.3784041099648696E-2</v>
+        <v>-1.5017306235733494</v>
       </c>
       <c r="P6">
-        <v>-4.0399131030075731E-2</v>
+        <v>-1.412675984004535</v>
       </c>
       <c r="Q6">
-        <v>6.282593570512332E-2</v>
+        <v>-1.3900107691069556</v>
       </c>
       <c r="R6">
         <v>-3.9083894687328667E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" t="s" s="2">
-        <v>6</v>
+      <c r="A7">
+        <v>-0.9830311739894704</v>
       </c>
       <c r="B7">
-        <v>-0.40031594750651023</v>
+        <v>-0.9829670907120878</v>
       </c>
       <c r="C7">
-        <v>-0.39489116908209104</v>
+        <v>-0.9823274627862996</v>
       </c>
       <c r="D7">
-        <v>-0.385381250403245</v>
+        <v>-0.9760493575650102</v>
       </c>
       <c r="E7">
-        <v>-0.318888848479422</v>
+        <v>-0.923154402323518</v>
       </c>
       <c r="F7">
-        <v>-0.39498457709419443</v>
+        <v>-0.7318117903916125</v>
       </c>
       <c r="G7">
-        <v>-0.36716428639764426</v>
+        <v>-0.5967340786201374</v>
       </c>
       <c r="H7">
-        <v>-0.33036989274989603</v>
+        <v>-0.5711957425887182</v>
       </c>
       <c r="I7">
-        <v>-0.34100940175519834</v>
+        <v>-0.5683740276147419</v>
       </c>
       <c r="J7">
-        <v>-5.6098346527919944E-2</v>
+        <v>-0.5681190851243608</v>
       </c>
       <c r="K7">
-        <v>-0.13956278248382181</v>
+        <v>-0.5682088231474935</v>
       </c>
       <c r="L7">
-        <v>-0.1114134138669565</v>
+        <v>-0.56828256455946</v>
       </c>
       <c r="M7">
-        <v>-0.13098240144263446</v>
+        <v>-0.5681887684464613</v>
       </c>
       <c r="N7">
-        <v>-0.15021175137953263</v>
+        <v>-0.5671419764880617</v>
       </c>
       <c r="O7">
-        <v>-0.21986854139602144</v>
+        <v>-0.5656770453033253</v>
       </c>
       <c r="P7">
-        <v>-0.29393718453645595</v>
+        <v>-0.569882920102047</v>
       </c>
       <c r="Q7">
-        <v>1.1362479581979213E-2</v>
+        <v>-0.5717157494112923</v>
       </c>
       <c r="R7">
         <v>-1.5381517547818319E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" t="s" s="2">
-        <v>7</v>
+      <c r="A8">
+        <v>-0.5611976352114901</v>
       </c>
       <c r="B8">
-        <v>-0.39865594680539945</v>
+        <v>-0.5611692007789765</v>
       </c>
       <c r="C8">
-        <v>-0.39526309882722677</v>
+        <v>-0.5608853093179105</v>
       </c>
       <c r="D8">
-        <v>-0.41047887587395754</v>
+        <v>-0.5580909540748152</v>
       </c>
       <c r="E8">
-        <v>-0.26955306240199584</v>
+        <v>-0.5339793867495959</v>
       </c>
       <c r="F8">
-        <v>-0.10448658318386903</v>
+        <v>-0.43918681225640177</v>
       </c>
       <c r="G8">
-        <v>-0.16969891855426403</v>
+        <v>-0.37050332831489075</v>
       </c>
       <c r="H8">
-        <v>-6.6503814826736452E-2</v>
+        <v>-0.3583308730959545</v>
       </c>
       <c r="I8">
-        <v>2.42334066904813E-2</v>
+        <v>-0.3570069296243889</v>
       </c>
       <c r="J8">
-        <v>-0.1780113981264812</v>
+        <v>-0.3568603101251786</v>
       </c>
       <c r="K8">
-        <v>-0.13420555073597679</v>
+        <v>-0.35677493289840656</v>
       </c>
       <c r="L8">
-        <v>-7.133467381894977E-2</v>
+        <v>-0.3566596770754423</v>
       </c>
       <c r="M8">
-        <v>9.2692335560782748</v>
+        <v>-0.3565141375518011</v>
       </c>
       <c r="N8">
-        <v>0.68658825383531608</v>
+        <v>-0.35600963331013497</v>
       </c>
       <c r="O8">
-        <v>-2.2749389918644624E-2</v>
+        <v>-0.35454265356661235</v>
       </c>
       <c r="P8">
-        <v>-5.1173059822349522E-2</v>
+        <v>-0.35182977368796026</v>
       </c>
       <c r="Q8">
-        <v>-4.6065014066964047E-2</v>
+        <v>-0.3489647175721335</v>
       </c>
       <c r="R8">
         <v>-2.6154443235003894E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" t="s" s="2">
-        <v>8</v>
+      <c r="A9">
+        <v>-0.42786346205955916</v>
       </c>
       <c r="B9">
-        <v>-0.39500834548103214</v>
+        <v>-0.42784801353173885</v>
       </c>
       <c r="C9">
-        <v>-0.39197773791344698</v>
+        <v>-0.4276937493597984</v>
       </c>
       <c r="D9">
-        <v>-0.40620783671647265</v>
+        <v>-0.4261729032059956</v>
       </c>
       <c r="E9">
-        <v>-0.24425929422931819</v>
+        <v>-0.4128669384045025</v>
       </c>
       <c r="F9">
-        <v>-0.45981411270132039</v>
+        <v>-0.3574280540454726</v>
       </c>
       <c r="G9">
-        <v>-5.0279750546500139</v>
+        <v>-0.3148516955953959</v>
       </c>
       <c r="H9">
-        <v>-0.25543545886954383</v>
+        <v>-0.30724000981021216</v>
       </c>
       <c r="I9">
-        <v>-0.2585201953821949</v>
+        <v>-0.30640825398895694</v>
       </c>
       <c r="J9">
-        <v>-0.2355406901905252</v>
+        <v>-0.30630018089985406</v>
       </c>
       <c r="K9">
-        <v>-0.15466814517367497</v>
+        <v>-0.3061742451916905</v>
       </c>
       <c r="L9">
-        <v>-0.16390999344752985</v>
+        <v>-0.306023366446494</v>
       </c>
       <c r="M9">
-        <v>-2.4245915985454385E-2</v>
+        <v>-0.3059149348709702</v>
       </c>
       <c r="N9">
-        <v>-2.4042728113809503E-2</v>
+        <v>-0.3057051570642311</v>
       </c>
       <c r="O9">
-        <v>-4.6012094151938861E-2</v>
+        <v>-0.30509088186026223</v>
       </c>
       <c r="P9">
-        <v>-2.2091443757089007E-3</v>
+        <v>-0.3031514175031572</v>
       </c>
       <c r="Q9">
-        <v>-7.755073570648624E-2</v>
+        <v>-0.3004117320211372</v>
       </c>
       <c r="R9">
         <v>-0.11607135954945487</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" t="s" s="2">
-        <v>9</v>
+      <c r="A10">
+        <v>-0.40821288234065795</v>
       </c>
       <c r="B10">
-        <v>-0.3925321370719056</v>
+        <v>-0.40819907059808996</v>
       </c>
       <c r="C10">
-        <v>-0.39141161027023952</v>
+        <v>-0.4080611477415154</v>
       </c>
       <c r="D10">
-        <v>-0.40170555220674758</v>
+        <v>-0.4067011033626767</v>
       </c>
       <c r="E10">
-        <v>-0.27571792033923009</v>
+        <v>-0.3947788689275949</v>
       </c>
       <c r="F10">
-        <v>-0.35515438338488559</v>
+        <v>-0.34470575426091127</v>
       </c>
       <c r="G10">
-        <v>-0.32759843464732569</v>
+        <v>-0.30601757306509725</v>
       </c>
       <c r="H10">
-        <v>-1.2332473192861027</v>
+        <v>-0.2991124609089848</v>
       </c>
       <c r="I10">
-        <v>-0.228029532682062</v>
+        <v>-0.2983562860221173</v>
       </c>
       <c r="J10">
-        <v>-7.3921677618936338E-2</v>
+        <v>-0.2982503752803117</v>
       </c>
       <c r="K10">
-        <v>0.22223582296459699</v>
+        <v>-0.2981144780510487</v>
       </c>
       <c r="L10">
-        <v>-5.1270921825597615E-2</v>
+        <v>-0.2979559820520381</v>
       </c>
       <c r="M10">
-        <v>-0.19670861504931508</v>
+        <v>-0.29784955468338237</v>
       </c>
       <c r="N10">
-        <v>-1.65958404797109E-2</v>
+        <v>-0.2976505473298946</v>
       </c>
       <c r="O10">
-        <v>-4.6082398196355276E-2</v>
+        <v>-0.2970669911580088</v>
       </c>
       <c r="P10">
-        <v>6.3066866725667164E-3</v>
+        <v>-0.29533407180179944</v>
       </c>
       <c r="Q10">
-        <v>-1.3438853980773243E-2</v>
+        <v>-0.2926935455648223</v>
       </c>
       <c r="R10">
         <v>-1.0478508441940287E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" t="s" s="2">
-        <v>10</v>
+      <c r="A11">
+        <v>-0.4060993114931683</v>
       </c>
       <c r="B11">
-        <v>-0.38594832849838828</v>
+        <v>-0.40608566970771837</v>
       </c>
       <c r="C11">
-        <v>-0.39213590432899831</v>
+        <v>-0.4059494436906335</v>
       </c>
       <c r="D11">
-        <v>-0.40143910413320705</v>
+        <v>-0.4046060981314242</v>
       </c>
       <c r="E11">
-        <v>-0.31734434425756886</v>
+        <v>-0.392827680087891</v>
       </c>
       <c r="F11">
-        <v>-0.51392413154259964</v>
+        <v>-0.34331443379250814</v>
       </c>
       <c r="G11">
-        <v>-0.32157389871370601</v>
+        <v>-0.3050353163806747</v>
       </c>
       <c r="H11">
-        <v>-0.35941718571960812</v>
+        <v>-0.29820391440023136</v>
       </c>
       <c r="I11">
-        <v>-0.2630853702167843</v>
+        <v>-0.297455084125147</v>
       </c>
       <c r="J11">
-        <v>-0.1278974578191831</v>
+        <v>-0.2973432831019631</v>
       </c>
       <c r="K11">
-        <v>-1.2426667511209907E-2</v>
+        <v>-0.2971775245370093</v>
       </c>
       <c r="L11">
-        <v>9.7596481734253157E-2</v>
+        <v>-0.29700588755176877</v>
       </c>
       <c r="M11">
-        <v>-6.8877262039910209E-2</v>
+        <v>-0.29690311736523883</v>
       </c>
       <c r="N11">
-        <v>-0.17453045986391053</v>
+        <v>-0.2967106578574041</v>
       </c>
       <c r="O11">
-        <v>-1.4054158127741053E-2</v>
+        <v>-0.29610314430650164</v>
       </c>
       <c r="P11">
-        <v>0.19341428178572712</v>
+        <v>-0.294225835123442</v>
       </c>
       <c r="Q11">
-        <v>-1.4352395379691851E-2</v>
+        <v>-0.2916116152589764</v>
       </c>
       <c r="R11">
         <v>-6.5558477355498711E-3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" t="s" s="2">
-        <v>11</v>
+      <c r="A12">
+        <v>-0.40567335517555786</v>
       </c>
       <c r="B12">
-        <v>-0.38370915680375045</v>
+        <v>-0.4056597453617368</v>
       </c>
       <c r="C12">
-        <v>-0.39711411528143076</v>
+        <v>-0.4055238384714824</v>
       </c>
       <c r="D12">
-        <v>-0.40569010553447632</v>
+        <v>-0.404183623990806</v>
       </c>
       <c r="E12">
-        <v>-0.32857591683257237</v>
+        <v>-0.39243143177844714</v>
       </c>
       <c r="F12">
-        <v>0.77081872843523913</v>
+        <v>-0.34300548989801916</v>
       </c>
       <c r="G12">
-        <v>-0.32337837743343378</v>
+        <v>-0.3047624347683</v>
       </c>
       <c r="H12">
-        <v>-0.42850647693589039</v>
+        <v>-0.297891369814371</v>
       </c>
       <c r="I12">
-        <v>-0.36616669291951365</v>
+        <v>-0.2971109071303639</v>
       </c>
       <c r="J12">
-        <v>-0.17732119485750594</v>
+        <v>-0.29699611881029114</v>
       </c>
       <c r="K12">
-        <v>-2.7248958114746692E-2</v>
+        <v>-0.29680351600488764</v>
       </c>
       <c r="L12">
-        <v>-1.9069254084173805E-4</v>
+        <v>-0.29649185420090524</v>
       </c>
       <c r="M12">
-        <v>9.1896770659557023E-2</v>
+        <v>-0.2963426275491232</v>
       </c>
       <c r="N12">
-        <v>-7.4782684062918645E-2</v>
+        <v>-0.2961763835420028</v>
       </c>
       <c r="O12">
-        <v>-0.25609417039026006</v>
+        <v>-0.2955691369974853</v>
       </c>
       <c r="P12">
-        <v>0.12140541323637537</v>
+        <v>-0.293365620154775</v>
       </c>
       <c r="Q12">
-        <v>-0.16520176990838698</v>
+        <v>-0.29058316596470685</v>
       </c>
       <c r="R12">
         <v>0.1063597153617214</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" t="s" s="2">
-        <v>12</v>
+      <c r="A13">
+        <v>-0.40424472401995803</v>
       </c>
       <c r="B13">
-        <v>-0.29666533135707401</v>
+        <v>-0.40423121805548906</v>
       </c>
       <c r="C13">
-        <v>-0.31597809399445459</v>
+        <v>-0.40409634771348457</v>
       </c>
       <c r="D13">
-        <v>-0.31986444046045137</v>
+        <v>-0.40276631415908215</v>
       </c>
       <c r="E13">
-        <v>-0.27603118569479729</v>
+        <v>-0.39110027716591445</v>
       </c>
       <c r="F13">
-        <v>0.54940610756519437</v>
+        <v>-0.34198225986945074</v>
       </c>
       <c r="G13">
-        <v>-0.24973666572476985</v>
+        <v>-0.3039184631897081</v>
       </c>
       <c r="H13">
-        <v>-0.15970718837063616</v>
+        <v>-0.2968751304236772</v>
       </c>
       <c r="I13">
-        <v>0.20180201409154533</v>
+        <v>-0.29571799791227854</v>
       </c>
       <c r="J13">
-        <v>-0.18598487747107326</v>
+        <v>-0.29548952493905517</v>
       </c>
       <c r="K13">
-        <v>-8.4927483687935929E-2</v>
+        <v>-0.2953403405615374</v>
       </c>
       <c r="L13">
-        <v>-9.7120660438042954E-3</v>
+        <v>-0.29502060425964316</v>
       </c>
       <c r="M13">
-        <v>1.2862071754039957E-3</v>
+        <v>-0.29456490228616045</v>
       </c>
       <c r="N13">
-        <v>0.11334494177199557</v>
+        <v>-0.29431090043831026</v>
       </c>
       <c r="O13">
-        <v>-7.8345843954847991E-2</v>
+        <v>-0.29376705202758796</v>
       </c>
       <c r="P13">
-        <v>-3.0864353624366091E-2</v>
+        <v>-0.29160630954298283</v>
       </c>
       <c r="Q13">
-        <v>0.25941244439762884</v>
+        <v>-0.2889942719649557</v>
       </c>
       <c r="R13">
         <v>-0.73314302191093061</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" t="s" s="2">
-        <v>13</v>
+      <c r="A14">
+        <v>-0.4001307357429285</v>
       </c>
       <c r="B14">
-        <v>-0.17398724869915183</v>
+        <v>-0.4001174788322319</v>
       </c>
       <c r="C14">
-        <v>-0.14318165234509758</v>
+        <v>-0.399985093894153</v>
       </c>
       <c r="D14">
-        <v>-0.18969965261388338</v>
+        <v>-0.398679407406419</v>
       </c>
       <c r="E14">
-        <v>-0.1669404741127041</v>
+        <v>-0.3872142677930348</v>
       </c>
       <c r="F14">
-        <v>-0.35571178041268803</v>
+        <v>-0.3386959939928708</v>
       </c>
       <c r="G14">
-        <v>-0.19478452727297621</v>
+        <v>-0.30078091265481366</v>
       </c>
       <c r="H14">
-        <v>-0.12889661511471887</v>
+        <v>-0.2932916241223151</v>
       </c>
       <c r="I14">
-        <v>4.9223262107219848E-2</v>
+        <v>-0.2904512493057078</v>
       </c>
       <c r="J14">
-        <v>-0.18362903109719067</v>
+        <v>-0.28912713005781954</v>
       </c>
       <c r="K14">
-        <v>-5.9321930240483788E-2</v>
+        <v>-0.2887939289743139</v>
       </c>
       <c r="L14">
-        <v>-6.8110915574040226E-2</v>
+        <v>-0.28840687608910626</v>
       </c>
       <c r="M14">
-        <v>6.8705064841193865E-4</v>
+        <v>-0.2876336843897373</v>
       </c>
       <c r="N14">
-        <v>2.0085797026761783E-2</v>
+        <v>-0.286628636349318</v>
       </c>
       <c r="O14">
-        <v>1.0571332885886624</v>
+        <v>-0.28588575976708824</v>
       </c>
       <c r="P14">
-        <v>0.19319109224632697</v>
+        <v>-0.283887989913853</v>
       </c>
       <c r="Q14">
-        <v>-1.4012539655683866E-2</v>
+        <v>-0.2816812060190764</v>
       </c>
       <c r="R14">
         <v>-3.4047992605492586E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" t="s" s="2">
-        <v>14</v>
+      <c r="A15">
+        <v>-0.385986337390201</v>
       </c>
       <c r="B15">
-        <v>-1.1589743563571541E-2</v>
+        <v>-0.38597403600091496</v>
       </c>
       <c r="C15">
-        <v>-1.6456033148809286E-2</v>
+        <v>-0.3858511890043282</v>
       </c>
       <c r="D15">
-        <v>-0.20422115462042581</v>
+        <v>-0.3846391821283371</v>
       </c>
       <c r="E15">
-        <v>3.8871136845529661E-2</v>
+        <v>-0.37396592082630437</v>
       </c>
       <c r="F15">
-        <v>-5.2785404894065226E-2</v>
+        <v>-0.32815810130565115</v>
       </c>
       <c r="G15">
-        <v>-0.13702044452833761</v>
+        <v>-0.2913807790830512</v>
       </c>
       <c r="H15">
-        <v>0.5618304001939417</v>
+        <v>-0.283049112570271</v>
       </c>
       <c r="I15">
-        <v>-4.983693309350402E-3</v>
+        <v>-0.2742629096843501</v>
       </c>
       <c r="J15">
-        <v>-2.4838675146767766E-2</v>
+        <v>-0.26362573958279967</v>
       </c>
       <c r="K15">
-        <v>-7.7307071061717539E-2</v>
+        <v>-0.26091293017805267</v>
       </c>
       <c r="L15">
-        <v>-3.7025797333090964E-2</v>
+        <v>-0.25985184925395377</v>
       </c>
       <c r="M15">
-        <v>-4.2845141043986693E-2</v>
+        <v>-0.2579966697448969</v>
       </c>
       <c r="N15">
-        <v>0.12230960331219831</v>
+        <v>-0.2557634647250162</v>
       </c>
       <c r="O15">
-        <v>0.28645937364272611</v>
+        <v>-0.2536529146204706</v>
       </c>
       <c r="P15">
-        <v>-0.61939973272249138</v>
+        <v>-0.2510137337613649</v>
       </c>
       <c r="Q15">
-        <v>-0.17867046472542536</v>
+        <v>-0.2493538297743099</v>
       </c>
       <c r="R15">
         <v>2.0447146717241658E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" t="s" s="2">
-        <v>15</v>
+      <c r="A16">
+        <v>-0.3350277219910903</v>
       </c>
       <c r="B16">
-        <v>-3.445632343388224E-2</v>
+        <v>-0.3350190873691787</v>
       </c>
       <c r="C16">
-        <v>-2.1033512909241815E-2</v>
+        <v>-0.33493285105216336</v>
       </c>
       <c r="D16">
-        <v>-3.6385966388272149E-2</v>
+        <v>-0.3340813889246995</v>
       </c>
       <c r="E16">
-        <v>-0.1847868472930107</v>
+        <v>-0.3265313622295701</v>
       </c>
       <c r="F16">
-        <v>-3.5801381230910881E-2</v>
+        <v>-0.2930259888744334</v>
       </c>
       <c r="G16">
-        <v>-6.6160161309250107E-2</v>
+        <v>-0.26474372937274343</v>
       </c>
       <c r="H16">
-        <v>1.181727860604885E-2</v>
+        <v>-0.2584246562016059</v>
       </c>
       <c r="I16">
-        <v>-2.017078097764282E-2</v>
+        <v>-0.25110651235106707</v>
       </c>
       <c r="J16">
-        <v>8.30580963423279E-2</v>
+        <v>-0.23203547606109487</v>
       </c>
       <c r="K16">
-        <v>-1.6031557115261465E-2</v>
+        <v>-0.22297465176818593</v>
       </c>
       <c r="L16">
-        <v>-3.8173011504271837E-3</v>
+        <v>-0.22105541935762324</v>
       </c>
       <c r="M16">
-        <v>-2.8261614059785049E-2</v>
+        <v>-0.2186194038446791</v>
       </c>
       <c r="N16">
-        <v>-7.1957544326950573E-3</v>
+        <v>-0.21514375864212337</v>
       </c>
       <c r="O16">
-        <v>-1.5083136774204791E-2</v>
+        <v>-0.2129701665153568</v>
       </c>
       <c r="P16">
-        <v>-1.2784618510712959E-2</v>
+        <v>-0.20964509311010923</v>
       </c>
       <c r="Q16">
-        <v>-0.12708086683219505</v>
+        <v>-0.20728047868218472</v>
       </c>
       <c r="R16">
         <v>1.9510811817114698E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" t="s" s="2">
-        <v>16</v>
+      <c r="A17">
+        <v>-0.2809247674979012</v>
       </c>
       <c r="B17">
-        <v>-6.5676813264524084E-2</v>
+        <v>-0.2809191793978937</v>
       </c>
       <c r="C17">
-        <v>0.11447760475417204</v>
+        <v>-0.2808633633205877</v>
       </c>
       <c r="D17">
-        <v>-0.97699999370686053</v>
+        <v>-0.28031186172513345</v>
       </c>
       <c r="E17">
-        <v>0.4905989761874443</v>
+        <v>-0.27538963241864045</v>
       </c>
       <c r="F17">
-        <v>0.30011516895216256</v>
+        <v>-0.2528196481031815</v>
       </c>
       <c r="G17">
-        <v>2.8803401477806058E-2</v>
+        <v>-0.23279304070983778</v>
       </c>
       <c r="H17">
-        <v>-6.7161543898447806E-2</v>
+        <v>-0.22860036332436973</v>
       </c>
       <c r="I17">
-        <v>-5.4623355399129166E-2</v>
+        <v>-0.2258385759188173</v>
       </c>
       <c r="J17">
-        <v>-2.8610622652532523E-2</v>
+        <v>-0.21386085585389852</v>
       </c>
       <c r="K17">
-        <v>-0.36601506952363144</v>
+        <v>-0.2012858790791072</v>
       </c>
       <c r="L17">
-        <v>-0.13000800038029464</v>
+        <v>-0.1981243442364646</v>
       </c>
       <c r="M17">
-        <v>0.25276354702666981</v>
+        <v>-0.19590838680276934</v>
       </c>
       <c r="N17">
-        <v>2.4027091060848198E-2</v>
+        <v>-0.19255054353176004</v>
       </c>
       <c r="O17">
-        <v>6.8227127357682563E-2</v>
+        <v>-0.19035718237493607</v>
       </c>
       <c r="P17">
-        <v>8.7777839975106256E-2</v>
+        <v>-0.18812862161240732</v>
       </c>
       <c r="Q17">
-        <v>9.194979197887132E-2</v>
+        <v>-0.18608119303122284</v>
       </c>
       <c r="R17">
         <v>2.4711393072112776E-2</v>
@@ -10885,952 +10885,952 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="2">
-        <v>16</v>
+      <c r="A1">
+        <v>-150986.11304100632</v>
+      </c>
+      <c r="B1">
+        <v>-57956.47948743527</v>
+      </c>
+      <c r="C1">
+        <v>-10247.06113516517</v>
+      </c>
+      <c r="D1">
+        <v>-3390.0405404634935</v>
+      </c>
+      <c r="E1">
+        <v>-2470.8215800998596</v>
+      </c>
+      <c r="F1">
+        <v>-2289.710588917885</v>
+      </c>
+      <c r="G1">
+        <v>-2266.6061656333936</v>
+      </c>
+      <c r="H1">
+        <v>-2264.136178239308</v>
+      </c>
+      <c r="I1">
+        <v>-2263.7109229895855</v>
+      </c>
+      <c r="J1">
+        <v>-2262.2728198936784</v>
+      </c>
+      <c r="K1">
+        <v>-2257.2537296755995</v>
+      </c>
+      <c r="L1">
+        <v>-2254.3640564656216</v>
+      </c>
+      <c r="M1">
+        <v>-2254.4220094405096</v>
+      </c>
+      <c r="N1">
+        <v>-2270.800230757921</v>
+      </c>
+      <c r="O1">
+        <v>-2400.946903810806</v>
+      </c>
+      <c r="P1">
+        <v>-5198.293533061194</v>
+      </c>
+      <c r="Q1">
+        <v>-352.32208718819675</v>
       </c>
       <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" t="s" s="2">
-        <v>1</v>
+      <c r="A2">
+        <v>-24350.40546018132</v>
       </c>
       <c r="B2">
-        <v>-0.40710337874411873</v>
+        <v>-19216.177122303903</v>
       </c>
       <c r="C2">
-        <v>-0.40311547469966952</v>
+        <v>-6310.210951583358</v>
       </c>
       <c r="D2">
-        <v>-0.40269783782816854</v>
+        <v>-1041.6238571267959</v>
       </c>
       <c r="E2">
-        <v>-0.40261943895491231</v>
+        <v>-343.84742271378116</v>
       </c>
       <c r="F2">
-        <v>-0.40244913941546351</v>
+        <v>-254.50105904555951</v>
       </c>
       <c r="G2">
-        <v>-0.40188711973690544</v>
+        <v>-239.2254532526652</v>
       </c>
       <c r="H2">
-        <v>-0.39942861509836464</v>
+        <v>-237.34484045041071</v>
       </c>
       <c r="I2">
-        <v>-0.39096653293910111</v>
+        <v>-237.02756660693493</v>
       </c>
       <c r="J2">
-        <v>-0.38093796607187713</v>
+        <v>-235.98764976087236</v>
       </c>
       <c r="K2">
-        <v>-0.36687121714127169</v>
+        <v>-231.97338118774348</v>
       </c>
       <c r="L2">
-        <v>-0.34981458325919423</v>
+        <v>-229.0450272169007</v>
       </c>
       <c r="M2">
-        <v>-0.34012422413788496</v>
+        <v>-228.4027282937934</v>
       </c>
       <c r="N2">
-        <v>-0.33431757956933339</v>
+        <v>-228.30864223710748</v>
       </c>
       <c r="O2">
-        <v>-0.32884496085648213</v>
+        <v>-228.78552009305545</v>
       </c>
       <c r="P2">
-        <v>-0.91883466510489764</v>
+        <v>-242.84529742667945</v>
       </c>
       <c r="Q2">
-        <v>-2.6396155716414241E-2</v>
+        <v>-124.03448146474476</v>
       </c>
       <c r="R2">
         <v>-4.84696634070306E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" t="s" s="2">
-        <v>2</v>
+      <c r="A3">
+        <v>-2596.488672407391</v>
       </c>
       <c r="B3">
-        <v>-0.40708225591508201</v>
+        <v>-2524.3550902819657</v>
       </c>
       <c r="C3">
-        <v>-0.40309925315740963</v>
+        <v>-1976.9471598890045</v>
       </c>
       <c r="D3">
-        <v>-0.40267673588507524</v>
+        <v>-638.5006590058643</v>
       </c>
       <c r="E3">
-        <v>-0.40259074219734325</v>
+        <v>-107.09903838156639</v>
       </c>
       <c r="F3">
-        <v>-0.40241746399668898</v>
+        <v>-37.645417115848474</v>
       </c>
       <c r="G3">
-        <v>-0.40184986364662856</v>
+        <v>-30.041397923797632</v>
       </c>
       <c r="H3">
-        <v>-0.39937257944896826</v>
+        <v>-29.20130496215935</v>
       </c>
       <c r="I3">
-        <v>-0.3909522030576672</v>
+        <v>-29.096963503608947</v>
       </c>
       <c r="J3">
-        <v>-0.38074929514058681</v>
+        <v>-28.923464466724017</v>
       </c>
       <c r="K3">
-        <v>-0.36648239294672746</v>
+        <v>-27.92725629159253</v>
       </c>
       <c r="L3">
-        <v>-0.34911532086505476</v>
+        <v>-26.419347352172817</v>
       </c>
       <c r="M3">
-        <v>-0.33848499835206697</v>
+        <v>-25.880779330033207</v>
       </c>
       <c r="N3">
-        <v>-0.33261630420153299</v>
+        <v>-25.764777170402077</v>
       </c>
       <c r="O3">
-        <v>-0.32978031362539645</v>
+        <v>-25.693070191130644</v>
       </c>
       <c r="P3">
-        <v>2.9633300906585855</v>
+        <v>-25.628589757267846</v>
       </c>
       <c r="Q3">
-        <v>-0.11159113350233507</v>
+        <v>-23.75342159520764</v>
       </c>
       <c r="R3">
         <v>-0.23019149446155271</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" t="s" s="2">
-        <v>3</v>
+      <c r="A4">
+        <v>-262.098758932023</v>
       </c>
       <c r="B4">
-        <v>-0.40708762675274418</v>
+        <v>-261.34470283797367</v>
       </c>
       <c r="C4">
-        <v>-0.40315431275504521</v>
+        <v>-254.04097069396428</v>
       </c>
       <c r="D4">
-        <v>-0.40275430399035012</v>
+        <v>-198.84981674845977</v>
       </c>
       <c r="E4">
-        <v>-0.40267104011842098</v>
+        <v>-65.65198302187294</v>
       </c>
       <c r="F4">
-        <v>-0.4024900286906285</v>
+        <v>-13.453279945142533</v>
       </c>
       <c r="G4">
-        <v>-0.40190724781824383</v>
+        <v>-6.678492824853112</v>
       </c>
       <c r="H4">
-        <v>-0.39940360239477918</v>
+        <v>-5.977025468393086</v>
       </c>
       <c r="I4">
-        <v>-0.39099514357822585</v>
+        <v>-5.906166984324882</v>
       </c>
       <c r="J4">
-        <v>-0.38029966085651984</v>
+        <v>-5.895284442589849</v>
       </c>
       <c r="K4">
-        <v>-0.36391630975382872</v>
+        <v>-5.861747528835745</v>
       </c>
       <c r="L4">
-        <v>-0.34401969925375669</v>
+        <v>-5.719091515131365</v>
       </c>
       <c r="M4">
-        <v>-0.33099353129168141</v>
+        <v>-5.541486810542989</v>
       </c>
       <c r="N4">
-        <v>-0.32040552886020124</v>
+        <v>-5.467808451012098</v>
       </c>
       <c r="O4">
-        <v>-0.30582109692531734</v>
+        <v>-5.394830656517542</v>
       </c>
       <c r="P4">
-        <v>222.36229364488599</v>
+        <v>-5.1598719374725235</v>
       </c>
       <c r="Q4">
-        <v>-1.1036912059645088</v>
+        <v>-4.727230311381765</v>
       </c>
       <c r="R4">
         <v>0.30927562014505655</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" t="s" s="2">
-        <v>4</v>
+      <c r="A5">
+        <v>-26.948564186872925</v>
       </c>
       <c r="B5">
-        <v>-0.40694856262368284</v>
+        <v>-26.940509191771685</v>
       </c>
       <c r="C5">
-        <v>-0.40310271413997428</v>
+        <v>-26.86025919825308</v>
       </c>
       <c r="D5">
-        <v>-0.40281889461157666</v>
+        <v>-26.08665688033877</v>
       </c>
       <c r="E5">
-        <v>-0.40279473771651281</v>
+        <v>-20.448695891720295</v>
       </c>
       <c r="F5">
-        <v>-0.40265107310648401</v>
+        <v>-8.174069124049545</v>
       </c>
       <c r="G5">
-        <v>-0.40211130335294498</v>
+        <v>-3.781389170944655</v>
       </c>
       <c r="H5">
-        <v>-0.39960963313647918</v>
+        <v>-3.2214044296912454</v>
       </c>
       <c r="I5">
-        <v>-0.39123740347837005</v>
+        <v>-3.1637886323662143</v>
       </c>
       <c r="J5">
-        <v>-0.38040334071326476</v>
+        <v>-3.1579826570323397</v>
       </c>
       <c r="K5">
-        <v>-0.3578090261677852</v>
+        <v>-3.156777781802666</v>
       </c>
       <c r="L5">
-        <v>-0.31850289052727393</v>
+        <v>-3.1506168830449983</v>
       </c>
       <c r="M5">
-        <v>-0.30644181478796767</v>
+        <v>-3.132413868476556</v>
       </c>
       <c r="N5">
-        <v>-0.27732605049089443</v>
+        <v>-3.114168099782165</v>
       </c>
       <c r="O5">
-        <v>-0.23230842707620228</v>
+        <v>-3.0741701401822787</v>
       </c>
       <c r="P5">
-        <v>-0.42180881984479784</v>
+        <v>-2.8934022708565483</v>
       </c>
       <c r="Q5">
-        <v>0.30954702854627092</v>
+        <v>-2.5894974972983653</v>
       </c>
       <c r="R5">
         <v>-0.91655225933341855</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" t="s" s="2">
-        <v>5</v>
+      <c r="A6">
+        <v>-3.401883593633876</v>
       </c>
       <c r="B6">
-        <v>-0.40657645919269636</v>
+        <v>-3.401690074030424</v>
       </c>
       <c r="C6">
-        <v>-0.40269441463561062</v>
+        <v>-3.399757908414662</v>
       </c>
       <c r="D6">
-        <v>-0.40248693331704471</v>
+        <v>-3.3807336170601796</v>
       </c>
       <c r="E6">
-        <v>-0.40263672056341171</v>
+        <v>-3.2155179043262185</v>
       </c>
       <c r="F6">
-        <v>-0.40258571727778919</v>
+        <v>-2.4919173030376602</v>
       </c>
       <c r="G6">
-        <v>-0.40214315954823227</v>
+        <v>-1.7837876131475214</v>
       </c>
       <c r="H6">
-        <v>-0.39979782032779365</v>
+        <v>-1.6330122922699328</v>
       </c>
       <c r="I6">
-        <v>-0.39162808856878745</v>
+        <v>-1.616146832556078</v>
       </c>
       <c r="J6">
-        <v>-0.38105830489120252</v>
+        <v>-1.6144950372139613</v>
       </c>
       <c r="K6">
-        <v>-0.35333421459281084</v>
+        <v>-1.6145802741082018</v>
       </c>
       <c r="L6">
-        <v>-6.3119064028864483E-2</v>
+        <v>-1.6145780778273786</v>
       </c>
       <c r="M6">
-        <v>-0.19678589099304747</v>
+        <v>-1.613546356528066</v>
       </c>
       <c r="N6">
-        <v>-0.21316388548011742</v>
+        <v>-1.611878836419151</v>
       </c>
       <c r="O6">
-        <v>-0.13773170907200347</v>
+        <v>-1.6051434237197786</v>
       </c>
       <c r="P6">
-        <v>-4.4417799830189474E-2</v>
+        <v>-1.5655387726326662</v>
       </c>
       <c r="Q6">
-        <v>-0.12259051736274512</v>
+        <v>-1.4948254841737585</v>
       </c>
       <c r="R6">
         <v>-0.11550952052198792</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" t="s" s="2">
-        <v>6</v>
+      <c r="A7">
+        <v>-0.9848453982250328</v>
       </c>
       <c r="B7">
-        <v>-0.40654640233617689</v>
+        <v>-0.9847811245671695</v>
       </c>
       <c r="C7">
-        <v>-0.40261570278936226</v>
+        <v>-0.9841396136730477</v>
       </c>
       <c r="D7">
-        <v>-0.40239076124224793</v>
+        <v>-0.9778446689793836</v>
       </c>
       <c r="E7">
-        <v>-0.40256799878632316</v>
+        <v>-0.924924477829102</v>
       </c>
       <c r="F7">
-        <v>-0.40251912414830965</v>
+        <v>-0.7350959384800477</v>
       </c>
       <c r="G7">
-        <v>-0.40197943201090902</v>
+        <v>-0.6025036094071239</v>
       </c>
       <c r="H7">
-        <v>-0.39957536569914986</v>
+        <v>-0.5776071432216744</v>
       </c>
       <c r="I7">
-        <v>-0.39129803809190028</v>
+        <v>-0.5748553834228879</v>
       </c>
       <c r="J7">
-        <v>-0.38058683162223922</v>
+        <v>-0.5745883406807349</v>
       </c>
       <c r="K7">
-        <v>-0.35425724154283789</v>
+        <v>-0.5746162743606038</v>
       </c>
       <c r="L7">
-        <v>-1.9924236709102794</v>
+        <v>-0.5746812740510009</v>
       </c>
       <c r="M7">
-        <v>-1.3181304424767371</v>
+        <v>-0.5747232675255797</v>
       </c>
       <c r="N7">
-        <v>0.16010874498582164</v>
+        <v>-0.5747045742407169</v>
       </c>
       <c r="O7">
-        <v>-0.11658098547982733</v>
+        <v>-0.5743232893252259</v>
       </c>
       <c r="P7">
-        <v>-2.5776766161349252</v>
+        <v>-0.5728846786800676</v>
       </c>
       <c r="Q7">
-        <v>-3.8641892594568329E-2</v>
+        <v>-0.572778584084595</v>
       </c>
       <c r="R7">
         <v>0.21734430893530454</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" t="s" s="2">
-        <v>7</v>
+      <c r="A8">
+        <v>-0.5622942756988765</v>
       </c>
       <c r="B8">
-        <v>-0.40384188837213025</v>
+        <v>-0.5622657822070243</v>
       </c>
       <c r="C8">
-        <v>-0.39994780006465874</v>
+        <v>-0.5619813086139172</v>
       </c>
       <c r="D8">
-        <v>-0.40111145192848568</v>
+        <v>-0.5591819592086157</v>
       </c>
       <c r="E8">
-        <v>-0.42371748668560094</v>
+        <v>-0.5350823476086908</v>
       </c>
       <c r="F8">
-        <v>-0.4107198519537209</v>
+        <v>-0.4412484583452433</v>
       </c>
       <c r="G8">
-        <v>-0.40779754907974625</v>
+        <v>-0.3740788978782399</v>
       </c>
       <c r="H8">
-        <v>-0.40044006943561972</v>
+        <v>-0.36223749887011514</v>
       </c>
       <c r="I8">
-        <v>-0.38906045782621734</v>
+        <v>-0.36095053684486045</v>
       </c>
       <c r="J8">
-        <v>-0.37759671542945489</v>
+        <v>-0.3608189019172613</v>
       </c>
       <c r="K8">
-        <v>-0.3489899938620184</v>
+        <v>-0.36079406524919855</v>
       </c>
       <c r="L8">
-        <v>-1.3826744950048577</v>
+        <v>-0.360770946748309</v>
       </c>
       <c r="M8">
-        <v>-0.38762704749107724</v>
+        <v>-0.36074843007877505</v>
       </c>
       <c r="N8">
-        <v>-0.49170754533031019</v>
+        <v>-0.36069284926285455</v>
       </c>
       <c r="O8">
-        <v>-6.1885777862076378E-2</v>
+        <v>-0.36049543292763614</v>
       </c>
       <c r="P8">
-        <v>1.6822277247575582E-2</v>
+        <v>-0.3600300425826513</v>
       </c>
       <c r="Q8">
-        <v>-0.30272320238267825</v>
+        <v>-0.3593326533636398</v>
       </c>
       <c r="R8">
         <v>-0.18321385356538764</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" t="s" s="2">
-        <v>8</v>
+      <c r="A9">
+        <v>-0.42883731052194335</v>
       </c>
       <c r="B9">
-        <v>-0.39855759249008793</v>
+        <v>-0.4288218208594124</v>
       </c>
       <c r="C9">
-        <v>-0.39227559423112668</v>
+        <v>-0.4286671500908177</v>
       </c>
       <c r="D9">
-        <v>-0.36839228293285903</v>
+        <v>-0.42714269856990694</v>
       </c>
       <c r="E9">
-        <v>-0.41234269377837862</v>
+        <v>-0.4138362249526535</v>
       </c>
       <c r="F9">
-        <v>-0.39304433803843331</v>
+        <v>-0.35897396815548566</v>
       </c>
       <c r="G9">
-        <v>-0.45684558889576882</v>
+        <v>-0.3174267235838824</v>
       </c>
       <c r="H9">
-        <v>-0.53471554156873669</v>
+        <v>-0.3100497531217947</v>
       </c>
       <c r="I9">
-        <v>-0.41874906530454548</v>
+        <v>-0.3092466341553433</v>
       </c>
       <c r="J9">
-        <v>-0.37849422398163274</v>
+        <v>-0.30916050828178065</v>
       </c>
       <c r="K9">
-        <v>-0.34846737010340612</v>
+        <v>-0.3091236301097006</v>
       </c>
       <c r="L9">
-        <v>-0.23354699255396946</v>
+        <v>-0.30908063132400426</v>
       </c>
       <c r="M9">
-        <v>-0.19707720745688165</v>
+        <v>-0.30905370527885834</v>
       </c>
       <c r="N9">
-        <v>-0.22841311080513077</v>
+        <v>-0.30901236624842265</v>
       </c>
       <c r="O9">
-        <v>-0.54590413157814122</v>
+        <v>-0.30892697153619963</v>
       </c>
       <c r="P9">
-        <v>-0.15317560851071435</v>
+        <v>-0.30875455960000964</v>
       </c>
       <c r="Q9">
-        <v>-0.1128630891479073</v>
+        <v>-0.3080233794648849</v>
       </c>
       <c r="R9">
         <v>0.20559710343032114</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" t="s" s="2">
-        <v>9</v>
+      <c r="A10">
+        <v>-0.40922200718107227</v>
       </c>
       <c r="B10">
-        <v>-0.38348158933900656</v>
+        <v>-0.4092081535440204</v>
       </c>
       <c r="C10">
-        <v>-0.3384052824614952</v>
+        <v>-0.409069816070649</v>
       </c>
       <c r="D10">
-        <v>-0.47809260305029166</v>
+        <v>-0.4077060436465257</v>
       </c>
       <c r="E10">
-        <v>-0.42032689889845354</v>
+        <v>-0.3957789859053855</v>
       </c>
       <c r="F10">
-        <v>-0.42402339457208876</v>
+        <v>-0.3462133014407836</v>
       </c>
       <c r="G10">
-        <v>-0.39878126216586407</v>
+        <v>-0.3084565270858008</v>
       </c>
       <c r="H10">
-        <v>-0.42184332586062195</v>
+        <v>-0.3017655485301947</v>
       </c>
       <c r="I10">
-        <v>-0.57840063304896738</v>
+        <v>-0.3010368678964566</v>
       </c>
       <c r="J10">
-        <v>-0.52481018186886164</v>
+        <v>-0.3009574303445486</v>
       </c>
       <c r="K10">
-        <v>-0.35507102398236889</v>
+        <v>-0.3009179436475344</v>
       </c>
       <c r="L10">
-        <v>-0.2186878132513026</v>
+        <v>-0.30087068728324745</v>
       </c>
       <c r="M10">
-        <v>-0.13335316217896243</v>
+        <v>-0.3008420289221075</v>
       </c>
       <c r="N10">
-        <v>-0.14347896252512404</v>
+        <v>-0.3008013647372048</v>
       </c>
       <c r="O10">
-        <v>-0.2386274109991447</v>
+        <v>-0.3007177649524124</v>
       </c>
       <c r="P10">
-        <v>-0.155864049327119</v>
+        <v>-0.30051512819606</v>
       </c>
       <c r="Q10">
-        <v>0.60207598651815608</v>
+        <v>-0.29992518389937334</v>
       </c>
       <c r="R10">
         <v>6.3020245915474268E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" t="s" s="2">
-        <v>10</v>
+      <c r="A11">
+        <v>-0.407135250535233</v>
       </c>
       <c r="B11">
-        <v>-0.42854048967251029</v>
+        <v>-0.4071215655146141</v>
       </c>
       <c r="C11">
-        <v>-0.41742811340266989</v>
+        <v>-0.40698491136274184</v>
       </c>
       <c r="D11">
-        <v>-0.41958984065783417</v>
+        <v>-0.4056377025864329</v>
       </c>
       <c r="E11">
-        <v>-0.42128744521112477</v>
+        <v>-0.3938531449893787</v>
       </c>
       <c r="F11">
-        <v>-0.45670948163440622</v>
+        <v>-0.34484028177414455</v>
       </c>
       <c r="G11">
-        <v>-0.37891090386696025</v>
+        <v>-0.3074862420296676</v>
       </c>
       <c r="H11">
-        <v>-0.38838279822624006</v>
+        <v>-0.3008688936274836</v>
       </c>
       <c r="I11">
-        <v>-0.39228087237239728</v>
+        <v>-0.3001481528283811</v>
       </c>
       <c r="J11">
-        <v>-1.1765692524151126</v>
+        <v>-0.3000685741024953</v>
       </c>
       <c r="K11">
-        <v>-0.51000961963307556</v>
+        <v>-0.30002681994015545</v>
       </c>
       <c r="L11">
-        <v>-0.28222601736992314</v>
+        <v>-0.2999780023919635</v>
       </c>
       <c r="M11">
-        <v>-0.14176617268393066</v>
+        <v>-0.2999490305440388</v>
       </c>
       <c r="N11">
-        <v>-9.8002280204948319E-2</v>
+        <v>-0.29990930507329355</v>
       </c>
       <c r="O11">
-        <v>0.60851313420333641</v>
+        <v>-0.2998254549167107</v>
       </c>
       <c r="P11">
-        <v>-0.110002129981779</v>
+        <v>-0.29963372848477543</v>
       </c>
       <c r="Q11">
-        <v>-1.7880714355166927</v>
+        <v>-0.29878303780791954</v>
       </c>
       <c r="R11">
         <v>-0.17646895701618878</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" t="s" s="2">
-        <v>11</v>
+      <c r="A12">
+        <v>-0.4069040366138327</v>
       </c>
       <c r="B12">
-        <v>-0.51242892064806467</v>
+        <v>-0.4068903701914313</v>
       </c>
       <c r="C12">
-        <v>-0.51049609360918913</v>
+        <v>-0.40675390187577953</v>
       </c>
       <c r="D12">
-        <v>-0.5075154904727448</v>
+        <v>-0.40540852075954437</v>
       </c>
       <c r="E12">
-        <v>-0.5269258220538221</v>
+        <v>-0.39363961846173273</v>
       </c>
       <c r="F12">
-        <v>-0.56550074905876113</v>
+        <v>-0.34468631412045636</v>
       </c>
       <c r="G12">
-        <v>-0.43036714342288063</v>
+        <v>-0.3073745246853311</v>
       </c>
       <c r="H12">
-        <v>-0.43466052686295326</v>
+        <v>-0.3007636485367602</v>
       </c>
       <c r="I12">
-        <v>-0.46073938524354341</v>
+        <v>-0.30004307385055995</v>
       </c>
       <c r="J12">
-        <v>-0.44057641772959871</v>
+        <v>-0.29996322453067004</v>
       </c>
       <c r="K12">
-        <v>-0.29996652380972288</v>
+        <v>-0.299914712315836</v>
       </c>
       <c r="L12">
-        <v>-0.77006186267772303</v>
+        <v>-0.29985084883868196</v>
       </c>
       <c r="M12">
-        <v>-2.7407246792046425E-2</v>
+        <v>-0.2998187055125116</v>
       </c>
       <c r="N12">
-        <v>-0.12094672022750924</v>
+        <v>-0.29978156284992175</v>
       </c>
       <c r="O12">
-        <v>-0.11904164788464967</v>
+        <v>-0.299700905491505</v>
       </c>
       <c r="P12">
-        <v>-0.11867489796320584</v>
+        <v>-0.29948016668320815</v>
       </c>
       <c r="Q12">
-        <v>-0.12140613940731038</v>
+        <v>-0.298819201494442</v>
       </c>
       <c r="R12">
         <v>0.74215967728212784</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" t="s" s="2">
-        <v>12</v>
+      <c r="A13">
+        <v>-0.4067230779783562</v>
       </c>
       <c r="B13">
-        <v>-0.24883795312346074</v>
+        <v>-0.4067094265785239</v>
       </c>
       <c r="C13">
-        <v>-0.34720885868861612</v>
+        <v>-0.4065731081547046</v>
       </c>
       <c r="D13">
-        <v>-0.19744490423146804</v>
+        <v>-0.4052292008587403</v>
       </c>
       <c r="E13">
-        <v>-0.28127279834999097</v>
+        <v>-0.39347289695993837</v>
       </c>
       <c r="F13">
-        <v>-0.20050110386870623</v>
+        <v>-0.34456803212364395</v>
       </c>
       <c r="G13">
-        <v>-0.90922221441164253</v>
+        <v>-0.3072910717757015</v>
       </c>
       <c r="H13">
-        <v>-0.31464194744838347</v>
+        <v>-0.3006692344963436</v>
       </c>
       <c r="I13">
-        <v>-0.47209663014825332</v>
+        <v>-0.29993095668957565</v>
       </c>
       <c r="J13">
-        <v>-0.28552639031016036</v>
+        <v>-0.29984793924112735</v>
       </c>
       <c r="K13">
-        <v>-0.84877361512664662</v>
+        <v>-0.29980289823465744</v>
       </c>
       <c r="L13">
-        <v>1.6038614376971578</v>
+        <v>-0.299716596436802</v>
       </c>
       <c r="M13">
-        <v>-6.1106131178978576E-2</v>
+        <v>-0.299646987791572</v>
       </c>
       <c r="N13">
-        <v>-0.11443830672980546</v>
+        <v>-0.29960813492020244</v>
       </c>
       <c r="O13">
-        <v>-0.11800540113351947</v>
+        <v>-0.2995364589964725</v>
       </c>
       <c r="P13">
-        <v>9.6600894317858885E-3</v>
+        <v>-0.29934800564469294</v>
       </c>
       <c r="Q13">
-        <v>-0.14491620319879353</v>
+        <v>-0.2983283322074552</v>
       </c>
       <c r="R13">
         <v>-0.29273290631532506</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" t="s" s="2">
-        <v>13</v>
+      <c r="A14">
+        <v>-0.40618503110411536</v>
       </c>
       <c r="B14">
-        <v>-4.7810682869470496E-2</v>
+        <v>-0.40617142379817733</v>
       </c>
       <c r="C14">
-        <v>-6.3513145621984068E-2</v>
+        <v>-0.40603554562875716</v>
       </c>
       <c r="D14">
-        <v>-2.3413040109398316E-2</v>
+        <v>-0.40469596699293786</v>
       </c>
       <c r="E14">
-        <v>-2.5076601722976238E-2</v>
+        <v>-0.392976664671465</v>
       </c>
       <c r="F14">
-        <v>4.3228066654522605E-2</v>
+        <v>-0.34421382521210825</v>
       </c>
       <c r="G14">
-        <v>-4.5409916173356824E-2</v>
+        <v>-0.30704273998278764</v>
       </c>
       <c r="H14">
-        <v>-6.9455680984399776E-2</v>
+        <v>-0.3003931199329317</v>
       </c>
       <c r="I14">
-        <v>-4.9534588018195429E-2</v>
+        <v>-0.2995325395149305</v>
       </c>
       <c r="J14">
-        <v>-1.262722591879426E-2</v>
+        <v>-0.2993968364813245</v>
       </c>
       <c r="K14">
-        <v>5.9916660330627909E-3</v>
+        <v>-0.29935331962446954</v>
       </c>
       <c r="L14">
-        <v>5.8452949981689616E-3</v>
+        <v>-0.2992946443905559</v>
       </c>
       <c r="M14">
-        <v>-6.2017770804350968E-2</v>
+        <v>-0.29917599920380467</v>
       </c>
       <c r="N14">
-        <v>-1.2780603989801567E-2</v>
+        <v>-0.2990686679903977</v>
       </c>
       <c r="O14">
-        <v>-1.0287501369345564E-2</v>
+        <v>-0.2989905275060314</v>
       </c>
       <c r="P14">
-        <v>-2.2859462141949147E-2</v>
+        <v>-0.29878821557056423</v>
       </c>
       <c r="Q14">
-        <v>-4.3945484372585254E-2</v>
+        <v>-0.2980794335525731</v>
       </c>
       <c r="R14">
         <v>2.0765643159882815E-3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" t="s" s="2">
-        <v>14</v>
+      <c r="A15">
+        <v>-0.405012437970335</v>
       </c>
       <c r="B15">
-        <v>1.3371449833839014E-2</v>
+        <v>-0.40499891035164465</v>
       </c>
       <c r="C15">
-        <v>8.8141290867149308E-3</v>
+        <v>-0.40486382724856107</v>
       </c>
       <c r="D15">
-        <v>1.585286841079498E-2</v>
+        <v>-0.40353202954900214</v>
       </c>
       <c r="E15">
-        <v>-1.9966099740270575E-2</v>
+        <v>-0.39187638470264047</v>
       </c>
       <c r="F15">
-        <v>-1.1094365027893391E-2</v>
+        <v>-0.3432969340839245</v>
       </c>
       <c r="G15">
-        <v>-8.3289622568569893E-3</v>
+        <v>-0.30617988240472727</v>
       </c>
       <c r="H15">
-        <v>-7.9035006120280575E-3</v>
+        <v>-0.29945237776550526</v>
       </c>
       <c r="I15">
-        <v>-7.023548275449854E-3</v>
+        <v>-0.2982362574388869</v>
       </c>
       <c r="J15">
-        <v>-3.9746717348721995E-3</v>
+        <v>-0.2978079942968362</v>
       </c>
       <c r="K15">
-        <v>-1.7458995707692361E-2</v>
+        <v>-0.2977092751339804</v>
       </c>
       <c r="L15">
-        <v>-3.7670955490759382E-3</v>
+        <v>-0.2976183108366951</v>
       </c>
       <c r="M15">
-        <v>-9.7509976142770593E-4</v>
+        <v>-0.2974568198719849</v>
       </c>
       <c r="N15">
-        <v>-1.3530712747676477E-2</v>
+        <v>-0.2971716644130248</v>
       </c>
       <c r="O15">
-        <v>-7.0256525687703384E-3</v>
+        <v>-0.29690519659658043</v>
       </c>
       <c r="P15">
-        <v>-6.3233783105545961E-3</v>
+        <v>-0.2966862813821865</v>
       </c>
       <c r="Q15">
-        <v>-1.4394277101298902E-2</v>
+        <v>-0.295875242652181</v>
       </c>
       <c r="R15">
         <v>-5.0245144126511354E-3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" t="s" s="2">
-        <v>15</v>
+      <c r="A16">
+        <v>-0.40050553015271045</v>
       </c>
       <c r="B16">
-        <v>-1.1755393276164278E-2</v>
+        <v>-0.40049226530487775</v>
       </c>
       <c r="C16">
-        <v>1.8350943259645709E-2</v>
+        <v>-0.40035980450557196</v>
       </c>
       <c r="D16">
-        <v>-7.1090624882360533E-3</v>
+        <v>-0.3990536424926293</v>
       </c>
       <c r="E16">
-        <v>-0.11531823820259196</v>
+        <v>-0.3876054092342994</v>
       </c>
       <c r="F16">
-        <v>-0.16010125202341088</v>
+        <v>-0.3395533194293902</v>
       </c>
       <c r="G16">
-        <v>3.4599137035211123</v>
+        <v>-0.3023826706182345</v>
       </c>
       <c r="H16">
-        <v>-8.2892907269362909E-2</v>
+        <v>-0.2952832478140428</v>
       </c>
       <c r="I16">
-        <v>0.43030491295422951</v>
+        <v>-0.29240577496642944</v>
       </c>
       <c r="J16">
-        <v>-3.7403026783496226E-3</v>
+        <v>-0.28949883416297845</v>
       </c>
       <c r="K16">
-        <v>-1.2438244099802283</v>
+        <v>-0.2887648877586875</v>
       </c>
       <c r="L16">
-        <v>-0.21899795679623388</v>
+        <v>-0.28849062226237787</v>
       </c>
       <c r="M16">
-        <v>-0.17165871720400766</v>
+        <v>-0.28783101317654647</v>
       </c>
       <c r="N16">
-        <v>5.3770826952793754E-2</v>
+        <v>-0.2868440297657487</v>
       </c>
       <c r="O16">
-        <v>0.13029130517576276</v>
+        <v>-0.28610517204002367</v>
       </c>
       <c r="P16">
-        <v>-0.78905897809046022</v>
+        <v>-0.2853587555191895</v>
       </c>
       <c r="Q16">
-        <v>0.15794087435606208</v>
+        <v>-0.2840112657240846</v>
       </c>
       <c r="R16">
         <v>-2.7712982479313167E-3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" t="s" s="2">
-        <v>16</v>
+      <c r="A17">
+        <v>-0.3791414766534742</v>
       </c>
       <c r="B17">
-        <v>3.8646061987172735E-2</v>
+        <v>-0.37912983096907316</v>
       </c>
       <c r="C17">
-        <v>-5.9726097916073903E-2</v>
+        <v>-0.3790135325628157</v>
       </c>
       <c r="D17">
-        <v>-8.1959470565260037</v>
+        <v>-0.3778662954877626</v>
       </c>
       <c r="E17">
-        <v>-1.9944260458675294E-2</v>
+        <v>-0.36777595609816877</v>
       </c>
       <c r="F17">
-        <v>1.2992222717348623E-2</v>
+        <v>-0.3247146118331551</v>
       </c>
       <c r="G17">
-        <v>3.3234179695074924E-2</v>
+        <v>-0.2905072341968577</v>
       </c>
       <c r="H17">
-        <v>5.9152992992656458E-2</v>
+        <v>-0.2836488226223177</v>
       </c>
       <c r="I17">
-        <v>1.7960227323586337E-2</v>
+        <v>-0.27883213423669356</v>
       </c>
       <c r="J17">
-        <v>4.4108947126796368E-2</v>
+        <v>-0.2665828015813969</v>
       </c>
       <c r="K17">
-        <v>7.9958275261540507E-2</v>
+        <v>-0.2604974847787971</v>
       </c>
       <c r="L17">
-        <v>-1.7605133352024106E-2</v>
+        <v>-0.2592650345465341</v>
       </c>
       <c r="M17">
-        <v>-6.6394770022704915E-3</v>
+        <v>-0.2575674795699037</v>
       </c>
       <c r="N17">
-        <v>-4.161592002149761E-2</v>
+        <v>-0.253502882606942</v>
       </c>
       <c r="O17">
-        <v>-2.5119310348638207E-2</v>
+        <v>-0.25000981265260774</v>
       </c>
       <c r="P17">
-        <v>-2.772671203377616E-2</v>
+        <v>-0.24871892858310227</v>
       </c>
       <c r="Q17">
-        <v>4.7512739136754814E-2</v>
+        <v>-0.2468619646021331</v>
       </c>
       <c r="R17">
         <v>-1.2691700044186346E-2</v>
